--- a/docassemble/CDCEvictionMoratorium/data/sources/cdc_eviction_moratorium_es.xlsx
+++ b/docassemble/CDCEvictionMoratorium/data/sources/cdc_eviction_moratorium_es.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="691">
   <si>
     <t>interview</t>
   </si>
@@ -4653,61 +4653,6 @@
     <t>346c3101a9ee699e66c013ffa02da815</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">MassAccess submission from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${users}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> intended for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${courts[0]}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>Question_75</t>
   </si>
   <si>
@@ -5387,9 +5332,6 @@
     <t>False</t>
   </si>
   <si>
-    <t>Falso</t>
-  </si>
-  <si>
     <t>3d9bf4309999db58ee3203a0035723bc</t>
   </si>
   <si>
@@ -6594,9 +6536,6 @@
   </si>
   <si>
     <t>¿Cuál es su direccion?</t>
-  </si>
-  <si>
-    <t>dirección</t>
   </si>
   <si>
     <t>Apartamento</t>
@@ -7364,6 +7303,57 @@
   </si>
   <si>
     <t>Para continuar, debe aceptar los [términos de uso](https://massaccess.suffolklitlab.org/privacy/)</t>
+  </si>
+  <si>
+    <t>Dirección</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MassAccess submission from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${users}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> intended for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${courts[0]}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -7752,15 +7742,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <pane ySplit="6590" topLeftCell="A252"/>
-      <selection activeCell="H132" sqref="H132"/>
-      <selection pane="bottomLeft" activeCell="H253" sqref="H253"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="H180" sqref="H180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" customWidth="1"/>
+    <col min="1" max="1" width="34.08984375" customWidth="1"/>
     <col min="2" max="2" width="15.7265625" customWidth="1"/>
     <col min="3" max="3" width="12.7265625" customWidth="1"/>
     <col min="7" max="8" width="75.7265625" customWidth="1"/>
@@ -8647,7 +8635,7 @@
         <v>88</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -8673,7 +8661,7 @@
         <v>90</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -8699,7 +8687,7 @@
         <v>92</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
@@ -8725,7 +8713,7 @@
         <v>94</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -8933,7 +8921,7 @@
         <v>112</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.35">
@@ -9063,7 +9051,7 @@
         <v>124</v>
       </c>
       <c r="H50" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
@@ -9089,7 +9077,7 @@
         <v>126</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
@@ -9115,7 +9103,7 @@
         <v>128</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
@@ -9141,7 +9129,7 @@
         <v>130</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -9217,7 +9205,7 @@
         <v>138</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -9269,7 +9257,7 @@
         <v>142</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>654</v>
+        <v>689</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
@@ -9295,7 +9283,7 @@
         <v>144</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
@@ -9321,7 +9309,7 @@
         <v>146</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
@@ -9347,7 +9335,7 @@
         <v>148</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
@@ -9399,7 +9387,7 @@
         <v>152</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -10647,7 +10635,7 @@
         <v>264</v>
       </c>
       <c r="H111" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
@@ -10673,7 +10661,7 @@
         <v>266</v>
       </c>
       <c r="H112" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.35">
@@ -11089,7 +11077,7 @@
         <v>313</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -11115,7 +11103,7 @@
         <v>315</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
@@ -11141,7 +11129,7 @@
         <v>317</v>
       </c>
       <c r="H130" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
@@ -11167,7 +11155,7 @@
         <v>319</v>
       </c>
       <c r="H131" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -11193,7 +11181,7 @@
         <v>322</v>
       </c>
       <c r="H132" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -11788,7 +11776,7 @@
         <v>12</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>377</v>
+        <v>690</v>
       </c>
       <c r="H155" s="4" t="s">
         <v>14</v>
@@ -11799,22 +11787,22 @@
         <v>8</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
       </c>
       <c r="D156" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G156" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G156" s="3" t="s">
-        <v>380</v>
       </c>
       <c r="H156" s="4" t="s">
         <v>14</v>
@@ -11825,22 +11813,22 @@
         <v>8</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C157" s="2">
         <v>1</v>
       </c>
       <c r="D157" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G157" s="3" t="s">
         <v>381</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G157" s="3" t="s">
-        <v>382</v>
       </c>
       <c r="H157" s="4" t="s">
         <v>14</v>
@@ -11851,22 +11839,22 @@
         <v>8</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C158" s="2">
         <v>2</v>
       </c>
       <c r="D158" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G158" s="5" t="s">
         <v>383</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G158" s="5" t="s">
-        <v>384</v>
       </c>
       <c r="H158" s="4" t="s">
         <v>14</v>
@@ -11877,22 +11865,22 @@
         <v>8</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
       </c>
       <c r="D159" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G159" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G159" s="3" t="s">
-        <v>387</v>
       </c>
       <c r="H159" s="4" t="s">
         <v>14</v>
@@ -11903,22 +11891,22 @@
         <v>8</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C160" s="2">
         <v>1</v>
       </c>
       <c r="D160" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G160" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G160" s="3" t="s">
-        <v>389</v>
       </c>
       <c r="H160" s="4" t="s">
         <v>14</v>
@@ -11929,22 +11917,22 @@
         <v>8</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C161" s="2">
         <v>2</v>
       </c>
       <c r="D161" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G161" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G161" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="H161" s="4" t="s">
         <v>14</v>
@@ -11955,22 +11943,22 @@
         <v>8</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C162" s="2">
         <v>3</v>
       </c>
       <c r="D162" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G162" s="3" t="s">
         <v>392</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G162" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="H162" s="4" t="s">
         <v>14</v>
@@ -11981,25 +11969,25 @@
         <v>8</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
       </c>
       <c r="D163" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G163" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="E163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G163" s="3" t="s">
+      <c r="H163" s="4" t="s">
         <v>396</v>
-      </c>
-      <c r="H163" s="4" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.35">
@@ -12007,48 +11995,48 @@
         <v>8</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C164" s="2">
         <v>1</v>
       </c>
       <c r="D164" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G164" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G164" s="3" t="s">
+      <c r="H164" s="4" t="s">
         <v>399</v>
-      </c>
-      <c r="H164" s="4" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>402</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
       </c>
       <c r="D165" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G165" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G165" s="5" t="s">
-        <v>404</v>
       </c>
       <c r="H165" s="4" t="s">
         <v>14</v>
@@ -12056,25 +12044,25 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>402</v>
       </c>
       <c r="C166" s="2">
         <v>1</v>
       </c>
       <c r="D166" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G166" s="5" t="s">
         <v>405</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G166" s="5" t="s">
-        <v>406</v>
       </c>
       <c r="H166" s="4" t="s">
         <v>14</v>
@@ -12082,42 +12070,42 @@
     </row>
     <row r="167" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
       </c>
       <c r="D167" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G167" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="E167" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G167" s="3" t="s">
+      <c r="H167" s="4" t="s">
         <v>409</v>
-      </c>
-      <c r="H167" s="4" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C168" s="2">
         <v>1</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>11</v>
@@ -12126,50 +12114,50 @@
         <v>12</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
       </c>
       <c r="D169" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G169" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="E169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G169" s="3" t="s">
+      <c r="H169" s="4" t="s">
         <v>414</v>
-      </c>
-      <c r="H169" s="4" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C170" s="2">
         <v>1</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>11</v>
@@ -12178,310 +12166,308 @@
         <v>12</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C171" s="2">
         <v>2</v>
       </c>
       <c r="D171" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G171" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="E171" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G171" s="3" t="s">
-        <v>418</v>
-      </c>
       <c r="H171" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="150" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C172" s="2">
         <v>3</v>
       </c>
       <c r="D172" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G172" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="E172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G172" s="3" t="s">
-        <v>420</v>
-      </c>
       <c r="H172" s="4" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
       </c>
       <c r="D173" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G173" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E173" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G173" s="3" t="s">
+      <c r="H173" s="4" t="s">
         <v>423</v>
-      </c>
-      <c r="H173" s="4" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C174" s="2">
         <v>1</v>
       </c>
       <c r="D174" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G174" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E174" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G174" s="3" t="s">
-        <v>426</v>
-      </c>
       <c r="H174" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C175" s="2">
         <v>2</v>
       </c>
       <c r="D175" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G175" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="E175" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G175" s="3" t="s">
-        <v>428</v>
-      </c>
       <c r="H175" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C176" s="2">
         <v>3</v>
       </c>
       <c r="D176" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G176" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="E176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G176" s="3" t="s">
-        <v>430</v>
-      </c>
       <c r="H176" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
       </c>
       <c r="D177" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G177" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="E177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G177" s="3" t="s">
-        <v>433</v>
-      </c>
       <c r="H177" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C178" s="2">
         <v>1</v>
       </c>
       <c r="D178" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G178" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="E178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G178" s="3" t="s">
+      <c r="H178" s="4" t="s">
         <v>435</v>
-      </c>
-      <c r="H178" s="4" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C179" s="2">
         <v>2</v>
       </c>
       <c r="D179" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G179" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="E179" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G179" s="3" t="s">
+      <c r="H179" s="4" t="s">
         <v>438</v>
-      </c>
-      <c r="H179" s="4" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C180" s="2">
         <v>3</v>
       </c>
       <c r="D180" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G180" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="E180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G180" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="H180" s="4" t="s">
-        <v>442</v>
-      </c>
+      <c r="H180" s="4"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C181" s="2">
         <v>4</v>
       </c>
       <c r="D181" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="H181" s="4" t="s">
         <v>443</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G181" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="H181" s="4" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C182" s="2">
         <v>0</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>11</v>
@@ -12490,24 +12476,24 @@
         <v>12</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="210" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C183" s="2">
         <v>1</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>11</v>
@@ -12516,154 +12502,154 @@
         <v>12</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C184" s="2">
         <v>2</v>
       </c>
       <c r="D184" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="H184" s="4" t="s">
         <v>450</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G184" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="H184" s="4" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C185" s="2">
         <v>3</v>
       </c>
       <c r="D185" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H185" s="4" t="s">
         <v>453</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G185" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="H185" s="4" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C186" s="2">
         <v>0</v>
       </c>
       <c r="D186" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="H186" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G186" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="H186" s="4" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C187" s="2">
         <v>1</v>
       </c>
       <c r="D187" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="H187" s="4" t="s">
         <v>460</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G187" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="H187" s="4" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C188" s="2">
         <v>2</v>
       </c>
       <c r="D188" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="H188" s="4" t="s">
         <v>463</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G188" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="H188" s="4" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="195" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C189" s="2">
         <v>3</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>11</v>
@@ -12672,50 +12658,50 @@
         <v>12</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
       </c>
       <c r="D190" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="H190" s="4" t="s">
         <v>468</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G190" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="H190" s="4" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C191" s="2">
         <v>1</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>11</v>
@@ -12724,50 +12710,50 @@
         <v>12</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C192" s="2">
         <v>2</v>
       </c>
       <c r="D192" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="H192" s="4" t="s">
         <v>473</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G192" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="H192" s="4" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C193" s="2">
         <v>3</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>11</v>
@@ -12776,180 +12762,180 @@
         <v>12</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C194" s="2">
         <v>4</v>
       </c>
       <c r="D194" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="H194" s="4" t="s">
         <v>478</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G194" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="H194" s="4" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C195" s="2">
         <v>5</v>
       </c>
       <c r="D195" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="H195" s="4" t="s">
         <v>481</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G195" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="H195" s="4" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C196" s="2">
         <v>6</v>
       </c>
       <c r="D196" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H196" s="4" t="s">
         <v>484</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G196" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="H196" s="4" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C197" s="2">
         <v>7</v>
       </c>
       <c r="D197" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="H197" s="4" t="s">
         <v>487</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G197" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="H197" s="4" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C198" s="2">
         <v>8</v>
       </c>
       <c r="D198" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="H198" s="4" t="s">
         <v>490</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G198" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="H198" s="4" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C199" s="2">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="H199" s="4" t="s">
         <v>493</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G199" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="H199" s="4" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C200" s="2">
         <v>0</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>11</v>
@@ -12958,24 +12944,24 @@
         <v>12</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H200" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C201" s="2">
         <v>1</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>11</v>
@@ -12984,24 +12970,24 @@
         <v>12</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H201" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C202" s="2">
         <v>2</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>11</v>
@@ -13010,102 +12996,102 @@
         <v>12</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H202" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C203" s="2">
         <v>3</v>
       </c>
       <c r="D203" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="H203" s="4" t="s">
         <v>503</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G203" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="H203" s="4" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C204" s="2">
         <v>4</v>
       </c>
       <c r="D204" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="H204" s="4" t="s">
         <v>506</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G204" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="H204" s="4" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C205" s="2">
         <v>0</v>
       </c>
       <c r="D205" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="H205" s="4" t="s">
         <v>510</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G205" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="H205" s="4" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C206" s="2">
         <v>1</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>11</v>
@@ -13114,284 +13100,284 @@
         <v>12</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C207" s="2">
         <v>2</v>
       </c>
       <c r="D207" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="H207" s="4" t="s">
         <v>515</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G207" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="H207" s="4" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C208" s="2">
         <v>3</v>
       </c>
       <c r="D208" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="H208" s="4" t="s">
         <v>518</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G208" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="H208" s="4" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C209" s="2">
         <v>4</v>
       </c>
       <c r="D209" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="H209" s="4" t="s">
         <v>521</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G209" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="H209" s="4" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C210" s="2">
         <v>5</v>
       </c>
       <c r="D210" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="H210" s="4" t="s">
         <v>524</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G210" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="H210" s="4" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C211" s="2">
         <v>6</v>
       </c>
       <c r="D211" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="H211" s="4" t="s">
         <v>527</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G211" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="H211" s="4" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C212" s="2">
         <v>7</v>
       </c>
       <c r="D212" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="H212" s="4" t="s">
         <v>530</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G212" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="H212" s="4" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C213" s="2">
         <v>8</v>
       </c>
       <c r="D213" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="H213" s="4" t="s">
         <v>533</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G213" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="H213" s="4" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C214" s="2">
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="H214" s="4" t="s">
         <v>536</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G214" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="H214" s="4" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C215" s="2">
         <v>0</v>
       </c>
       <c r="D215" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="H215" s="4" t="s">
         <v>540</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G215" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="H215" s="4" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C216" s="2">
         <v>1</v>
       </c>
       <c r="D216" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="H216" s="4" t="s">
         <v>543</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G216" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="H216" s="4" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C217" s="2">
         <v>2</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>11</v>
@@ -13400,15 +13386,15 @@
         <v>12</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>258</v>
@@ -13417,24 +13403,24 @@
         <v>0</v>
       </c>
       <c r="D218" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="H218" s="4" t="s">
         <v>548</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G218" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="H218" s="4" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>258</v>
@@ -13443,76 +13429,76 @@
         <v>1</v>
       </c>
       <c r="D219" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="H219" s="4" t="s">
         <v>551</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G219" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="H219" s="4" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C220" s="2">
         <v>0</v>
       </c>
       <c r="D220" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="H220" s="4" t="s">
         <v>555</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G220" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="H220" s="4" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C221" s="2">
         <v>1</v>
       </c>
       <c r="D221" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="H221" s="4" t="s">
         <v>558</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G221" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="H221" s="4" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>249</v>
@@ -13521,24 +13507,24 @@
         <v>0</v>
       </c>
       <c r="D222" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="H222" s="4" t="s">
         <v>561</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G222" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="H222" s="4" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>249</v>
@@ -13547,24 +13533,24 @@
         <v>1</v>
       </c>
       <c r="D223" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="H223" s="4" t="s">
         <v>564</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G223" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="H223" s="4" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>249</v>
@@ -13573,7 +13559,7 @@
         <v>2</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>11</v>
@@ -13582,7 +13568,7 @@
         <v>12</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H224" s="4" t="s">
         <v>14</v>
@@ -13590,7 +13576,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>249</v>
@@ -13599,7 +13585,7 @@
         <v>3</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>11</v>
@@ -13608,7 +13594,7 @@
         <v>12</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H225" s="4" t="s">
         <v>14</v>
@@ -13616,42 +13602,42 @@
     </row>
     <row r="226" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C226" s="2">
         <v>0</v>
       </c>
       <c r="D226" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G226" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="H226" s="4" t="s">
         <v>572</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G226" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="H226" s="4" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C227" s="2">
         <v>1</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>11</v>
@@ -13660,50 +13646,50 @@
         <v>12</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H227" s="4" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C228" s="2">
         <v>0</v>
       </c>
       <c r="D228" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="H228" s="4" t="s">
         <v>577</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G228" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="H228" s="4" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C229" s="2">
         <v>1</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>11</v>
@@ -13712,24 +13698,24 @@
         <v>12</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="H229" s="4" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C230" s="2">
         <v>2</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>11</v>
@@ -13738,24 +13724,24 @@
         <v>12</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H230" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C231" s="2">
         <v>3</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>11</v>
@@ -13764,24 +13750,24 @@
         <v>12</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H231" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C232" s="2">
         <v>0</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>11</v>
@@ -13790,24 +13776,24 @@
         <v>12</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="H232" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C233" s="2">
         <v>1</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>11</v>
@@ -13816,7 +13802,7 @@
         <v>12</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H233" s="4" t="s">
         <v>14</v>
@@ -13824,16 +13810,16 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C234" s="2">
         <v>0</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>11</v>
@@ -13842,7 +13828,7 @@
         <v>12</v>
       </c>
       <c r="G234" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H234" s="4" t="s">
         <v>14</v>
@@ -13850,16 +13836,16 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C235" s="2">
         <v>1</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>11</v>
@@ -13868,7 +13854,7 @@
         <v>12</v>
       </c>
       <c r="G235" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H235" s="4" t="s">
         <v>14</v>
@@ -13876,16 +13862,16 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C236" s="2">
         <v>2</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>11</v>
@@ -13894,7 +13880,7 @@
         <v>12</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H236" s="4" t="s">
         <v>14</v>
@@ -13902,16 +13888,16 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C237" s="2">
         <v>3</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>11</v>
@@ -13920,7 +13906,7 @@
         <v>12</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H237" s="4" t="s">
         <v>14</v>
@@ -13946,301 +13932,301 @@
         <v>12</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H238" s="4" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="360" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C239" s="2">
         <v>1001</v>
       </c>
       <c r="D239" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G239" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H239" s="4" t="s">
         <v>601</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G239" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="H239" s="4" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C240" s="2">
         <v>1001</v>
       </c>
       <c r="D240" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G240" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="H240" s="4" t="s">
         <v>604</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G240" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="H240" s="4" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C241" s="2">
         <v>1001</v>
       </c>
       <c r="D241" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G241" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="H241" s="4" t="s">
         <v>607</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G241" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="H241" s="4" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C242" s="2">
         <v>1002</v>
       </c>
       <c r="D242" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G242" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="H242" s="4" t="s">
         <v>610</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G242" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="H242" s="4" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C243" s="2">
         <v>1000</v>
       </c>
       <c r="D243" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G243" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="H243" s="4" t="s">
         <v>614</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G243" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="H243" s="4" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C244" s="2">
         <v>1001</v>
       </c>
       <c r="D244" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="H244" s="4" t="s">
         <v>617</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G244" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="H244" s="4" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="150" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C245" s="2">
         <v>1003</v>
       </c>
       <c r="D245" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G245" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="H245" s="4" t="s">
         <v>620</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F245" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G245" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="H245" s="4" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C246" s="2">
         <v>1003</v>
       </c>
       <c r="D246" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G246" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="H246" s="4" t="s">
         <v>623</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F246" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G246" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="H246" s="4" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C247" s="2">
         <v>1000</v>
       </c>
       <c r="D247" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G247" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="H247" s="4" t="s">
         <v>626</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F247" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G247" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="H247" s="4" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C248" s="2">
         <v>1001</v>
       </c>
       <c r="D248" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G248" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="H248" s="4" t="s">
         <v>629</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F248" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G248" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="H248" s="4" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C249" s="2">
         <v>1002</v>
       </c>
       <c r="D249" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G249" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="H249" s="4" t="s">
         <v>632</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F249" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G249" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="H249" s="4" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>249</v>
@@ -14249,7 +14235,7 @@
         <v>1002</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>11</v>
@@ -14258,15 +14244,15 @@
         <v>12</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="H250" s="4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>249</v>
@@ -14275,7 +14261,7 @@
         <v>1003</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>11</v>
@@ -14284,102 +14270,102 @@
         <v>12</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H251" s="4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C252" s="2">
         <v>1001</v>
       </c>
       <c r="D252" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H252" s="4" t="s">
         <v>637</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F252" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G252" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="H252" s="4" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C253" s="2">
         <v>1001</v>
       </c>
       <c r="D253" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G253" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="H253" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F253" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G253" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="H253" s="4" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C254" s="2">
         <v>1000</v>
       </c>
       <c r="D254" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G254" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="H254" s="4" t="s">
         <v>644</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F254" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G254" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="H254" s="4" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C255" s="2">
         <v>1001</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>11</v>
@@ -14388,10 +14374,10 @@
         <v>12</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H255" s="4" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
   </sheetData>

--- a/docassemble/CDCEvictionMoratorium/data/sources/cdc_eviction_moratorium_es.xlsx
+++ b/docassemble/CDCEvictionMoratorium/data/sources/cdc_eviction_moratorium_es.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="11290"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="691">
   <si>
     <t>interview</t>
   </si>
@@ -699,10 +699,10 @@
     <t>Question_14</t>
   </si>
   <si>
-    <t>0945359809dad1fbf3dea1c95a0da951</t>
-  </si>
-  <si>
-    <t>Document</t>
+    <t>34ea53ed055756a33cdca7f0bf4133c3</t>
+  </si>
+  <si>
+    <t>Documento</t>
   </si>
   <si>
     <t>addde1ed3d1b070a631a2d45954b7fd7</t>
@@ -909,22 +909,34 @@
     <t>First name</t>
   </si>
   <si>
+    <t>Nombre</t>
+  </si>
+  <si>
     <t>167476d6f7ab99c1290fbdfec932420c</t>
   </si>
   <si>
     <t>Middle name</t>
   </si>
   <si>
+    <t>Segundo Nombre</t>
+  </si>
+  <si>
     <t>8d3f5eff9c40ee315d452392bed5309b</t>
   </si>
   <si>
     <t>Last name</t>
   </si>
   <si>
+    <t>Apellido</t>
+  </si>
+  <si>
     <t>56e6ddd1cb6cec596b433440dfb21c17</t>
   </si>
   <si>
     <t>Suffix</t>
+  </si>
+  <si>
+    <t>Sufijo</t>
   </si>
   <si>
     <t>names of people</t>
@@ -1256,6 +1268,9 @@
 </t>
   </si>
   <si>
+    <t>¿Cuál es su nombre?</t>
+  </si>
+  <si>
     <t>bc910f8bdf70f29374f496f05be0330c</t>
   </si>
   <si>
@@ -1330,6 +1345,9 @@
 </t>
   </si>
   <si>
+    <t>¿Cuál es su direccion?</t>
+  </si>
+  <si>
     <t>14b7c922461ed4a4c40ea00862fc46e6</t>
   </si>
   <si>
@@ -1343,24 +1361,36 @@
     <t>Street address</t>
   </si>
   <si>
+    <t>Dirección</t>
+  </si>
+  <si>
     <t>19c562a36aeb455d09534f93b4f5236f</t>
   </si>
   <si>
     <t>Unit</t>
   </si>
   <si>
+    <t>Apartamento</t>
+  </si>
+  <si>
     <t>57d056ed0984166336b7879c2af3657f</t>
   </si>
   <si>
     <t>City</t>
   </si>
   <si>
+    <t>Ciudad</t>
+  </si>
+  <si>
     <t>46a2a41cc6e552044816a2d04634545d</t>
   </si>
   <si>
     <t>State</t>
   </si>
   <si>
+    <t>Estado</t>
+  </si>
+  <si>
     <t>2a6039655313bf5dab1e43523b62c374</t>
   </si>
   <si>
@@ -1371,6 +1401,9 @@
   </si>
   <si>
     <t>Zip</t>
+  </si>
+  <si>
+    <t>Código zip</t>
   </si>
   <si>
     <t>your contact information</t>
@@ -2419,10 +2452,16 @@
     <t>Sign on my phone</t>
   </si>
   <si>
+    <t>Regístrate en mi teléfono</t>
+  </si>
+  <si>
     <t>36f5c9ec4a8cccc1365c740f6628b6b4</t>
   </si>
   <si>
     <t>Sign on this computer</t>
+  </si>
+  <si>
+    <t>Regístrate en esta computadora</t>
   </si>
   <si>
     <t>signature wait screen</t>
@@ -3721,6 +3760,97 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>% if user_has_saved_answers:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${fa_icon("bell", color="primary", size="sm")}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+¡Respuestas guardadas disponibles!
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${action_button_html(url_action('load_answer'), icon="folder-open", label=word("Ver respuestas"), size="sm" )}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% endif    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
     <t>f504895a96e57e3beda8e71da5b8b77f</t>
   </si>
   <si>
@@ -3756,18 +3886,56 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Para continuar, debe aceptar los </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[términos de uso]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(https://massaccess.suffolklitlab.org/privacy/)</t>
+    </r>
+  </si>
+  <si>
     <t>16b18e015293170ff81c690370942da7</t>
   </si>
   <si>
     <t>I accept the terms of use.</t>
   </si>
   <si>
+    <t>Acepto los términos de uso.</t>
+  </si>
+  <si>
     <t>0c41a8666a81cca347d2f3306dbe3203</t>
   </si>
   <si>
     <t>You cannot continue unless you agree to the terms of use.</t>
   </si>
   <si>
+    <t>No puede continuar a menos que esté de acuerdo con los términos de uso.</t>
+  </si>
+  <si>
     <t>perjury intro</t>
   </si>
   <si>
@@ -3776,6 +3944,9 @@
   <si>
     <t xml:space="preserve">Signing Under Oath
 </t>
+  </si>
+  <si>
+    <t>Firma bajo juramento.</t>
   </si>
   <si>
     <t>a499fa3635500b3b571c5573ccbed0a2</t>
@@ -4653,6 +4824,61 @@
     <t>346c3101a9ee699e66c013ffa02da815</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">MassAccess submission from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${users}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> intended for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${courts[0]}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
     <t>Question_75</t>
   </si>
   <si>
@@ -5201,10 +5427,10 @@
     <t>Block_10</t>
   </si>
   <si>
-    <t>621c6a74fbccbe11eda4b4d4f2117f30</t>
-  </si>
-  <si>
-    <t>${get_language_list(get_tuples(['en','es']),current='en')}</t>
+    <t>f6c834c88ad73ccb1c504026b93b4aaa</t>
+  </si>
+  <si>
+    <t>${get_language_list(get_tuples(['en','es']),current=user_language)}</t>
   </si>
   <si>
     <t>d998ed526732db856cbc6c77bfee9b0a</t>
@@ -5229,1485 +5455,14 @@
     <t>85e175129edf8c157be527db8e97f330</t>
   </si>
   <si>
-    <t>moratorium intro</t>
-  </si>
-  <si>
-    <t>d5bc9c2f91c65f2fc9245836ef8a1b85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Some things to keep in mind
-</t>
-  </si>
-  <si>
-    <t>Algunas cosas para tener en mente</t>
-  </si>
-  <si>
-    <t>460f4664b1fc8f317d93f75dbc689f1b</t>
-  </si>
-  <si>
-    <t>d88857f1f2c119233dea0cb5ba765a33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why else can I be evicted?
-</t>
-  </si>
-  <si>
-    <t>fbdb531a806b19322bb0ffe3712dafba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The CDC order lists 5 reasons that someone can be evicted if they
-otherwise qualify for the moratorium:
-1. Criminal activity.
-2. Actions that threaten the health or safety of other residents.
-3. Damaging or posing an immediate risk of damaging property.
-4. Violating any building code, ordinance, or regulation relating to health or safety.
-5. Violating any other part of the lease other than failing to pay rent,
-fees, or interest.    
-</t>
-  </si>
-  <si>
-    <t>qualify income</t>
-  </si>
-  <si>
-    <t>787a5e9fbc0f863888f210f49f876993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Income qualification
-</t>
-  </si>
-  <si>
-    <t>Calificación de ingresos</t>
-  </si>
-  <si>
-    <t>cf941bae99dccaa1cf1478494fe62da1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check any true answers that apply below.
-</t>
-  </si>
-  <si>
-    <t>f83afef09bb548f702dccff592eb3bc0</t>
-  </si>
-  <si>
-    <t>I did not have to report any income to the I.R.S. last year (tax year 2019)</t>
-  </si>
-  <si>
-    <t>b057b7e1d3c0369b0a41c366aea4000e</t>
-  </si>
-  <si>
-    <t>I got a stimulus check in 2020 (economic impact payment)</t>
-  </si>
-  <si>
-    <t>Question_94</t>
-  </si>
-  <si>
-    <t>cb9c927ecf4125b3083e73dc30887aca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Income qualifications
-</t>
-  </si>
-  <si>
-    <t>c0b3a8f385e62df1a85c7c2c1700c3bd</t>
-  </si>
-  <si>
-    <t>Will you file a joint tax return this year?</t>
-  </si>
-  <si>
-    <t>¿Presentará una declaración de impuestos en conjunto este año?</t>
-  </si>
-  <si>
-    <t>aa337f526d42f3143c447bf8aebc27a5</t>
-  </si>
-  <si>
-    <t>I will earn less than $99,000 this year</t>
-  </si>
-  <si>
-    <t>Ganaré menos de $99,000 este año</t>
-  </si>
-  <si>
-    <t>f8320b26d30ab433c5a54546d21f414c</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>3d9bf4309999db58ee3203a0035723bc</t>
-  </si>
-  <si>
-    <t>My partner and I will earn less than $198,000 this year</t>
-  </si>
-  <si>
-    <t>Mi socio y yo ganaremos menos de $198,000 este año</t>
-  </si>
-  <si>
-    <t>Question_96</t>
-  </si>
-  <si>
-    <t>3de8c51acc579f2657c87b2a1a1dbfc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You may need a different resource
-</t>
-  </si>
-  <si>
-    <t>3a486e927aa5ae61997b867cbed244e9</t>
-  </si>
-  <si>
-    <t>51cfbcff36da74a9fc47f3a5140f99f2</t>
-  </si>
-  <si>
-    <t>Restart</t>
-  </si>
-  <si>
-    <t>Reiniciar</t>
-  </si>
-  <si>
-    <t>fef46e5063ce3dc78b8ae64fa474241d</t>
-  </si>
-  <si>
-    <t>Exit</t>
-  </si>
-  <si>
-    <t>Salirse</t>
-  </si>
-  <si>
-    <t>qualify best efforts</t>
-  </si>
-  <si>
-    <t>d6bb83842951191c61e60591e79adf2f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Did you do your best to get government help paying the rent?
-</t>
-  </si>
-  <si>
-    <t>¿Hizo usted todo lo posible para obtener ayuda del gobierno para pagar el alquiler?</t>
-  </si>
-  <si>
-    <t>d8c235431128df678cf4725442001014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Answer yes if you do not qualify for any help from the government,
-or if you applied and you were denied.
-</t>
-  </si>
-  <si>
-    <t>Responda que sí, si usted no califica para ninguna ayuda del gobierno,
-o si solicitó y se lo negaron.</t>
-  </si>
-  <si>
-    <t>c54a4b0f836dd16b819ea416d28258f2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What are "best efforts"?
-</t>
-  </si>
-  <si>
-    <t>¿Cuales son sus "mejores esfuerzos"?</t>
-  </si>
-  <si>
-    <t>1e573eb98b2a1617ea542d1b68f41e75</t>
-  </si>
-  <si>
-    <t>qualify cant afford rent</t>
-  </si>
-  <si>
-    <t>cd46328c35d6c1f1378641a836f2e6ab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can you afford your rent?
-</t>
-  </si>
-  <si>
-    <t>Puede pagar su alquiler?</t>
-  </si>
-  <si>
-    <t>2499a4420f4fcc77049a95b53203904b</t>
-  </si>
-  <si>
-    <t>Can you afford your rent?</t>
-  </si>
-  <si>
-    <t>a94ded712a78d28257ff4153a986caae</t>
-  </si>
-  <si>
-    <t>Check any that apply</t>
-  </si>
-  <si>
-    <t>Marque cualquiera que aplique</t>
-  </si>
-  <si>
-    <t>398852d06fd3d2b7a76b9e30b344b37e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Substantial" income probably means enough that it 
-makes a 
-difference in your household's ability to pay for basic 
-living expenses.
-</t>
-  </si>
-  <si>
-    <t>c9d824032766d02731d497c790b5f74d</t>
-  </si>
-  <si>
-    <t>My household lost **substantial** income</t>
-  </si>
-  <si>
-    <t>Mi hogar perdió ingresos ** sustanciales **</t>
-  </si>
-  <si>
-    <t>4f4e9e596b40a8db8f3611221ef62092</t>
-  </si>
-  <si>
-    <t>I lost my job</t>
-  </si>
-  <si>
-    <t>Perdi mi trabajo</t>
-  </si>
-  <si>
-    <t>2b37b46e86b881c1411d4ce874ac6856</t>
-  </si>
-  <si>
-    <t>My hours were cut</t>
-  </si>
-  <si>
-    <t>Mis horas de trabajo fueron cortadas</t>
-  </si>
-  <si>
-    <t>0179c1d3ebafa5ea5954dc2ad7a706bc</t>
-  </si>
-  <si>
-    <t>My salary was reduced</t>
-  </si>
-  <si>
-    <t>Mi salario fue reducido</t>
-  </si>
-  <si>
-    <t>6ac117172ab353a748d143b04a3399dd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An "extraordinary" medical expense is any unreimbursed 
-medical expense likely to exceed 7.5% of one’s adjusted 
-gross income for the year.
-</t>
-  </si>
-  <si>
-    <t>Un gasto médico "extraordinario" es cualquier gasto 
-médico no reembolsable que probablemente supere el 7.5% del valor ajustado
-del ingresos brutos del año.</t>
-  </si>
-  <si>
-    <t>87342188d37d3c90e1a6bc347cbb228d</t>
-  </si>
-  <si>
-    <t>I have **extraordinary** medical costs that I pay out of pocket (not covered by insurance)</t>
-  </si>
-  <si>
-    <t>Tengo costos médicos ** extraordinarios ** que pago de mi bolsillo (no cubiertos por el seguro)</t>
-  </si>
-  <si>
-    <t>qualify partial payments</t>
-  </si>
-  <si>
-    <t>d23941ecd563eeb72ee3f26cdf64d367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am doing my best to pay the amount of rent that I am able to pay, as my circumstances allow
-</t>
-  </si>
-  <si>
-    <t>aa42e884a3311c43ca1598d16327c65a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What if I cannot pay anything?
-</t>
-  </si>
-  <si>
-    <t>ddd49145740fba4954cf0d5545b1257a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You may not be able to pay any rent at all. That still may
-count as "best efforts".
-Answer "yes" if you cannot pay rent because of your 
-individual circumstances.
-Answer "yes" if you cannot pay rent because you have other
-expenses that you must pay and cannot control.    
-</t>
-  </si>
-  <si>
-    <t>591a29d2a323c67d0acddf22f9a01901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you are making a partial payment, you may want to include the 
-amount in this letter. It is **not** required. You can leave this
-blank.
-</t>
-  </si>
-  <si>
-    <t>Si realiza un pago parcial, es posible que desee incluir la
-cantidad en esta carta. No es requerido. Puede dejar esto en
-blanco.</t>
-  </si>
-  <si>
-    <t>51475a129c23ad22f3425be6c835fdaf</t>
-  </si>
-  <si>
-    <t>The amount I am paying (if anything) is</t>
-  </si>
-  <si>
-    <t>La cantidad que estoy pagando (si aplica) es</t>
-  </si>
-  <si>
-    <t>qualify homeless</t>
-  </si>
-  <si>
-    <t>85ff617a3614c57e768596c2304c5089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are you at risk of unsafe housing?
-</t>
-  </si>
-  <si>
-    <t>¿Corre usted el riesgo de tener una vivienda insegura?</t>
-  </si>
-  <si>
-    <t>af0f88355fb136d651bd2e36552a8fc3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check any that apply
-</t>
-  </si>
-  <si>
-    <t>da3587cfb826bd008ae5b43d234d198e</t>
-  </si>
-  <si>
-    <t>If I am evicted</t>
-  </si>
-  <si>
-    <t>Si soy desalojado</t>
-  </si>
-  <si>
-    <t>5b468667626ca857e1dcc864345d3d33</t>
-  </si>
-  <si>
-    <t>I am likely to become homeless</t>
-  </si>
-  <si>
-    <t>Es probable que me quede sin vivienda</t>
-  </si>
-  <si>
-    <t>e6f28b82044395715d095a81880d7514</t>
-  </si>
-  <si>
-    <t>I would likely need to move into a homeless shelter</t>
-  </si>
-  <si>
-    <t>Posiblemente necesitaría mudarme a un refugio para personas sin vivienda</t>
-  </si>
-  <si>
-    <t>0727c403838899d783541651dc724682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Close quarters" means that more people than normal would live in the same apartment. For example, sharing a bedroom or sleeping in a shared living space.
-</t>
-  </si>
-  <si>
-    <t>"Espacio cerrado" significa que más personas de lo normal vivirían en el mismo apt. Por ejemplo, compartir un dormitorio o dormir en un espacio compartido.</t>
-  </si>
-  <si>
-    <t>d58776625307efd019cc4303d88f5aab</t>
-  </si>
-  <si>
-    <t>I would likely need to move in with someone else in close quarters</t>
-  </si>
-  <si>
-    <t>Probablemente necesitaría mudarme con alguien más a un lugar pequeño</t>
-  </si>
-  <si>
-    <t>09cd943b06139bb6f23a1d9ca60a0bf5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Safe housing means any available, unoccupied residential property, or other space for occupancy in any seasonal or temporary housing, that would not violate Federal, State, or local occupancy standards.
-</t>
-  </si>
-  <si>
-    <t>Vivienda segura significa cualquier propiedad disponible, vivienda desocupada u otro espacio para ser ocupado en cualquier temporada o vivienda temporal, que no violaría los niveles de ocupación federales, estatales o locales.</t>
-  </si>
-  <si>
-    <t>055c486310762907c623b6daddb71e12</t>
-  </si>
-  <si>
-    <t>I do not have any other safe housing choices</t>
-  </si>
-  <si>
-    <t>Yo no tengo otras opciones de vivienda segura</t>
-  </si>
-  <si>
-    <t>38b34da5ebb86cb499fecee6a7f5bffa</t>
-  </si>
-  <si>
-    <t>Any other safe housing choices would cost me more money</t>
-  </si>
-  <si>
-    <t>Cualquier otra opción de vivienda segura me costaría más dinero</t>
-  </si>
-  <si>
-    <t>I understand everything</t>
-  </si>
-  <si>
-    <t>c3eb5c3b9018d75cb7032deb99fe43e9</t>
-  </si>
-  <si>
-    <t>I understand</t>
-  </si>
-  <si>
-    <t>Yo comprendo</t>
-  </si>
-  <si>
-    <t>6485ac334c41337b65fe8c5dcb673b5a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read the information below carefully
-</t>
-  </si>
-  <si>
-    <t>Lea la información a continuación con mucho cuidado</t>
-  </si>
-  <si>
-    <t>0298c7f38ecf8c945c387b0c22fd695a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you file this form, you are agreeing that you understand
-the following:
-Even though I may not be evicted before December 31, 2020,
-1. I still am responsible to pay my rent and follow all other rules of my lease. My landlord may charge me fees or interest.
-2. At the end of December 31, 2020, I may be required to pay all of the rent 
-due in full. This may depend on the state that I live in. I can talk to an attorney to be sure.
-3. I need to tell the truth on this form. If I do not, I may face civil
-or criminal penalties.
-</t>
-  </si>
-  <si>
-    <t>b0b50f13d5c688635be77a0646a132c1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sign your letter
-</t>
-  </si>
-  <si>
-    <t>Firme su carta</t>
-  </si>
-  <si>
-    <t>1ff9c70d52f0cbb907a0d57e2773f722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your letter is almost ready. You need to sign it first.
-Use the mouse or touchpad on your computer or
-sign with your finger on your phone. 
-You can send this letter to someone else to sign if you choose the "phone" option.
-</t>
-  </si>
-  <si>
-    <t>Su carta está casi lista. Usted debe firmarla primero.
-Use el dispositivo manual o el panel sensorial de su computadora o
-firme con el dedo en su teléfono.
-Puede enviar esta carta a otra persona para que la firme si elige la opción del "teléfono".</t>
-  </si>
-  <si>
-    <t>landlords name</t>
-  </si>
-  <si>
-    <t>2fa695fea5a46567843ff761007cb502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Who is your landlord?
-</t>
-  </si>
-  <si>
-    <t>¿Quién es su arrendador?</t>
-  </si>
-  <si>
-    <t>9b3708d06e0588126f0b3632f5c7e54d</t>
-  </si>
-  <si>
-    <t>Full name or organization name</t>
-  </si>
-  <si>
-    <t>Nombre completo o nombre de la organización</t>
-  </si>
-  <si>
-    <t>e29f450a0664d23ac0088895bb702656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When do you plan to send this letter?
-</t>
-  </si>
-  <si>
-    <t>¿Cuándo planea enviar esta carta?</t>
-  </si>
-  <si>
-    <t>fb76a008fda30bf08d577b23c1fc6ec5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The CDC moratorium starts on September 4, 2020 and
-ends on December 31, 2020.
-</t>
-  </si>
-  <si>
-    <t>El moratorio de los CDC comienza el 4 de septiembre de 2020 y
-finaliza el 31 de diciembre de 2020.</t>
-  </si>
-  <si>
-    <t>62e610d3ec3e9462db3bbb3424a5d876</t>
-  </si>
-  <si>
-    <t>2020-09-04</t>
-  </si>
-  <si>
-    <t>137ad1bff4c016874cc17a18c1aebb82</t>
-  </si>
-  <si>
-    <t>2020-12-31</t>
-  </si>
-  <si>
-    <t>preview</t>
-  </si>
-  <si>
-    <t>4148dd34a6d6056586c5a490942ae0e9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Below is a preview of your letter
-</t>
-  </si>
-  <si>
-    <t>A continuación esta una vista previa de su carta</t>
-  </si>
-  <si>
-    <t>98dab9564f7fc145e938fdad7ccdc2fe</t>
-  </si>
-  <si>
-    <t>download</t>
-  </si>
-  <si>
-    <t>86415a4b87af7b5450296cba81356f39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your letter is ready to send
-</t>
-  </si>
-  <si>
-    <t>Su carta esta lista para ser enviada.</t>
-  </si>
-  <si>
-    <t>b9583f174471c2d54c4ee490fd7eeaef</t>
-  </si>
-  <si>
-    <t>7702556c0f1563589cc84f085da260e1</t>
-  </si>
-  <si>
-    <t>Generate new letter</t>
-  </si>
-  <si>
-    <t>4a9c23d3923a796814d05c9a69689c50</t>
-  </si>
-  <si>
-    <t>Erase and exit</t>
-  </si>
-  <si>
-    <t>Question_110</t>
-  </si>
-  <si>
-    <t>d3199ae89b01dde1ec4012ee225f31e4</t>
-  </si>
-  <si>
-    <t>Cover Letter</t>
-  </si>
-  <si>
-    <t>2335dbf22eaab30cd41738eed3a60e3a</t>
-  </si>
-  <si>
-    <t>CDC_eviction_moratorium_cover_letter</t>
-  </si>
-  <si>
-    <t>Question_111</t>
-  </si>
-  <si>
-    <t>32d2de359175c21694f7b382c80977c1</t>
-  </si>
-  <si>
-    <t>${ users[0].signature if i == 'final' else '' }</t>
-  </si>
-  <si>
-    <t>c2e7df30202fee1bd15ebbbfbb0f67a3</t>
-  </si>
-  <si>
-    <t>${ signature_date }</t>
-  </si>
-  <si>
-    <t>f44027b1b8bab636ffb901fa2d75632d</t>
-  </si>
-  <si>
-    <t>CDC Eviction Moratorium Declaration</t>
-  </si>
-  <si>
-    <t>7eb82e053b9a71f9c97c60e49c37e872</t>
-  </si>
-  <si>
-    <t>CDC_eviction_moratorium_declaration</t>
-  </si>
-  <si>
-    <t>Signing Under Oath</t>
-  </si>
-  <si>
-    <t>Firma bajo juramento</t>
-  </si>
-  <si>
-    <t>b232f346b67ee658c33cce08c962e8bd</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-The </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[MassAccess Project]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(https://massaccess.suffolklitlab.org) helps you
-file forms online during the COVID-19 emergency.
-Use this form to tell your landlord about your rights under the Centers
-for Disease Control and Prevention's </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[eviction moratorium 
-order]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(https://s3.amazonaws.com/public-inspection.federalregister.gov/2020-19654.pdf).
-At the end of this online form, you can download, print, or email a
-completed letter.
-To use this form, you must:
-1. Earn under the income limit.
-2. Be unable to pay your rent because you lost income.
-3. Be at risk of homelessness or doubling up (sharing housing in close quarters).
-We will ask you detailed questions to find out if you qualify.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>% if chat_partners_available().help:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Live help is currently available in this interview. Click the speech bubble
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:comment-alt:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) in the navigation bar to connect to a live advocate for help.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>% endif</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-El </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[MassAccess Project]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(https://massaccess.suffolklitlab.org) le ayuda
-archivar formularios en línea durante la emergencia COVID-19.
-Use este formulario para informar a su arrendador sobre sus derechos bajo los Centros para el Control y la Prevención de Enfermedades </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[orden de desalojo moratoria]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(https://s3.amazonaws.com/public-inspection.federalregister.gov/2020-19654.pdf).
-Al final de este formulario en línea, puede descargar, imprimir o enviar por correo electrónico una carta ya terminada.
-Para utilizar este formulario, debe:
-1. Ganar por debajo del límite de ingresos.
-2. No poder pagar el alquiler porque perdió sus ingresos.
-3. Estar en riesgo de quedarse sin hogar o compartir una vivienda (compartir vivienda en lugares reducidos).
-Le haremos preguntas detalladas para saber si califica.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>% if chat_partners_available().help:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-La ayuda está disponible en vivo en esta entrevista. Haga clic en la simbolo de diálogo
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:comment-alt:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) en la barra de navegación para conectarse con un defensor en vivo para obtener ayuda.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>% endif</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>1e559af92ff501c1bcfe1bcf14d12217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Every adult who lives with you needs to fill out their own
-copy of this form.
-* This form can only stop you from being evicted for non-
-payment of rent. You can still be evicted for other reasons.
-* You still may owe rent and fees.
-</t>
-  </si>
-  <si>
-    <t>* Cada adulto que vive con usted debe completar su propia copia del formulario.
-* Este formulario solo puede evitar que no lo desalojen por no 
-pagar la renta. Aún puede ser desalojado por otras razones.
-* Es posible que aún deba alquiler y tarifas.</t>
-  </si>
-  <si>
-    <t>a5b3a85b315a0963afa8858a5da505d8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One way you can qualify is if the IRS sent you a CARES Act 
-stimulus payment.
-If you didn't get a stimulus payment, we will ask you about
-your income.
-</t>
-  </si>
-  <si>
-    <t>Una forma en que usted puede calificar es si el IRS le envió un pago de estímulo.
-De la Ley CARES
-Si no recibió un pago de estímulo, le preguntaremos sobre
-su ingreso.</t>
-  </si>
-  <si>
-    <t>bc8f8a356fa09b26c75f66367e22625c</t>
-  </si>
-  <si>
-    <t>I got a stimulus check this year (economic impact payment)</t>
-  </si>
-  <si>
-    <t>Recibí un cheque de estímulo este año (pago de impacto económico)</t>
-  </si>
-  <si>
-    <t>Question_90</t>
-  </si>
-  <si>
-    <t>6bc130b1d1181b2cca65bc4edf97ece2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This form is not for you
-</t>
-  </si>
-  <si>
-    <t>Este formulario no es para usted</t>
-  </si>
-  <si>
-    <t>5be68a554d9561470d940b2a6d189ca6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Based on your answers, you likely don't qualify for the CDC's
-Eviction Moratorium.
-If you need help with your housing, you may be able to get help from
-your </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[local legal aid]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(https://www.lsc.gov/what-legal-aid/find-legal-aid) 
-agency.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Según sus respuestas, es probable que no califique para los CDC
-de Desalojo Moratorio.
-Si necesita ayuda con su vivienda, es posible que pueda obtener ayuda de
-la agencia de </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[servicios legales locales]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (https://www.lsc.gov/what-legal-aid/find-legal-aid)
-</t>
-    </r>
-  </si>
-  <si>
-    <t>b331b67e45ed9d03d6dd91c0b9d9601d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Available government assistance means any governmental rental or housing
-payment benefits available to the individual or any household member.
-For example, state rental assistance, disability payments, or welfare
-benefits.
-If you applied and followed up for any rental help or benefits that you
-qualify for, you likely used your "best efforts". You do not need to ask
-for help from friends or family.
-</t>
-  </si>
-  <si>
-    <t>Asistencia gubernamental disponible significa cualquier beneficio de pago de renta o vivienda gubernamental disponibles para el individuo o cualquier miembro del ogar.
-Por ejemplo, asistencia de alquiler estatal, pagos por discapacidad o beneficos de asistencia social
-Si solicitó y realizó un seguimiento de cualquier ayuda o beneficio de alquiler para los que pudiera calificar, usted probablemente utilizó sus "mejores esfuerzos". No es necesario pedir ayuda de amigos o familiares.</t>
-  </si>
-  <si>
-    <t>ee3015ea9047b249fe2729d35e2df251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Substantial" income is enough that it makes a 
-difference in your household's ability to pay for basic 
-living expenses.       
-</t>
-  </si>
-  <si>
-    <t>Ingreso "sustancial" es el que es suficiente para generar una
-diferencia en la capacidad de su hogar para pagar los
-gastos y poder mantenerse.</t>
-  </si>
-  <si>
-    <t>f0236f3879196c630cba1fbf0366c3e7</t>
-  </si>
-  <si>
-    <t>Are you doing your best to pay part of your rent?</t>
-  </si>
-  <si>
-    <t>¿Está haciendo todo lo posible para pagar parte de su alquiler?</t>
-  </si>
-  <si>
-    <t>f4a62660065557102686b8ea015a6d60</t>
-  </si>
-  <si>
-    <t>I am doing my best to make partial rent payments on time</t>
-  </si>
-  <si>
-    <t>Estoy haciendo todo lo posible para hacer los pagos parciales del alquiler a tiempo.</t>
-  </si>
-  <si>
-    <t>920354760827e7c0f8f4c552a888c3ee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you file this form, you are agreeing that you understand
-the following:
-Even though I may not be evicted before December 31, 2020,
-1. I still am responsible to pay my rent and follow all other rules of my lease. My landlord may charge me fees or interest.
-2. At the end of December 31, 2020, I can be required to pay all of the rent 
-due in full.
-3. I need to tell the truth on this form. If I don't, I may face civil
-or criminal penalties.
-</t>
-  </si>
-  <si>
-    <t>Cuando presente este formulario, esta aceptando que comprende
-lo seguiente:
-Aunque no puedo ser desalojado antes del 31 de diciembre de 2020,
-1. Aún soy responsable de pagar la renta y seguir todas las demás reglas de mi contrato de arrendamiento. Mi arrendador puede cobrarme tarifas o intereses.
-2. Al final del 31 de diciembre de 2020, se me puede exigir que pague todo el alquiler
-debido en su totalidad.
-3. Yo necesito decir la verdad en este formulario. Si no lo hago, puedo enfrentarme a penalidades civiles o criminales.</t>
-  </si>
-  <si>
-    <t>2020-09-04 00:00:00</t>
-  </si>
-  <si>
-    <t>2020-12-31 00:00:00</t>
-  </si>
-  <si>
-    <t>bae622ba4a7fdedc3b7745cb9269b12f</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Click to open it in a new window. 
-Read it over carefully. Remember to come back to this
-window to sign and deliver it to your landlord.
-You can click back to make any changes, or download and edit the
-letter at the end of this interview.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${ pdf_concatenate(letter['preview'],filename="CDC_eviction_moratorium_preview.pdf") }</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Haga clic para abrirla en una nueva ventana.
-Léala detenidamente. Recuerde volver a esta
-ventana para firmar y entregarla a su arrendador.
-Usted puede hacer un clic de regresar para hacer cambios o descargar y editar la
-carta al final de esta entrevista.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${ pdf_concatenate(letter['preview'],filename="CDC_eviction_moratorium_preview.pdf") }</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>68319e994cba7a69ee180cf6ce086825</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Click the image below to open a preview of your letter.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${ pdf_concatenate(letter['final'],filename="CDC_eviction_moratorium.pdf") }</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Download a copy of this letter for your own records.
-2. Send a copy to your landlord. You can send it by email or
-   print a copy and send it by mail.
-3. You do not need to send it certified mail. If you do, it's a good
-   idea to also send a copy regular mail.
-4. If you need to make changes to your letter, download a copy and edit
-it using Microsoft Word, Google Docs, or another program of your choice.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Haga un clic en la imagen de abajo para abrir y poder ver su carta.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${ pdf_concatenate(letter['final'],filename="CDC_eviction_moratorium.pdf") }</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Descargue una copia de esta carta para sus propios registros.
-2. Envíe una copia a su arrendador. Usted puede mandarla por correo electrónico o
-   imprima una copia y envíela por correo.
-3. No es necesario enviarla por correo certificado. Si lo hace, seria un buena
-   idea de enviar también una copia por correo regular.
-4. Si necesita hacer cambios en su carta, descargue una copia y edítela
-utilizando Microsoft Word, Google Docs u algún otro programa de su elección.
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Question_104</t>
-  </si>
-  <si>
-    <t>37244a87f10ef78dbf3d611958adfdca</t>
-  </si>
-  <si>
-    <t>CDC Eviction Moratorium Letter</t>
-  </si>
-  <si>
-    <t>Carta moratoria de desalojo del CDC</t>
-  </si>
-  <si>
-    <t>eed1d99938ec414d2fcf96ffdea3be57</t>
-  </si>
-  <si>
-    <t>CDC_eviction_moratorium</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Segundo Nombre</t>
-  </si>
-  <si>
-    <t>Apellido</t>
-  </si>
-  <si>
-    <t>Sufijo</t>
-  </si>
-  <si>
-    <t>¿Cuál es su direccion?</t>
-  </si>
-  <si>
-    <t>Apartamento</t>
-  </si>
-  <si>
-    <t>Ciudad</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Código zip</t>
-  </si>
-  <si>
-    <t>¿Cuál es su nombre?</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Your state may have a moratorium that gives you </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[more 
-rights]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(https://evictionlab.org/covid-eviction-policies/).
-* Every adult who lives with you needs to fill out their own
-copy of this form.
-* This form can only stop you from being evicted for non-payment
-of rent. You can still be evicted for other reasons.
-* You still may owe rent and fees.
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Es posible que su estado tenga una moratoria que le otorgue [más derechos]
-* Cada adulto que vive con usted debe completar su propia copia del formulario.
-* Este formulario solo puede evitar que no lo desalojen por no 
-pagar la renta. Aún puede ser desalojado por otras razones.
-* Es posible que aún deba alquiler y tarifas.</t>
-  </si>
-  <si>
-    <t>¿Por qué más puedo ser desalojada?</t>
-  </si>
-  <si>
-    <t>La orden de los CDC enumera 5 razones por las que alguien puede ser desalojado si
-de lo contrario calificar para la moratoria:
-1. Actividad delictiva.
-2. Acciones que amenacen la salud o seguridad de otros residentes.
-3. Dañar o presentar un riesgo inmediato de dañar la propiedad.
-4. Violar cualquier código, ordenanza o reglamento de construcción relacionado con la salud o la seguridad.
-5. Violar cualquier otra parte del contrato de arrendamiento que no sea no pagar el alquiler, honorarios o intereses.</t>
-  </si>
-  <si>
-    <t>Marque las respuestas verdaderas que se apliquen a continuación.</t>
-  </si>
-  <si>
-    <t>No tuve que reportar ningún ingreso al I.R.S. el año pasado (año fiscal 2019)</t>
-  </si>
-  <si>
-    <t>Regístrate en mi teléfono</t>
-  </si>
-  <si>
-    <t>Regístrate en esta computadora</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>% if user_has_saved_answers:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${fa_icon("bell", color="primary", size="sm")}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-¡Respuestas guardadas disponibles!
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${action_button_html(url_action('load_answer'), icon="folder-open", label=word("Ver respuestas"), size="sm" )}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% endif    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">
 The </t>
     </r>
@@ -6858,10 +5613,57 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">
-El [MassAccess Project](https://massaccess.suffolklitlab.org) le ayuda
+El </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[MassAccess Project]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(https://massaccess.suffolklitlab.org) le ayuda
 archivar formularios en línea durante la emergencia COVID-19.
-Use este formulario para informar a su arrendador sobre sus derechos bajo los Centros para el Control y la Prevención de Enfermedades [orden de desalojo moratoria](https://s3.amazonaws.com/public-inspection.federalregister.gov/2020-19654.pdf).
+Use este formulario para informar a su arrendador sobre sus derechos bajo los Centros para el Control y la Prevención de Enfermedades </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[orden de desalojo moratoria]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(https://s3.amazonaws.com/public-inspection.federalregister.gov/2020-19654.pdf).
 Al final de este formulario en línea, puede descargar, imprimir o enviar por correo electrónico una carta ya terminada.
 Para utilizar este formulario, debe:
 1. Ganar por debajo del límite de ingresos.
@@ -6941,16 +5743,241 @@
     </r>
   </si>
   <si>
+    <t>moratorium intro</t>
+  </si>
+  <si>
+    <t>d5bc9c2f91c65f2fc9245836ef8a1b85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some things to keep in mind
+</t>
+  </si>
+  <si>
+    <t>Algunas cosas para tener en mente</t>
+  </si>
+  <si>
+    <t>460f4664b1fc8f317d93f75dbc689f1b</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Your state may have a moratorium that gives you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[more 
+rights]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(https://evictionlab.org/covid-eviction-policies/).
+* Every adult who lives with you needs to fill out their own
+copy of this form.
+* This form can only stop you from being evicted for non-payment
+of rent. You can still be evicted for other reasons.
+* You still may owe rent and fees.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Es posible que su estado tenga una moratoria que le otorgue </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[más derechos]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+* Cada adulto que vive con usted debe completar su propia copia del formulario.
+* Este formulario solo puede evitar que no lo desalojen por no 
+pagar la renta. Aún puede ser desalojado por otras razones.
+* Es posible que aún deba alquiler y tarifas.</t>
+    </r>
+  </si>
+  <si>
+    <t>d88857f1f2c119233dea0cb5ba765a33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why else can I be evicted?
+</t>
+  </si>
+  <si>
+    <t>¿Por qué más puedo ser desalojada?</t>
+  </si>
+  <si>
+    <t>fbdb531a806b19322bb0ffe3712dafba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The CDC order lists 5 reasons that someone can be evicted if they
+otherwise qualify for the moratorium:
+1. Criminal activity.
+2. Actions that threaten the health or safety of other residents.
+3. Damaging or posing an immediate risk of damaging property.
+4. Violating any building code, ordinance, or regulation relating to health or safety.
+5. Violating any other part of the lease other than failing to pay rent,
+fees, or interest.    
+</t>
+  </si>
+  <si>
+    <t>La orden de los CDC enumera 5 razones por las que alguien puede ser desalojado si
+de lo contrario calificar para la moratoria:
+1. Actividad delictiva.
+2. Acciones que amenacen la salud o seguridad de otros residentes.
+3. Dañar o presentar un riesgo inmediato de dañar la propiedad.
+4. Violar cualquier código, ordenanza o reglamento de construcción relacionado con la salud o la seguridad.
+5. Violar cualquier otra parte del contrato de arrendamiento que no sea no pagar el alquiler, honorarios o intereses.</t>
+  </si>
+  <si>
+    <t>qualify income</t>
+  </si>
+  <si>
+    <t>787a5e9fbc0f863888f210f49f876993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income qualification
+</t>
+  </si>
+  <si>
+    <t>Calificación de ingresos</t>
+  </si>
+  <si>
+    <t>cf941bae99dccaa1cf1478494fe62da1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check any true answers that apply below.
+</t>
+  </si>
+  <si>
+    <t>Marque las respuestas verdaderas que se apliquen a continuación.</t>
+  </si>
+  <si>
+    <t>f83afef09bb548f702dccff592eb3bc0</t>
+  </si>
+  <si>
+    <t>I did not have to report any income to the I.R.S. last year (tax year 2019)</t>
+  </si>
+  <si>
+    <t>No tuve que reportar ningún ingreso al I.R.S. el año pasado (año fiscal 2019)</t>
+  </si>
+  <si>
+    <t>b057b7e1d3c0369b0a41c366aea4000e</t>
+  </si>
+  <si>
+    <t>I got a stimulus check in 2020 (economic impact payment)</t>
+  </si>
+  <si>
     <t>Recibí un cheque de estímulo en 2020 (pago de impacto económico)</t>
   </si>
   <si>
+    <t>Question_94</t>
+  </si>
+  <si>
+    <t>cb9c927ecf4125b3083e73dc30887aca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income qualifications
+</t>
+  </si>
+  <si>
     <t>Calificaciones de ingreso</t>
   </si>
   <si>
+    <t>c0b3a8f385e62df1a85c7c2c1700c3bd</t>
+  </si>
+  <si>
+    <t>Will you file a joint tax return this year?</t>
+  </si>
+  <si>
+    <t>¿Presentará una declaración de impuestos en conjunto este año?</t>
+  </si>
+  <si>
+    <t>aa337f526d42f3143c447bf8aebc27a5</t>
+  </si>
+  <si>
+    <t>I will earn less than $99,000 this year</t>
+  </si>
+  <si>
+    <t>Ganaré menos de $99,000 este año</t>
+  </si>
+  <si>
+    <t>f8320b26d30ab433c5a54546d21f414c</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>3d9bf4309999db58ee3203a0035723bc</t>
+  </si>
+  <si>
+    <t>My partner and I will earn less than $198,000 this year</t>
+  </si>
+  <si>
+    <t>Mi socio y yo ganaremos menos de $198,000 este año</t>
+  </si>
+  <si>
+    <t>Question_96</t>
+  </si>
+  <si>
+    <t>3de8c51acc579f2657c87b2a1a1dbfc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You may need a different resource
+</t>
+  </si>
+  <si>
     <t>Es posible que necesite un recurso diferente</t>
   </si>
   <si>
-    <r>
+    <t>3a486e927aa5ae61997b867cbed244e9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Based on your answers, you likely do not qualify for the CDC's
 Eviction Moratorium.
 * Keep in mind that your state may have a moratorium that gives you </t>
@@ -7046,20 +6073,172 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Según sus respuestas, es probable que no califique para los CDC
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Según sus respuestas, es probable que no califique para los CDC
 de Desalojo Moratorio.
-* Tenga en cuenta que su estado puede tener una moratoria que le otorgue [más
-derechos] (https://evictionlab.org/covid-eviction-policies/).
-* Obtenga información de las [Preguntas frecuentes de ayuda legal sobre desalojo y alquiler
-Protecciones] (https://legalfaq.org/).
-* [Escriba una carta al propietario] (https://www.norent.org/) explicando
+* Tenga en cuenta que su estado puede tener una moratoria que le otorgue </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[más
+derechos]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (https://evictionlab.org/covid-eviction-policies/).
+* Obtenga información de las </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Preguntas frecuentes de ayuda legal sobre desalojo y alquiler
+Protecciones]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (https://legalfaq.org/).
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Escriba una carta al propietario]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (https://www.norent.org/) explicando
 tu situación.
 Si necesita ayuda con su vivienda, es posible que pueda obtener ayuda de
-la agencia de [servicios legales locales] (https://www.lsc.gov/what-legal-aid/find-legal-aid)
-</t>
-  </si>
-  <si>
-    <r>
+la agencia de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[servicios legales locales]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (https://www.lsc.gov/what-legal-aid/find-legal-aid)
+</t>
+    </r>
+  </si>
+  <si>
+    <t>51cfbcff36da74a9fc47f3a5140f99f2</t>
+  </si>
+  <si>
+    <t>Restart</t>
+  </si>
+  <si>
+    <t>Reiniciar</t>
+  </si>
+  <si>
+    <t>fef46e5063ce3dc78b8ae64fa474241d</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>Salirse</t>
+  </si>
+  <si>
+    <t>qualify best efforts</t>
+  </si>
+  <si>
+    <t>d6bb83842951191c61e60591e79adf2f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did you do your best to get government help paying the rent?
+</t>
+  </si>
+  <si>
+    <t>¿Hizo usted todo lo posible para obtener ayuda del gobierno para pagar el alquiler?</t>
+  </si>
+  <si>
+    <t>d8c235431128df678cf4725442001014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Answer yes if you do not qualify for any help from the government,
+or if you applied and you were denied.
+</t>
+  </si>
+  <si>
+    <t>Responda que sí, si usted no califica para ninguna ayuda del gobierno,
+o si solicitó y se lo negaron.</t>
+  </si>
+  <si>
+    <t>c54a4b0f836dd16b819ea416d28258f2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are "best efforts"?
+</t>
+  </si>
+  <si>
+    <t>¿Cuales son sus "mejores esfuerzos"?</t>
+  </si>
+  <si>
+    <t>1e573eb98b2a1617ea542d1b68f41e75</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Available government assistance means any governmental rental or housing
 payment benefits available to the individual or any household member.
 For example, Section 8 rental assistance, public housing, or temporary
@@ -7094,19 +6273,179 @@
     </r>
   </si>
   <si>
-    <t>Asistencia gubernamental disponible significa cualquier beneficio de pago de renta o vivienda gubernamental disponibles para el individuo o cualquier miembro del ogar.
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Asistencia gubernamental disponible significa cualquier beneficio de pago de renta o vivienda gubernamental disponibles para el individuo o cualquier miembro del ogar.
 Por ejemplo, asistencia para el alquiler de la Sección 8, vivienda pública o
 ayuda para pagar el alquiler que algunas ciudades o estados pueden tener disponible.
-El sitio web [USA.gov] (https://www.usa.gov/finding-home) tiene algunos enlaces
+El sitio web </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[USA.gov]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (https://www.usa.gov/finding-home) tiene algunos enlaces
 a recursos que pueden ayudarlo a encontrar programas de asistencia para el alquiler en su
 zona.
 Si solicitó y realizó un seguimiento de cualquier ayuda o beneficio de alquiler para los que pudiera calificar, usted probablemente utilizó sus "mejores esfuerzos". No es necesario pedir ayuda de amigos o familiares.</t>
+    </r>
+  </si>
+  <si>
+    <t>qualify cant afford rent</t>
+  </si>
+  <si>
+    <t>cd46328c35d6c1f1378641a836f2e6ab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you afford your rent?
+</t>
+  </si>
+  <si>
+    <t>Puede pagar su alquiler?</t>
+  </si>
+  <si>
+    <t>2499a4420f4fcc77049a95b53203904b</t>
+  </si>
+  <si>
+    <t>Can you afford your rent?</t>
+  </si>
+  <si>
+    <t>a94ded712a78d28257ff4153a986caae</t>
+  </si>
+  <si>
+    <t>Check any that apply</t>
+  </si>
+  <si>
+    <t>Marque cualquiera que aplique</t>
+  </si>
+  <si>
+    <t>398852d06fd3d2b7a76b9e30b344b37e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Substantial" income probably means enough that it 
+makes a 
+difference in your household's ability to pay for basic 
+living expenses.
+</t>
+  </si>
+  <si>
+    <t>Ingreso "sustancial" es el que es suficiente para generar una
+diferencia en la capacidad de su hogar para pagar los
+gastos y poder mantenerse.</t>
+  </si>
+  <si>
+    <t>c9d824032766d02731d497c790b5f74d</t>
+  </si>
+  <si>
+    <t>My household lost **substantial** income</t>
+  </si>
+  <si>
+    <t>Mi hogar perdió ingresos ** sustanciales **</t>
+  </si>
+  <si>
+    <t>4f4e9e596b40a8db8f3611221ef62092</t>
+  </si>
+  <si>
+    <t>I lost my job</t>
+  </si>
+  <si>
+    <t>Perdi mi trabajo</t>
+  </si>
+  <si>
+    <t>2b37b46e86b881c1411d4ce874ac6856</t>
+  </si>
+  <si>
+    <t>My hours were cut</t>
+  </si>
+  <si>
+    <t>Mis horas de trabajo fueron cortadas</t>
+  </si>
+  <si>
+    <t>0179c1d3ebafa5ea5954dc2ad7a706bc</t>
+  </si>
+  <si>
+    <t>My salary was reduced</t>
+  </si>
+  <si>
+    <t>Mi salario fue reducido</t>
+  </si>
+  <si>
+    <t>6ac117172ab353a748d143b04a3399dd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An "extraordinary" medical expense is any unreimbursed 
+medical expense likely to exceed 7.5% of one’s adjusted 
+gross income for the year.
+</t>
+  </si>
+  <si>
+    <t>Un gasto médico "extraordinario" es cualquier gasto 
+médico no reembolsable que probablemente supere el 7.5% del valor ajustado
+del ingresos brutos del año.</t>
+  </si>
+  <si>
+    <t>87342188d37d3c90e1a6bc347cbb228d</t>
+  </si>
+  <si>
+    <t>I have **extraordinary** medical costs that I pay out of pocket (not covered by insurance)</t>
+  </si>
+  <si>
+    <t>Tengo costos médicos ** extraordinarios ** que pago de mi bolsillo (no cubiertos por el seguro)</t>
+  </si>
+  <si>
+    <t>qualify partial payments</t>
+  </si>
+  <si>
+    <t>d23941ecd563eeb72ee3f26cdf64d367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am doing my best to pay the amount of rent that I am able to pay, as my circumstances allow
+</t>
   </si>
   <si>
     <t>Estoy haciendo todo lo posible para pagar la cantidad de alquiler que puedo pagar, según lo permitan mis circunstancias.</t>
   </si>
   <si>
+    <t>aa42e884a3311c43ca1598d16327c65a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What if I cannot pay anything?
+</t>
+  </si>
+  <si>
     <t>¿Qué pasa si no puedo pagar nada?</t>
+  </si>
+  <si>
+    <t>ddd49145740fba4954cf0d5545b1257a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You may not be able to pay any rent at all. That still may
+count as "best efforts".
+Answer "yes" if you cannot pay rent because of your 
+individual circumstances.
+Answer "yes" if you cannot pay rent because you have other
+expenses that you must pay and cannot control.    
+</t>
   </si>
   <si>
     <t>Es posible que no pueda pagar ningún alquiler. Que aun puede
@@ -7117,7 +6456,274 @@
 gastos que debe pagar y no puede controlar.</t>
   </si>
   <si>
-    <r>
+    <t>591a29d2a323c67d0acddf22f9a01901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you are making a partial payment, you may want to include the 
+amount in this letter. It is **not** required. You can leave this
+blank.
+</t>
+  </si>
+  <si>
+    <t>Si realiza un pago parcial, es posible que desee incluir la
+cantidad en esta carta. No es requerido. Puede dejar esto en
+blanco.</t>
+  </si>
+  <si>
+    <t>51475a129c23ad22f3425be6c835fdaf</t>
+  </si>
+  <si>
+    <t>The amount I am paying (if anything) is</t>
+  </si>
+  <si>
+    <t>La cantidad que estoy pagando (si aplica) es</t>
+  </si>
+  <si>
+    <t>qualify homeless</t>
+  </si>
+  <si>
+    <t>85ff617a3614c57e768596c2304c5089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you at risk of unsafe housing?
+</t>
+  </si>
+  <si>
+    <t>¿Corre usted el riesgo de tener una vivienda insegura?</t>
+  </si>
+  <si>
+    <t>af0f88355fb136d651bd2e36552a8fc3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check any that apply
+</t>
+  </si>
+  <si>
+    <t>da3587cfb826bd008ae5b43d234d198e</t>
+  </si>
+  <si>
+    <t>If I am evicted</t>
+  </si>
+  <si>
+    <t>Si soy desalojado</t>
+  </si>
+  <si>
+    <t>5b468667626ca857e1dcc864345d3d33</t>
+  </si>
+  <si>
+    <t>I am likely to become homeless</t>
+  </si>
+  <si>
+    <t>Es probable que me quede sin vivienda</t>
+  </si>
+  <si>
+    <t>e6f28b82044395715d095a81880d7514</t>
+  </si>
+  <si>
+    <t>I would likely need to move into a homeless shelter</t>
+  </si>
+  <si>
+    <t>Posiblemente necesitaría mudarme a un refugio para personas sin vivienda</t>
+  </si>
+  <si>
+    <t>0727c403838899d783541651dc724682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Close quarters" means that more people than normal would live in the same apartment. For example, sharing a bedroom or sleeping in a shared living space.
+</t>
+  </si>
+  <si>
+    <t>"Espacio cerrado" significa que más personas de lo normal vivirían en el mismo apt. Por ejemplo, compartir un dormitorio o dormir en un espacio compartido.</t>
+  </si>
+  <si>
+    <t>d58776625307efd019cc4303d88f5aab</t>
+  </si>
+  <si>
+    <t>I would likely need to move in with someone else in close quarters</t>
+  </si>
+  <si>
+    <t>Probablemente necesitaría mudarme con alguien más a un lugar pequeño</t>
+  </si>
+  <si>
+    <t>09cd943b06139bb6f23a1d9ca60a0bf5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safe housing means any available, unoccupied residential property, or other space for occupancy in any seasonal or temporary housing, that would not violate Federal, State, or local occupancy standards.
+</t>
+  </si>
+  <si>
+    <t>Vivienda segura significa cualquier propiedad disponible, vivienda desocupada u otro espacio para ser ocupado en cualquier temporada o vivienda temporal, que no violaría los niveles de ocupación federales, estatales o locales.</t>
+  </si>
+  <si>
+    <t>055c486310762907c623b6daddb71e12</t>
+  </si>
+  <si>
+    <t>I do not have any other safe housing choices</t>
+  </si>
+  <si>
+    <t>Yo no tengo otras opciones de vivienda segura</t>
+  </si>
+  <si>
+    <t>38b34da5ebb86cb499fecee6a7f5bffa</t>
+  </si>
+  <si>
+    <t>Any other safe housing choices would cost me more money</t>
+  </si>
+  <si>
+    <t>Cualquier otra opción de vivienda segura me costaría más dinero</t>
+  </si>
+  <si>
+    <t>I understand everything</t>
+  </si>
+  <si>
+    <t>c3eb5c3b9018d75cb7032deb99fe43e9</t>
+  </si>
+  <si>
+    <t>I understand</t>
+  </si>
+  <si>
+    <t>Yo comprendo</t>
+  </si>
+  <si>
+    <t>6485ac334c41337b65fe8c5dcb673b5a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read the information below carefully
+</t>
+  </si>
+  <si>
+    <t>Lea la información a continuación con mucho cuidado</t>
+  </si>
+  <si>
+    <t>0298c7f38ecf8c945c387b0c22fd695a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you file this form, you are agreeing that you understand
+the following:
+Even though I may not be evicted before December 31, 2020,
+1. I still am responsible to pay my rent and follow all other rules of my lease. My landlord may charge me fees or interest.
+2. At the end of December 31, 2020, I may be required to pay all of the rent 
+due in full. This may depend on the state that I live in. I can talk to an attorney to be sure.
+3. I need to tell the truth on this form. If I do not, I may face civil
+or criminal penalties.
+</t>
+  </si>
+  <si>
+    <t>Cuando presente este formulario, esta aceptando que comprende
+lo seguiente:
+Aunque no puedo ser desalojado antes del 31 de diciembre de 2020,
+1. Aún soy responsable de pagar la renta y seguir todas las demás reglas de mi contrato de arrendamiento. Mi arrendador puede cobrarme tarifas o intereses.
+2. Al final del 31 de diciembre de 2020, se me puede exigir que pague todo el alquiler
+debido en su totalidad.
+3. Yo necesito decir la verdad en este formulario. Si no lo hago, puedo enfrentarme a penalidades civiles o criminales.</t>
+  </si>
+  <si>
+    <t>b0b50f13d5c688635be77a0646a132c1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sign your letter
+</t>
+  </si>
+  <si>
+    <t>Firme su carta</t>
+  </si>
+  <si>
+    <t>1ff9c70d52f0cbb907a0d57e2773f722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your letter is almost ready. You need to sign it first.
+Use the mouse or touchpad on your computer or
+sign with your finger on your phone. 
+You can send this letter to someone else to sign if you choose the "phone" option.
+</t>
+  </si>
+  <si>
+    <t>Su carta está casi lista. Usted debe firmarla primero.
+Use el dispositivo manual o el panel sensorial de su computadora o
+firme con el dedo en su teléfono.
+Puede enviar esta carta a otra persona para que la firme si elige la opción del "teléfono".</t>
+  </si>
+  <si>
+    <t>landlords name</t>
+  </si>
+  <si>
+    <t>2fa695fea5a46567843ff761007cb502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who is your landlord?
+</t>
+  </si>
+  <si>
+    <t>¿Quién es su arrendador?</t>
+  </si>
+  <si>
+    <t>9b3708d06e0588126f0b3632f5c7e54d</t>
+  </si>
+  <si>
+    <t>Full name or organization name</t>
+  </si>
+  <si>
+    <t>Nombre completo o nombre de la organización</t>
+  </si>
+  <si>
+    <t>e29f450a0664d23ac0088895bb702656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When do you plan to send this letter?
+</t>
+  </si>
+  <si>
+    <t>¿Cuándo planea enviar esta carta?</t>
+  </si>
+  <si>
+    <t>fb76a008fda30bf08d577b23c1fc6ec5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The CDC moratorium starts on September 4, 2020 and
+ends on December 31, 2020.
+</t>
+  </si>
+  <si>
+    <t>El moratorio de los CDC comienza el 4 de septiembre de 2020 y
+finaliza el 31 de diciembre de 2020.</t>
+  </si>
+  <si>
+    <t>62e610d3ec3e9462db3bbb3424a5d876</t>
+  </si>
+  <si>
+    <t>2020-09-04</t>
+  </si>
+  <si>
+    <t>137ad1bff4c016874cc17a18c1aebb82</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>preview</t>
+  </si>
+  <si>
+    <t>4148dd34a6d6056586c5a490942ae0e9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Below is a preview of your letter
+</t>
+  </si>
+  <si>
+    <t>A continuación esta una vista previa de su carta</t>
+  </si>
+  <si>
+    <t>98dab9564f7fc145e938fdad7ccdc2fe</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Click to open it in a new window. 
 Read it over carefully. Remember to come back to this
 window to sign and deliver it to your landlord.
@@ -7192,6 +6798,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Haga clic para abrirla en una nueva ventana.
 Léala detenidamente. Recuerde volver a esta
 ventana para firmar y entregarla a su arrendador.
@@ -7208,12 +6821,86 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>${ pdf_concatenate(letter['preview'], declaration['preview'], filename="CDC_eviction_moratorium_preview.pdf") }
-[Leer en español](${spanish_declaration.url_for()})</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t>${ pdf_concatenate(letter['preview'], declaration['preview'], filename="CDC_eviction_moratorium_preview.pdf") }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Leer en español]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${spanish_declaration.url_for()}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>download</t>
+  </si>
+  <si>
+    <t>86415a4b87af7b5450296cba81356f39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your letter is ready to send
+</t>
+  </si>
+  <si>
+    <t>Su carta esta lista para ser enviada.</t>
+  </si>
+  <si>
+    <t>b9583f174471c2d54c4ee490fd7eeaef</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Click the image below to open a preview of your letter.
 </t>
     </r>
@@ -7249,6 +6936,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Haga un clic en la imagen de abajo para abrir y poder ver su carta.
 </t>
     </r>
@@ -7261,8 +6955,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-${ pdf_concatenate(letter['final'], declaration['final'],filename="CDC_eviction_moratorium.pdf") }</t>
+      <t>${ pdf_concatenate(letter['final'], declaration['final'],filename="CDC_eviction_moratorium.pdf") }</t>
     </r>
     <r>
       <rPr>
@@ -7284,32 +6977,163 @@
     </r>
   </si>
   <si>
+    <t>7702556c0f1563589cc84f085da260e1</t>
+  </si>
+  <si>
+    <t>Generate new letter</t>
+  </si>
+  <si>
     <t>Generar nueva carta</t>
   </si>
   <si>
+    <t>4a9c23d3923a796814d05c9a69689c50</t>
+  </si>
+  <si>
+    <t>Erase and exit</t>
+  </si>
+  <si>
     <t>Borrar y salir</t>
   </si>
   <si>
+    <t>Question_110</t>
+  </si>
+  <si>
+    <t>d3199ae89b01dde1ec4012ee225f31e4</t>
+  </si>
+  <si>
+    <t>Cover Letter</t>
+  </si>
+  <si>
     <t>Carta de presentación</t>
   </si>
   <si>
-    <t>Acepto los términos de uso.</t>
-  </si>
-  <si>
-    <t>No puede continuar a menos que esté de acuerdo con los términos de uso.</t>
-  </si>
-  <si>
-    <t>Firma bajo juramento.</t>
-  </si>
-  <si>
-    <t>Para continuar, debe aceptar los [términos de uso](https://massaccess.suffolklitlab.org/privacy/)</t>
-  </si>
-  <si>
-    <t>Dirección</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">MassAccess submission from </t>
+    <t>2335dbf22eaab30cd41738eed3a60e3a</t>
+  </si>
+  <si>
+    <t>CDC_eviction_moratorium_cover_letter</t>
+  </si>
+  <si>
+    <t>Question_111</t>
+  </si>
+  <si>
+    <t>32d2de359175c21694f7b382c80977c1</t>
+  </si>
+  <si>
+    <t>${ users[0].signature if i == 'final' else '' }</t>
+  </si>
+  <si>
+    <t>c2e7df30202fee1bd15ebbbfbb0f67a3</t>
+  </si>
+  <si>
+    <t>${ signature_date }</t>
+  </si>
+  <si>
+    <t>f44027b1b8bab636ffb901fa2d75632d</t>
+  </si>
+  <si>
+    <t>CDC Eviction Moratorium Declaration</t>
+  </si>
+  <si>
+    <t>7eb82e053b9a71f9c97c60e49c37e872</t>
+  </si>
+  <si>
+    <t>CDC_eviction_moratorium_declaration</t>
+  </si>
+  <si>
+    <t>Signing Under Oath</t>
+  </si>
+  <si>
+    <t>Firma bajo juramento</t>
+  </si>
+  <si>
+    <t>b232f346b67ee658c33cce08c962e8bd</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[MassAccess Project]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(https://massaccess.suffolklitlab.org) helps you
+file forms online during the COVID-19 emergency.
+Use this form to tell your landlord about your rights under the Centers
+for Disease Control and Prevention's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[eviction moratorium 
+order]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(https://s3.amazonaws.com/public-inspection.federalregister.gov/2020-19654.pdf).
+At the end of this online form, you can download, print, or email a
+completed letter.
+To use this form, you must:
+1. Earn under the income limit.
+2. Be unable to pay your rent because you lost income.
+3. Be at risk of homelessness or doubling up (sharing housing in close quarters).
+We will ask you detailed questions to find out if you qualify.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>% if chat_partners_available().help:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Live help is currently available in this interview. Click the speech bubble
+(</t>
     </r>
     <r>
       <rPr>
@@ -7320,17 +7144,125 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>${users}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> intended for </t>
+      <t>:comment-alt:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) in the navigation bar to connect to a live advocate for help.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>% endif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+El </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[MassAccess Project]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(https://massaccess.suffolklitlab.org) le ayuda
+archivar formularios en línea durante la emergencia COVID-19.
+Use este formulario para informar a su arrendador sobre sus derechos bajo los Centros para el Control y la Prevención de Enfermedades </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[orden de desalojo moratoria]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(https://s3.amazonaws.com/public-inspection.federalregister.gov/2020-19654.pdf).
+Al final de este formulario en línea, puede descargar, imprimir o enviar por correo electrónico una carta ya terminada.
+Para utilizar este formulario, debe:
+1. Ganar por debajo del límite de ingresos.
+2. No poder pagar el alquiler porque perdió sus ingresos.
+3. Estar en riesgo de quedarse sin hogar o compartir una vivienda (compartir vivienda en lugares reducidos).
+Le haremos preguntas detalladas para saber si califica.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>% if chat_partners_available().help:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+La ayuda está disponible en vivo en esta entrevista. Haga clic en la simbolo de diálogo
+(</t>
     </r>
     <r>
       <rPr>
@@ -7341,7 +7273,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>${courts[0]}</t>
+      <t>:comment-alt:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) en la barra de navegación para conectarse con un defensor en vivo para obtener ayuda.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>% endif</t>
     </r>
     <r>
       <rPr>
@@ -7354,6 +7308,388 @@
       <t xml:space="preserve">
 </t>
     </r>
+  </si>
+  <si>
+    <t>1e559af92ff501c1bcfe1bcf14d12217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Every adult who lives with you needs to fill out their own
+copy of this form.
+* This form can only stop you from being evicted for non-
+payment of rent. You can still be evicted for other reasons.
+* You still may owe rent and fees.
+</t>
+  </si>
+  <si>
+    <t>* Cada adulto que vive con usted debe completar su propia copia del formulario.
+* Este formulario solo puede evitar que no lo desalojen por no 
+pagar la renta. Aún puede ser desalojado por otras razones.
+* Es posible que aún deba alquiler y tarifas.</t>
+  </si>
+  <si>
+    <t>a5b3a85b315a0963afa8858a5da505d8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One way you can qualify is if the IRS sent you a CARES Act 
+stimulus payment.
+If you didn't get a stimulus payment, we will ask you about
+your income.
+</t>
+  </si>
+  <si>
+    <t>Una forma en que usted puede calificar es si el IRS le envió un pago de estímulo.
+De la Ley CARES
+Si no recibió un pago de estímulo, le preguntaremos sobre
+su ingreso.</t>
+  </si>
+  <si>
+    <t>bc8f8a356fa09b26c75f66367e22625c</t>
+  </si>
+  <si>
+    <t>I got a stimulus check this year (economic impact payment)</t>
+  </si>
+  <si>
+    <t>Recibí un cheque de estímulo este año (pago de impacto económico)</t>
+  </si>
+  <si>
+    <t>Question_90</t>
+  </si>
+  <si>
+    <t>6bc130b1d1181b2cca65bc4edf97ece2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This form is not for you
+</t>
+  </si>
+  <si>
+    <t>Este formulario no es para usted</t>
+  </si>
+  <si>
+    <t>5be68a554d9561470d940b2a6d189ca6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Based on your answers, you likely don't qualify for the CDC's
+Eviction Moratorium.
+If you need help with your housing, you may be able to get help from
+your </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[local legal aid]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(https://www.lsc.gov/what-legal-aid/find-legal-aid) 
+agency.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Según sus respuestas, es probable que no califique para los CDC
+de Desalojo Moratorio.
+Si necesita ayuda con su vivienda, es posible que pueda obtener ayuda de
+la agencia de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[servicios legales locales]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (https://www.lsc.gov/what-legal-aid/find-legal-aid)
+</t>
+    </r>
+  </si>
+  <si>
+    <t>b331b67e45ed9d03d6dd91c0b9d9601d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available government assistance means any governmental rental or housing
+payment benefits available to the individual or any household member.
+For example, state rental assistance, disability payments, or welfare
+benefits.
+If you applied and followed up for any rental help or benefits that you
+qualify for, you likely used your "best efforts". You do not need to ask
+for help from friends or family.
+</t>
+  </si>
+  <si>
+    <t>Asistencia gubernamental disponible significa cualquier beneficio de pago de renta o vivienda gubernamental disponibles para el individuo o cualquier miembro del ogar.
+Por ejemplo, asistencia de alquiler estatal, pagos por discapacidad o beneficos de asistencia social
+Si solicitó y realizó un seguimiento de cualquier ayuda o beneficio de alquiler para los que pudiera calificar, usted probablemente utilizó sus "mejores esfuerzos". No es necesario pedir ayuda de amigos o familiares.</t>
+  </si>
+  <si>
+    <t>ee3015ea9047b249fe2729d35e2df251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Substantial" income is enough that it makes a 
+difference in your household's ability to pay for basic 
+living expenses.       
+</t>
+  </si>
+  <si>
+    <t>f0236f3879196c630cba1fbf0366c3e7</t>
+  </si>
+  <si>
+    <t>Are you doing your best to pay part of your rent?</t>
+  </si>
+  <si>
+    <t>¿Está haciendo todo lo posible para pagar parte de su alquiler?</t>
+  </si>
+  <si>
+    <t>f4a62660065557102686b8ea015a6d60</t>
+  </si>
+  <si>
+    <t>I am doing my best to make partial rent payments on time</t>
+  </si>
+  <si>
+    <t>Estoy haciendo todo lo posible para hacer los pagos parciales del alquiler a tiempo.</t>
+  </si>
+  <si>
+    <t>920354760827e7c0f8f4c552a888c3ee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you file this form, you are agreeing that you understand
+the following:
+Even though I may not be evicted before December 31, 2020,
+1. I still am responsible to pay my rent and follow all other rules of my lease. My landlord may charge me fees or interest.
+2. At the end of December 31, 2020, I can be required to pay all of the rent 
+due in full.
+3. I need to tell the truth on this form. If I don't, I may face civil
+or criminal penalties.
+</t>
+  </si>
+  <si>
+    <t>2020-09-04 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-12-31 00:00:00</t>
+  </si>
+  <si>
+    <t>bae622ba4a7fdedc3b7745cb9269b12f</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Click to open it in a new window. 
+Read it over carefully. Remember to come back to this
+window to sign and deliver it to your landlord.
+You can click back to make any changes, or download and edit the
+letter at the end of this interview.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ pdf_concatenate(letter['preview'],filename="CDC_eviction_moratorium_preview.pdf") }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Haga clic para abrirla en una nueva ventana.
+Léala detenidamente. Recuerde volver a esta
+ventana para firmar y entregarla a su arrendador.
+Usted puede hacer un clic de regresar para hacer cambios o descargar y editar la
+carta al final de esta entrevista.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ pdf_concatenate(letter['preview'],filename="CDC_eviction_moratorium_preview.pdf") }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>68319e994cba7a69ee180cf6ce086825</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Click the image below to open a preview of your letter.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ pdf_concatenate(letter['final'],filename="CDC_eviction_moratorium.pdf") }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Download a copy of this letter for your own records.
+2. Send a copy to your landlord. You can send it by email or
+   print a copy and send it by mail.
+3. You do not need to send it certified mail. If you do, it's a good
+   idea to also send a copy regular mail.
+4. If you need to make changes to your letter, download a copy and edit
+it using Microsoft Word, Google Docs, or another program of your choice.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Haga un clic en la imagen de abajo para abrir y poder ver su carta.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ pdf_concatenate(letter['final'],filename="CDC_eviction_moratorium.pdf") }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Descargue una copia de esta carta para sus propios registros.
+2. Envíe una copia a su arrendador. Usted puede mandarla por correo electrónico o
+   imprima una copia y envíela por correo.
+3. No es necesario enviarla por correo certificado. Si lo hace, seria un buena
+   idea de enviar también una copia por correo regular.
+4. Si necesita hacer cambios en su carta, descargue una copia y edítela
+utilizando Microsoft Word, Google Docs u algún otro programa de su elección.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Question_104</t>
+  </si>
+  <si>
+    <t>37244a87f10ef78dbf3d611958adfdca</t>
+  </si>
+  <si>
+    <t>CDC Eviction Moratorium Letter</t>
+  </si>
+  <si>
+    <t>Carta moratoria de desalojo del CDC</t>
+  </si>
+  <si>
+    <t>eed1d99938ec414d2fcf96ffdea3be57</t>
+  </si>
+  <si>
+    <t>CDC_eviction_moratorium</t>
   </si>
 </sst>
 </file>
@@ -7413,7 +7749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7432,9 +7768,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7742,13 +8075,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="H180" sqref="H180"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.08984375" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" customWidth="1"/>
     <col min="2" max="2" width="15.7265625" customWidth="1"/>
     <col min="3" max="3" width="12.7265625" customWidth="1"/>
     <col min="7" max="8" width="75.7265625" customWidth="1"/>
@@ -8635,7 +8966,7 @@
         <v>88</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>647</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -8649,7 +8980,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>11</v>
@@ -8658,10 +8989,10 @@
         <v>12</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>648</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -8675,7 +9006,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>11</v>
@@ -8684,10 +9015,10 @@
         <v>12</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>649</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
@@ -8701,7 +9032,7 @@
         <v>5</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>11</v>
@@ -8710,10 +9041,10 @@
         <v>12</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>650</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -8721,13 +9052,13 @@
         <v>8</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C38" s="2">
         <v>0</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>11</v>
@@ -8736,7 +9067,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>14</v>
@@ -8747,13 +9078,13 @@
         <v>8</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>11</v>
@@ -8762,7 +9093,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>14</v>
@@ -8773,13 +9104,13 @@
         <v>8</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C40" s="2">
         <v>2</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>11</v>
@@ -8788,7 +9119,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>14</v>
@@ -8799,13 +9130,13 @@
         <v>8</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C41" s="2">
         <v>3</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>11</v>
@@ -8814,7 +9145,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>14</v>
@@ -8825,13 +9156,13 @@
         <v>8</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C42" s="2">
         <v>4</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>11</v>
@@ -8840,7 +9171,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>14</v>
@@ -8851,13 +9182,13 @@
         <v>8</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C43" s="2">
         <v>5</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>11</v>
@@ -8866,7 +9197,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>14</v>
@@ -8877,13 +9208,13 @@
         <v>8</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C44" s="2">
         <v>6</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>11</v>
@@ -8892,7 +9223,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>14</v>
@@ -8903,13 +9234,13 @@
         <v>8</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>11</v>
@@ -8918,10 +9249,10 @@
         <v>12</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>647</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.35">
@@ -8929,13 +9260,13 @@
         <v>8</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>11</v>
@@ -8944,7 +9275,7 @@
         <v>12</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>14</v>
@@ -8955,13 +9286,13 @@
         <v>8</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>11</v>
@@ -8970,7 +9301,7 @@
         <v>12</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>14</v>
@@ -8981,13 +9312,13 @@
         <v>8</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C48" s="2">
         <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>11</v>
@@ -8996,7 +9327,7 @@
         <v>12</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>14</v>
@@ -9007,13 +9338,13 @@
         <v>8</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C49" s="2">
         <v>3</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>11</v>
@@ -9022,7 +9353,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>14</v>
@@ -9033,13 +9364,13 @@
         <v>8</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>11</v>
@@ -9048,10 +9379,10 @@
         <v>12</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H50" t="s">
-        <v>656</v>
+        <v>128</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
@@ -9059,13 +9390,13 @@
         <v>8</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>11</v>
@@ -9074,10 +9405,10 @@
         <v>12</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>647</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
@@ -9085,13 +9416,13 @@
         <v>8</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C52" s="2">
         <v>2</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>11</v>
@@ -9100,10 +9431,10 @@
         <v>12</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>648</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
@@ -9111,13 +9442,13 @@
         <v>8</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C53" s="2">
         <v>3</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>11</v>
@@ -9126,10 +9457,10 @@
         <v>12</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>649</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -9137,13 +9468,13 @@
         <v>8</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>11</v>
@@ -9152,22 +9483,24 @@
         <v>12</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H54" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>11</v>
@@ -9176,7 +9509,7 @@
         <v>12</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>14</v>
@@ -9187,13 +9520,13 @@
         <v>8</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>11</v>
@@ -9202,10 +9535,10 @@
         <v>12</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>651</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -9213,13 +9546,13 @@
         <v>8</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>11</v>
@@ -9228,7 +9561,7 @@
         <v>12</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>14</v>
@@ -9239,13 +9572,13 @@
         <v>8</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C58" s="2">
         <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>11</v>
@@ -9254,10 +9587,10 @@
         <v>12</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>689</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
@@ -9265,13 +9598,13 @@
         <v>8</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C59" s="2">
         <v>3</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>11</v>
@@ -9280,10 +9613,10 @@
         <v>12</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>652</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
@@ -9291,13 +9624,13 @@
         <v>8</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C60" s="2">
         <v>4</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>11</v>
@@ -9306,10 +9639,10 @@
         <v>12</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>653</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
@@ -9317,13 +9650,13 @@
         <v>8</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C61" s="2">
         <v>5</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>11</v>
@@ -9332,10 +9665,10 @@
         <v>12</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>654</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
@@ -9343,13 +9676,13 @@
         <v>8</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C62" s="2">
         <v>6</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>11</v>
@@ -9358,7 +9691,7 @@
         <v>12</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>14</v>
@@ -9369,13 +9702,13 @@
         <v>8</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C63" s="2">
         <v>7</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>11</v>
@@ -9384,10 +9717,10 @@
         <v>12</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>655</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -9395,13 +9728,13 @@
         <v>8</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>11</v>
@@ -9410,7 +9743,7 @@
         <v>12</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>14</v>
@@ -9421,13 +9754,13 @@
         <v>8</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>11</v>
@@ -9436,7 +9769,7 @@
         <v>12</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>14</v>
@@ -9447,13 +9780,13 @@
         <v>8</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C66" s="2">
         <v>2</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>11</v>
@@ -9462,7 +9795,7 @@
         <v>12</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>14</v>
@@ -9473,13 +9806,13 @@
         <v>8</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C67" s="2">
         <v>3</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>11</v>
@@ -9488,7 +9821,7 @@
         <v>12</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>14</v>
@@ -9499,13 +9832,13 @@
         <v>8</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C68" s="2">
         <v>4</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>11</v>
@@ -9514,7 +9847,7 @@
         <v>12</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>14</v>
@@ -9525,13 +9858,13 @@
         <v>8</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C69" s="2">
         <v>5</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>11</v>
@@ -9540,7 +9873,7 @@
         <v>12</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>14</v>
@@ -9551,13 +9884,13 @@
         <v>8</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C70" s="2">
         <v>6</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>11</v>
@@ -9566,7 +9899,7 @@
         <v>12</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>14</v>
@@ -9577,13 +9910,13 @@
         <v>8</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C71" s="2">
         <v>7</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>11</v>
@@ -9592,7 +9925,7 @@
         <v>12</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>14</v>
@@ -9603,13 +9936,13 @@
         <v>8</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C72" s="2">
         <v>0</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>11</v>
@@ -9618,7 +9951,7 @@
         <v>12</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>14</v>
@@ -9629,13 +9962,13 @@
         <v>8</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>11</v>
@@ -9644,7 +9977,7 @@
         <v>12</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>14</v>
@@ -9655,13 +9988,13 @@
         <v>8</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C74" s="2">
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>11</v>
@@ -9670,7 +10003,7 @@
         <v>12</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>14</v>
@@ -9681,13 +10014,13 @@
         <v>8</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>11</v>
@@ -9696,7 +10029,7 @@
         <v>12</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H75" s="4" t="s">
         <v>14</v>
@@ -9707,13 +10040,13 @@
         <v>8</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>11</v>
@@ -9722,7 +10055,7 @@
         <v>12</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>14</v>
@@ -9733,13 +10066,13 @@
         <v>8</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>11</v>
@@ -9748,7 +10081,7 @@
         <v>12</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>14</v>
@@ -9759,13 +10092,13 @@
         <v>8</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C78" s="2">
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>11</v>
@@ -9774,7 +10107,7 @@
         <v>12</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>14</v>
@@ -9785,13 +10118,13 @@
         <v>8</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C79" s="2">
         <v>2</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>11</v>
@@ -9800,7 +10133,7 @@
         <v>12</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>14</v>
@@ -9811,13 +10144,13 @@
         <v>8</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C80" s="2">
         <v>3</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>11</v>
@@ -9826,7 +10159,7 @@
         <v>12</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>14</v>
@@ -9837,13 +10170,13 @@
         <v>8</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C81" s="2">
         <v>4</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>11</v>
@@ -9852,7 +10185,7 @@
         <v>12</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>14</v>
@@ -9863,13 +10196,13 @@
         <v>8</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C82" s="2">
         <v>5</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>11</v>
@@ -9878,7 +10211,7 @@
         <v>12</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>14</v>
@@ -9889,13 +10222,13 @@
         <v>8</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C83" s="2">
         <v>6</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>11</v>
@@ -9904,7 +10237,7 @@
         <v>12</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>14</v>
@@ -9915,13 +10248,13 @@
         <v>8</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>11</v>
@@ -9930,7 +10263,7 @@
         <v>12</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>14</v>
@@ -9941,13 +10274,13 @@
         <v>8</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C85" s="2">
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>11</v>
@@ -9956,7 +10289,7 @@
         <v>12</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>14</v>
@@ -9967,13 +10300,13 @@
         <v>8</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C86" s="2">
         <v>0</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>11</v>
@@ -9982,7 +10315,7 @@
         <v>12</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>14</v>
@@ -9993,13 +10326,13 @@
         <v>8</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C87" s="2">
         <v>0</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>11</v>
@@ -10008,7 +10341,7 @@
         <v>12</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>14</v>
@@ -10019,13 +10352,13 @@
         <v>8</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C88" s="2">
         <v>0</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>11</v>
@@ -10034,7 +10367,7 @@
         <v>12</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>14</v>
@@ -10045,13 +10378,13 @@
         <v>8</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C89" s="2">
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>11</v>
@@ -10060,7 +10393,7 @@
         <v>12</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>14</v>
@@ -10071,13 +10404,13 @@
         <v>8</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C90" s="2">
         <v>2</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>11</v>
@@ -10086,7 +10419,7 @@
         <v>12</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>14</v>
@@ -10097,13 +10430,13 @@
         <v>8</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="C91" s="2">
         <v>0</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>11</v>
@@ -10112,7 +10445,7 @@
         <v>12</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>14</v>
@@ -10123,13 +10456,13 @@
         <v>8</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="C92" s="2">
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>11</v>
@@ -10138,7 +10471,7 @@
         <v>12</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>14</v>
@@ -10149,13 +10482,13 @@
         <v>8</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="C93" s="2">
         <v>0</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>11</v>
@@ -10164,7 +10497,7 @@
         <v>12</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>14</v>
@@ -10175,13 +10508,13 @@
         <v>8</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="C94" s="2">
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>11</v>
@@ -10190,7 +10523,7 @@
         <v>12</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>14</v>
@@ -10201,13 +10534,13 @@
         <v>8</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="C95" s="2">
         <v>2</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>11</v>
@@ -10216,7 +10549,7 @@
         <v>12</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>14</v>
@@ -10227,13 +10560,13 @@
         <v>8</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="C96" s="2">
         <v>3</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>11</v>
@@ -10242,7 +10575,7 @@
         <v>12</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>14</v>
@@ -10253,13 +10586,13 @@
         <v>8</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="C97" s="2">
         <v>4</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>11</v>
@@ -10268,7 +10601,7 @@
         <v>12</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>14</v>
@@ -10279,13 +10612,13 @@
         <v>8</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="C98" s="2">
         <v>0</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>11</v>
@@ -10294,7 +10627,7 @@
         <v>12</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>14</v>
@@ -10305,13 +10638,13 @@
         <v>8</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="C99" s="2">
         <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>11</v>
@@ -10320,7 +10653,7 @@
         <v>12</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="H99" s="4" t="s">
         <v>14</v>
@@ -10331,13 +10664,13 @@
         <v>8</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="C100" s="2">
         <v>2</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>11</v>
@@ -10346,7 +10679,7 @@
         <v>12</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>14</v>
@@ -10357,13 +10690,13 @@
         <v>8</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="C101" s="2">
         <v>3</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>11</v>
@@ -10372,7 +10705,7 @@
         <v>12</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>14</v>
@@ -10383,13 +10716,13 @@
         <v>8</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>11</v>
@@ -10398,7 +10731,7 @@
         <v>12</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>14</v>
@@ -10409,13 +10742,13 @@
         <v>8</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>11</v>
@@ -10424,7 +10757,7 @@
         <v>12</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="H103" s="4" t="s">
         <v>14</v>
@@ -10435,13 +10768,13 @@
         <v>8</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="C104" s="2">
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>11</v>
@@ -10450,7 +10783,7 @@
         <v>12</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>14</v>
@@ -10461,13 +10794,13 @@
         <v>8</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>11</v>
@@ -10476,7 +10809,7 @@
         <v>12</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>14</v>
@@ -10487,13 +10820,13 @@
         <v>8</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="C106" s="2">
         <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>11</v>
@@ -10502,7 +10835,7 @@
         <v>12</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="H106" s="4" t="s">
         <v>14</v>
@@ -10513,13 +10846,13 @@
         <v>8</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="C107" s="2">
         <v>2</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>11</v>
@@ -10528,7 +10861,7 @@
         <v>12</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="H107" s="4" t="s">
         <v>14</v>
@@ -10539,13 +10872,13 @@
         <v>8</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="C108" s="2">
         <v>3</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>11</v>
@@ -10554,7 +10887,7 @@
         <v>12</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>14</v>
@@ -10565,13 +10898,13 @@
         <v>8</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>11</v>
@@ -10580,7 +10913,7 @@
         <v>12</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>14</v>
@@ -10591,13 +10924,13 @@
         <v>8</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="C110" s="2">
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>11</v>
@@ -10606,7 +10939,7 @@
         <v>12</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="H110" s="4" t="s">
         <v>14</v>
@@ -10617,13 +10950,13 @@
         <v>8</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="C111" s="2">
         <v>2</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>11</v>
@@ -10632,10 +10965,10 @@
         <v>12</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="H111" t="s">
-        <v>663</v>
+        <v>275</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
@@ -10643,13 +10976,13 @@
         <v>8</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="C112" s="2">
         <v>3</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>11</v>
@@ -10658,10 +10991,10 @@
         <v>12</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="H112" t="s">
-        <v>664</v>
+        <v>278</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.35">
@@ -10669,13 +11002,13 @@
         <v>8</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>11</v>
@@ -10684,10 +11017,10 @@
         <v>12</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="210" customHeight="1" x14ac:dyDescent="0.35">
@@ -10695,13 +11028,13 @@
         <v>8</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="C114" s="2">
         <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>11</v>
@@ -10710,10 +11043,10 @@
         <v>12</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10721,13 +11054,13 @@
         <v>8</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>11</v>
@@ -10736,10 +11069,10 @@
         <v>12</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.35">
@@ -10747,13 +11080,13 @@
         <v>8</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="C116" s="2">
         <v>1</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>11</v>
@@ -10762,10 +11095,10 @@
         <v>12</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
@@ -10773,13 +11106,13 @@
         <v>8</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="C117" s="2">
         <v>2</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>11</v>
@@ -10788,10 +11121,10 @@
         <v>12</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
@@ -10799,13 +11132,13 @@
         <v>8</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="C118" s="2">
         <v>3</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>11</v>
@@ -10814,10 +11147,10 @@
         <v>12</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
@@ -10825,13 +11158,13 @@
         <v>8</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="C119" s="2">
         <v>4</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>11</v>
@@ -10840,10 +11173,10 @@
         <v>12</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -10851,13 +11184,13 @@
         <v>8</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="C120" s="2">
         <v>5</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>11</v>
@@ -10866,10 +11199,10 @@
         <v>12</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -10877,13 +11210,13 @@
         <v>8</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>11</v>
@@ -10892,10 +11225,10 @@
         <v>12</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
@@ -10903,13 +11236,13 @@
         <v>8</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="C122" s="2">
         <v>1</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>11</v>
@@ -10918,10 +11251,10 @@
         <v>12</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -10929,13 +11262,13 @@
         <v>8</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>11</v>
@@ -10944,10 +11277,10 @@
         <v>12</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
@@ -10955,13 +11288,13 @@
         <v>8</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>11</v>
@@ -10970,7 +11303,7 @@
         <v>12</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="H124" s="4" t="s">
         <v>14</v>
@@ -10981,13 +11314,13 @@
         <v>8</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="C125" s="2">
         <v>1</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>11</v>
@@ -10996,7 +11329,7 @@
         <v>12</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="H125" s="4" t="s">
         <v>14</v>
@@ -11007,13 +11340,13 @@
         <v>8</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="C126" s="2">
         <v>2</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>11</v>
@@ -11022,7 +11355,7 @@
         <v>12</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="H126" s="4" t="s">
         <v>14</v>
@@ -11033,13 +11366,13 @@
         <v>8</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="C127" s="2">
         <v>3</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>11</v>
@@ -11048,7 +11381,7 @@
         <v>12</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="H127" s="4" t="s">
         <v>14</v>
@@ -11059,13 +11392,13 @@
         <v>8</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="C128" s="2">
         <v>4</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>11</v>
@@ -11074,10 +11407,10 @@
         <v>12</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="H128" s="3" t="s">
-        <v>665</v>
+        <v>326</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -11085,13 +11418,13 @@
         <v>8</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="C129" s="2">
         <v>5</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>11</v>
@@ -11100,10 +11433,10 @@
         <v>12</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>688</v>
+        <v>330</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
@@ -11111,13 +11444,13 @@
         <v>8</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="C130" s="2">
         <v>6</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>11</v>
@@ -11126,10 +11459,10 @@
         <v>12</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="H130" t="s">
-        <v>685</v>
+        <v>332</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
@@ -11137,13 +11470,13 @@
         <v>8</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="C131" s="2">
         <v>7</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>11</v>
@@ -11152,10 +11485,10 @@
         <v>12</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="H131" t="s">
-        <v>686</v>
+        <v>335</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -11163,13 +11496,13 @@
         <v>8</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>11</v>
@@ -11178,10 +11511,10 @@
         <v>12</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="H132" t="s">
-        <v>687</v>
+        <v>339</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -11189,13 +11522,13 @@
         <v>8</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="C133" s="2">
         <v>1</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>11</v>
@@ -11204,10 +11537,10 @@
         <v>12</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
@@ -11215,13 +11548,13 @@
         <v>8</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>11</v>
@@ -11230,10 +11563,10 @@
         <v>12</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
@@ -11241,13 +11574,13 @@
         <v>8</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="C135" s="2">
         <v>1</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>11</v>
@@ -11256,10 +11589,10 @@
         <v>12</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
@@ -11267,13 +11600,13 @@
         <v>8</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="C136" s="2">
         <v>2</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>11</v>
@@ -11282,10 +11615,10 @@
         <v>12</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -11293,13 +11626,13 @@
         <v>8</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>11</v>
@@ -11308,7 +11641,7 @@
         <v>12</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="H137" s="4" t="s">
         <v>14</v>
@@ -11319,13 +11652,13 @@
         <v>8</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="C138" s="2">
         <v>1</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>11</v>
@@ -11334,7 +11667,7 @@
         <v>12</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="H138" s="4" t="s">
         <v>14</v>
@@ -11345,13 +11678,13 @@
         <v>8</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="C139" s="2">
         <v>2</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>11</v>
@@ -11360,7 +11693,7 @@
         <v>12</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="H139" s="4" t="s">
         <v>14</v>
@@ -11371,13 +11704,13 @@
         <v>8</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="C140" s="2">
         <v>3</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>11</v>
@@ -11386,7 +11719,7 @@
         <v>12</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="H140" s="4" t="s">
         <v>14</v>
@@ -11397,13 +11730,13 @@
         <v>8</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="C141" s="2">
         <v>4</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>11</v>
@@ -11412,7 +11745,7 @@
         <v>12</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="H141" s="4" t="s">
         <v>14</v>
@@ -11423,13 +11756,13 @@
         <v>8</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="C142" s="2">
         <v>5</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>11</v>
@@ -11438,7 +11771,7 @@
         <v>12</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="H142" s="4" t="s">
         <v>14</v>
@@ -11449,13 +11782,13 @@
         <v>8</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="C143" s="2">
         <v>6</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>11</v>
@@ -11464,7 +11797,7 @@
         <v>12</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="H143" s="4" t="s">
         <v>14</v>
@@ -11475,13 +11808,13 @@
         <v>8</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="C144" s="2">
         <v>7</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>11</v>
@@ -11490,7 +11823,7 @@
         <v>12</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="H144" s="4" t="s">
         <v>14</v>
@@ -11501,13 +11834,13 @@
         <v>8</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="C145" s="2">
         <v>8</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>11</v>
@@ -11516,7 +11849,7 @@
         <v>12</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="H145" s="4" t="s">
         <v>14</v>
@@ -11527,13 +11860,13 @@
         <v>8</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>11</v>
@@ -11542,7 +11875,7 @@
         <v>12</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="H146" s="4" t="s">
         <v>14</v>
@@ -11553,13 +11886,13 @@
         <v>8</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="C147" s="2">
         <v>1</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>11</v>
@@ -11568,7 +11901,7 @@
         <v>12</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="H147" s="4" t="s">
         <v>14</v>
@@ -11579,13 +11912,13 @@
         <v>8</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="C148" s="2">
         <v>2</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>11</v>
@@ -11594,7 +11927,7 @@
         <v>12</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="H148" s="4" t="s">
         <v>14</v>
@@ -11605,13 +11938,13 @@
         <v>8</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="C149" s="2">
         <v>3</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>11</v>
@@ -11620,7 +11953,7 @@
         <v>12</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="H149" s="4" t="s">
         <v>14</v>
@@ -11631,13 +11964,13 @@
         <v>8</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="C150" s="2">
         <v>4</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>11</v>
@@ -11646,7 +11979,7 @@
         <v>12</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="H150" s="4" t="s">
         <v>14</v>
@@ -11657,13 +11990,13 @@
         <v>8</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>11</v>
@@ -11672,7 +12005,7 @@
         <v>12</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="H151" s="4" t="s">
         <v>14</v>
@@ -11683,13 +12016,13 @@
         <v>8</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="C152" s="2">
         <v>1</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>11</v>
@@ -11698,7 +12031,7 @@
         <v>12</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="H152" s="4" t="s">
         <v>14</v>
@@ -11709,13 +12042,13 @@
         <v>8</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="C153" s="2">
         <v>2</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>11</v>
@@ -11724,7 +12057,7 @@
         <v>12</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="H153" s="4" t="s">
         <v>14</v>
@@ -11735,13 +12068,13 @@
         <v>8</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>11</v>
@@ -11750,7 +12083,7 @@
         <v>12</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="H154" s="4" t="s">
         <v>14</v>
@@ -11761,13 +12094,13 @@
         <v>8</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="C155" s="2">
         <v>1</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>11</v>
@@ -11776,7 +12109,7 @@
         <v>12</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>690</v>
+        <v>395</v>
       </c>
       <c r="H155" s="4" t="s">
         <v>14</v>
@@ -11787,13 +12120,13 @@
         <v>8</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>11</v>
@@ -11802,7 +12135,7 @@
         <v>12</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="H156" s="4" t="s">
         <v>14</v>
@@ -11813,13 +12146,13 @@
         <v>8</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="C157" s="2">
         <v>1</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>11</v>
@@ -11828,7 +12161,7 @@
         <v>12</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="H157" s="4" t="s">
         <v>14</v>
@@ -11839,13 +12172,13 @@
         <v>8</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="C158" s="2">
         <v>2</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>11</v>
@@ -11854,7 +12187,7 @@
         <v>12</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="H158" s="4" t="s">
         <v>14</v>
@@ -11865,13 +12198,13 @@
         <v>8</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>11</v>
@@ -11880,7 +12213,7 @@
         <v>12</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="H159" s="4" t="s">
         <v>14</v>
@@ -11891,13 +12224,13 @@
         <v>8</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="C160" s="2">
         <v>1</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>11</v>
@@ -11906,7 +12239,7 @@
         <v>12</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="H160" s="4" t="s">
         <v>14</v>
@@ -11917,13 +12250,13 @@
         <v>8</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="C161" s="2">
         <v>2</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>11</v>
@@ -11932,7 +12265,7 @@
         <v>12</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="H161" s="4" t="s">
         <v>14</v>
@@ -11943,13 +12276,13 @@
         <v>8</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="C162" s="2">
         <v>3</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>11</v>
@@ -11958,7 +12291,7 @@
         <v>12</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="H162" s="4" t="s">
         <v>14</v>
@@ -11969,13 +12302,13 @@
         <v>8</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>11</v>
@@ -11984,10 +12317,10 @@
         <v>12</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.35">
@@ -11995,13 +12328,13 @@
         <v>8</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="C164" s="2">
         <v>1</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>11</v>
@@ -12010,24 +12343,24 @@
         <v>12</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>11</v>
@@ -12036,7 +12369,7 @@
         <v>12</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="H165" s="4" t="s">
         <v>14</v>
@@ -12044,16 +12377,16 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="C166" s="2">
         <v>1</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>11</v>
@@ -12062,7 +12395,7 @@
         <v>12</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="H166" s="4" t="s">
         <v>14</v>
@@ -12070,16 +12403,16 @@
     </row>
     <row r="167" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>11</v>
@@ -12088,24 +12421,24 @@
         <v>12</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="C168" s="2">
         <v>1</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>11</v>
@@ -12114,24 +12447,24 @@
         <v>12</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>666</v>
+        <v>430</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>667</v>
+        <v>431</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>11</v>
@@ -12140,24 +12473,24 @@
         <v>12</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="C170" s="2">
         <v>1</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>11</v>
@@ -12166,24 +12499,24 @@
         <v>12</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>657</v>
+        <v>437</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>658</v>
+        <v>438</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="C171" s="2">
         <v>2</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>11</v>
@@ -12192,24 +12525,24 @@
         <v>12</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="H171" t="s">
-        <v>659</v>
+        <v>440</v>
+      </c>
+      <c r="H171" s="4" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="150" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="C172" s="2">
         <v>3</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>11</v>
@@ -12218,24 +12551,24 @@
         <v>12</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>660</v>
+        <v>444</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>11</v>
@@ -12244,24 +12577,24 @@
         <v>12</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="C174" s="2">
         <v>1</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>11</v>
@@ -12270,24 +12603,24 @@
         <v>12</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="H174" t="s">
-        <v>661</v>
+        <v>450</v>
+      </c>
+      <c r="H174" s="4" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="C175" s="2">
         <v>2</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>11</v>
@@ -12296,24 +12629,24 @@
         <v>12</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="H175" t="s">
-        <v>662</v>
+        <v>453</v>
+      </c>
+      <c r="H175" s="4" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="C176" s="2">
         <v>3</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>11</v>
@@ -12322,24 +12655,24 @@
         <v>12</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="H176" t="s">
-        <v>668</v>
+        <v>456</v>
+      </c>
+      <c r="H176" s="4" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>11</v>
@@ -12348,24 +12681,24 @@
         <v>12</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="H177" t="s">
-        <v>669</v>
+        <v>460</v>
+      </c>
+      <c r="H177" s="4" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="C178" s="2">
         <v>1</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>433</v>
+        <v>462</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>11</v>
@@ -12374,24 +12707,24 @@
         <v>12</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>434</v>
+        <v>463</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>435</v>
+        <v>464</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="C179" s="2">
         <v>2</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>436</v>
+        <v>465</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>11</v>
@@ -12400,24 +12733,24 @@
         <v>12</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>437</v>
+        <v>466</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>438</v>
+        <v>467</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="C180" s="2">
         <v>3</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>439</v>
+        <v>468</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>11</v>
@@ -12426,22 +12759,24 @@
         <v>12</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="H180" s="4"/>
+        <v>469</v>
+      </c>
+      <c r="H180" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="C181" s="2">
         <v>4</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>441</v>
+        <v>470</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>11</v>
@@ -12450,24 +12785,24 @@
         <v>12</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>443</v>
+        <v>472</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>444</v>
+        <v>473</v>
       </c>
       <c r="C182" s="2">
         <v>0</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>445</v>
+        <v>474</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>11</v>
@@ -12476,24 +12811,24 @@
         <v>12</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>446</v>
+        <v>475</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>670</v>
+        <v>476</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="210" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>444</v>
+        <v>473</v>
       </c>
       <c r="C183" s="2">
         <v>1</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>11</v>
@@ -12502,24 +12837,24 @@
         <v>12</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>671</v>
+        <v>478</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>672</v>
+        <v>479</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>444</v>
+        <v>473</v>
       </c>
       <c r="C184" s="2">
         <v>2</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>448</v>
+        <v>480</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>11</v>
@@ -12528,24 +12863,24 @@
         <v>12</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>449</v>
+        <v>481</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>450</v>
+        <v>482</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>444</v>
+        <v>473</v>
       </c>
       <c r="C185" s="2">
         <v>3</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>451</v>
+        <v>483</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>11</v>
@@ -12554,24 +12889,24 @@
         <v>12</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>452</v>
+        <v>484</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>454</v>
+        <v>486</v>
       </c>
       <c r="C186" s="2">
         <v>0</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>455</v>
+        <v>487</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>11</v>
@@ -12580,24 +12915,24 @@
         <v>12</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>456</v>
+        <v>488</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>454</v>
+        <v>486</v>
       </c>
       <c r="C187" s="2">
         <v>1</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>458</v>
+        <v>490</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>11</v>
@@ -12606,24 +12941,24 @@
         <v>12</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>459</v>
+        <v>491</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>460</v>
+        <v>492</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>454</v>
+        <v>486</v>
       </c>
       <c r="C188" s="2">
         <v>2</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>461</v>
+        <v>493</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>11</v>
@@ -12632,24 +12967,24 @@
         <v>12</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>462</v>
+        <v>494</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>463</v>
+        <v>495</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="195" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>454</v>
+        <v>486</v>
       </c>
       <c r="C189" s="2">
         <v>3</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>464</v>
+        <v>496</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>11</v>
@@ -12658,24 +12993,24 @@
         <v>12</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>673</v>
+        <v>497</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>674</v>
+        <v>498</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>466</v>
+        <v>500</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>11</v>
@@ -12684,24 +13019,24 @@
         <v>12</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>467</v>
+        <v>501</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>468</v>
+        <v>502</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="C191" s="2">
         <v>1</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>469</v>
+        <v>503</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>11</v>
@@ -12710,24 +13045,24 @@
         <v>12</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>470</v>
+        <v>504</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>468</v>
+        <v>502</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="C192" s="2">
         <v>2</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>471</v>
+        <v>505</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>11</v>
@@ -12736,24 +13071,24 @@
         <v>12</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>472</v>
+        <v>506</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>473</v>
+        <v>507</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="C193" s="2">
         <v>3</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>474</v>
+        <v>508</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>11</v>
@@ -12762,24 +13097,24 @@
         <v>12</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>475</v>
+        <v>509</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>623</v>
+        <v>510</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="C194" s="2">
         <v>4</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>476</v>
+        <v>511</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>11</v>
@@ -12788,24 +13123,24 @@
         <v>12</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>477</v>
+        <v>512</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>478</v>
+        <v>513</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="C195" s="2">
         <v>5</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>479</v>
+        <v>514</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>11</v>
@@ -12814,24 +13149,24 @@
         <v>12</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>480</v>
+        <v>515</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>481</v>
+        <v>516</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="C196" s="2">
         <v>6</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>482</v>
+        <v>517</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>11</v>
@@ -12840,24 +13175,24 @@
         <v>12</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>483</v>
+        <v>518</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>484</v>
+        <v>519</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="C197" s="2">
         <v>7</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>485</v>
+        <v>520</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>11</v>
@@ -12866,24 +13201,24 @@
         <v>12</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>486</v>
+        <v>521</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>487</v>
+        <v>522</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="C198" s="2">
         <v>8</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>488</v>
+        <v>523</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>11</v>
@@ -12892,24 +13227,24 @@
         <v>12</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>489</v>
+        <v>524</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>490</v>
+        <v>525</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="C199" s="2">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>491</v>
+        <v>526</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>11</v>
@@ -12918,24 +13253,24 @@
         <v>12</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>492</v>
+        <v>527</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>493</v>
+        <v>528</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>494</v>
+        <v>529</v>
       </c>
       <c r="C200" s="2">
         <v>0</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>495</v>
+        <v>530</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>11</v>
@@ -12944,24 +13279,24 @@
         <v>12</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="H200" t="s">
-        <v>675</v>
+        <v>531</v>
+      </c>
+      <c r="H200" s="4" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>494</v>
+        <v>529</v>
       </c>
       <c r="C201" s="2">
         <v>1</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>497</v>
+        <v>533</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>11</v>
@@ -12970,24 +13305,24 @@
         <v>12</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="H201" t="s">
-        <v>676</v>
+        <v>534</v>
+      </c>
+      <c r="H201" s="4" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>494</v>
+        <v>529</v>
       </c>
       <c r="C202" s="2">
         <v>2</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>499</v>
+        <v>536</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>11</v>
@@ -12996,24 +13331,24 @@
         <v>12</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="H202" s="7" t="s">
-        <v>677</v>
+        <v>537</v>
+      </c>
+      <c r="H202" s="4" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>494</v>
+        <v>529</v>
       </c>
       <c r="C203" s="2">
         <v>3</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>501</v>
+        <v>539</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>11</v>
@@ -13022,24 +13357,24 @@
         <v>12</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>502</v>
+        <v>540</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>503</v>
+        <v>541</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>494</v>
+        <v>529</v>
       </c>
       <c r="C204" s="2">
         <v>4</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>504</v>
+        <v>542</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>11</v>
@@ -13048,24 +13383,24 @@
         <v>12</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>505</v>
+        <v>543</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>506</v>
+        <v>544</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>507</v>
+        <v>545</v>
       </c>
       <c r="C205" s="2">
         <v>0</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>508</v>
+        <v>546</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>11</v>
@@ -13074,24 +13409,24 @@
         <v>12</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>509</v>
+        <v>547</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>510</v>
+        <v>548</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>507</v>
+        <v>545</v>
       </c>
       <c r="C206" s="2">
         <v>1</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>511</v>
+        <v>549</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>11</v>
@@ -13100,24 +13435,24 @@
         <v>12</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>512</v>
+        <v>550</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>473</v>
+        <v>507</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>507</v>
+        <v>545</v>
       </c>
       <c r="C207" s="2">
         <v>2</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>513</v>
+        <v>551</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>11</v>
@@ -13126,24 +13461,24 @@
         <v>12</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>514</v>
+        <v>552</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>515</v>
+        <v>553</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>507</v>
+        <v>545</v>
       </c>
       <c r="C208" s="2">
         <v>3</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>516</v>
+        <v>554</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>11</v>
@@ -13152,24 +13487,24 @@
         <v>12</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>517</v>
+        <v>555</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>518</v>
+        <v>556</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>507</v>
+        <v>545</v>
       </c>
       <c r="C209" s="2">
         <v>4</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>519</v>
+        <v>557</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>11</v>
@@ -13178,24 +13513,24 @@
         <v>12</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>520</v>
+        <v>558</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>521</v>
+        <v>559</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>507</v>
+        <v>545</v>
       </c>
       <c r="C210" s="2">
         <v>5</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>522</v>
+        <v>560</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>11</v>
@@ -13204,24 +13539,24 @@
         <v>12</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>523</v>
+        <v>561</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>524</v>
+        <v>562</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>507</v>
+        <v>545</v>
       </c>
       <c r="C211" s="2">
         <v>6</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>525</v>
+        <v>563</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>11</v>
@@ -13230,24 +13565,24 @@
         <v>12</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>526</v>
+        <v>564</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>527</v>
+        <v>565</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>507</v>
+        <v>545</v>
       </c>
       <c r="C212" s="2">
         <v>7</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>528</v>
+        <v>566</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>11</v>
@@ -13256,24 +13591,24 @@
         <v>12</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>529</v>
+        <v>567</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>530</v>
+        <v>568</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>507</v>
+        <v>545</v>
       </c>
       <c r="C213" s="2">
         <v>8</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>531</v>
+        <v>569</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>11</v>
@@ -13282,24 +13617,24 @@
         <v>12</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>532</v>
+        <v>570</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>533</v>
+        <v>571</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>507</v>
+        <v>545</v>
       </c>
       <c r="C214" s="2">
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>534</v>
+        <v>572</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>11</v>
@@ -13308,24 +13643,24 @@
         <v>12</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>535</v>
+        <v>573</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>536</v>
+        <v>574</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>537</v>
+        <v>575</v>
       </c>
       <c r="C215" s="2">
         <v>0</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>538</v>
+        <v>576</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>11</v>
@@ -13334,24 +13669,24 @@
         <v>12</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>539</v>
+        <v>577</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>540</v>
+        <v>578</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>537</v>
+        <v>575</v>
       </c>
       <c r="C216" s="2">
         <v>1</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>541</v>
+        <v>579</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>11</v>
@@ -13360,24 +13695,24 @@
         <v>12</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>542</v>
+        <v>580</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>543</v>
+        <v>581</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>537</v>
+        <v>575</v>
       </c>
       <c r="C217" s="2">
         <v>2</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>544</v>
+        <v>582</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>11</v>
@@ -13386,24 +13721,24 @@
         <v>12</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>545</v>
+        <v>583</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>632</v>
+        <v>584</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="C218" s="2">
         <v>0</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>546</v>
+        <v>585</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>11</v>
@@ -13412,24 +13747,24 @@
         <v>12</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>547</v>
+        <v>586</v>
       </c>
       <c r="H218" s="4" t="s">
-        <v>548</v>
+        <v>587</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="C219" s="2">
         <v>1</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>549</v>
+        <v>588</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>11</v>
@@ -13438,24 +13773,24 @@
         <v>12</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>550</v>
+        <v>589</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>551</v>
+        <v>590</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>552</v>
+        <v>591</v>
       </c>
       <c r="C220" s="2">
         <v>0</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>553</v>
+        <v>592</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>11</v>
@@ -13464,24 +13799,24 @@
         <v>12</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>554</v>
+        <v>593</v>
       </c>
       <c r="H220" s="4" t="s">
-        <v>555</v>
+        <v>594</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>552</v>
+        <v>591</v>
       </c>
       <c r="C221" s="2">
         <v>1</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>556</v>
+        <v>595</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>11</v>
@@ -13490,24 +13825,24 @@
         <v>12</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>557</v>
+        <v>596</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>558</v>
+        <v>597</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="C222" s="2">
         <v>0</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>559</v>
+        <v>598</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>11</v>
@@ -13516,24 +13851,24 @@
         <v>12</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>560</v>
+        <v>599</v>
       </c>
       <c r="H222" s="4" t="s">
-        <v>561</v>
+        <v>600</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="C223" s="2">
         <v>1</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>562</v>
+        <v>601</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>11</v>
@@ -13542,24 +13877,24 @@
         <v>12</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>563</v>
+        <v>602</v>
       </c>
       <c r="H223" s="4" t="s">
-        <v>564</v>
+        <v>603</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="C224" s="2">
         <v>2</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>565</v>
+        <v>604</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>11</v>
@@ -13568,7 +13903,7 @@
         <v>12</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>566</v>
+        <v>605</v>
       </c>
       <c r="H224" s="4" t="s">
         <v>14</v>
@@ -13576,16 +13911,16 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="C225" s="2">
         <v>3</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>567</v>
+        <v>606</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>11</v>
@@ -13594,7 +13929,7 @@
         <v>12</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>568</v>
+        <v>607</v>
       </c>
       <c r="H225" s="4" t="s">
         <v>14</v>
@@ -13602,16 +13937,16 @@
     </row>
     <row r="226" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>569</v>
+        <v>608</v>
       </c>
       <c r="C226" s="2">
         <v>0</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>570</v>
+        <v>609</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>11</v>
@@ -13620,24 +13955,24 @@
         <v>12</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>571</v>
+        <v>610</v>
       </c>
       <c r="H226" s="4" t="s">
-        <v>572</v>
+        <v>611</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>569</v>
+        <v>608</v>
       </c>
       <c r="C227" s="2">
         <v>1</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>573</v>
+        <v>612</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>11</v>
@@ -13646,24 +13981,24 @@
         <v>12</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>678</v>
+        <v>613</v>
       </c>
       <c r="H227" s="4" t="s">
-        <v>679</v>
+        <v>614</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>574</v>
+        <v>615</v>
       </c>
       <c r="C228" s="2">
         <v>0</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>575</v>
+        <v>616</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>11</v>
@@ -13672,24 +14007,24 @@
         <v>12</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>576</v>
+        <v>617</v>
       </c>
       <c r="H228" s="4" t="s">
-        <v>577</v>
+        <v>618</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>574</v>
+        <v>615</v>
       </c>
       <c r="C229" s="2">
         <v>1</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>578</v>
+        <v>619</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>11</v>
@@ -13698,24 +14033,24 @@
         <v>12</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>680</v>
+        <v>620</v>
       </c>
       <c r="H229" s="4" t="s">
-        <v>681</v>
+        <v>621</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>574</v>
+        <v>615</v>
       </c>
       <c r="C230" s="2">
         <v>2</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>579</v>
+        <v>622</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>11</v>
@@ -13724,24 +14059,24 @@
         <v>12</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="H230" t="s">
-        <v>682</v>
+        <v>623</v>
+      </c>
+      <c r="H230" s="4" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>574</v>
+        <v>615</v>
       </c>
       <c r="C231" s="2">
         <v>3</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>581</v>
+        <v>625</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>11</v>
@@ -13750,24 +14085,24 @@
         <v>12</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="H231" t="s">
-        <v>683</v>
+        <v>626</v>
+      </c>
+      <c r="H231" s="4" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>583</v>
+        <v>628</v>
       </c>
       <c r="C232" s="2">
         <v>0</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>584</v>
+        <v>629</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>11</v>
@@ -13776,24 +14111,24 @@
         <v>12</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="H232" t="s">
-        <v>684</v>
+        <v>630</v>
+      </c>
+      <c r="H232" s="4" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>583</v>
+        <v>628</v>
       </c>
       <c r="C233" s="2">
         <v>1</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>586</v>
+        <v>632</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>11</v>
@@ -13802,7 +14137,7 @@
         <v>12</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>587</v>
+        <v>633</v>
       </c>
       <c r="H233" s="4" t="s">
         <v>14</v>
@@ -13810,16 +14145,16 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>588</v>
+        <v>634</v>
       </c>
       <c r="C234" s="2">
         <v>0</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>589</v>
+        <v>635</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>11</v>
@@ -13828,7 +14163,7 @@
         <v>12</v>
       </c>
       <c r="G234" s="5" t="s">
-        <v>590</v>
+        <v>636</v>
       </c>
       <c r="H234" s="4" t="s">
         <v>14</v>
@@ -13836,16 +14171,16 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>588</v>
+        <v>634</v>
       </c>
       <c r="C235" s="2">
         <v>1</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>591</v>
+        <v>637</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>11</v>
@@ -13854,7 +14189,7 @@
         <v>12</v>
       </c>
       <c r="G235" s="5" t="s">
-        <v>592</v>
+        <v>638</v>
       </c>
       <c r="H235" s="4" t="s">
         <v>14</v>
@@ -13862,16 +14197,16 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>588</v>
+        <v>634</v>
       </c>
       <c r="C236" s="2">
         <v>2</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>593</v>
+        <v>639</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>11</v>
@@ -13880,7 +14215,7 @@
         <v>12</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>594</v>
+        <v>640</v>
       </c>
       <c r="H236" s="4" t="s">
         <v>14</v>
@@ -13888,16 +14223,16 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>588</v>
+        <v>634</v>
       </c>
       <c r="C237" s="2">
         <v>3</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>595</v>
+        <v>641</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>11</v>
@@ -13906,7 +14241,7 @@
         <v>12</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>596</v>
+        <v>642</v>
       </c>
       <c r="H237" s="4" t="s">
         <v>14</v>
@@ -13917,13 +14252,13 @@
         <v>8</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="C238" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>11</v>
@@ -13932,24 +14267,24 @@
         <v>12</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>597</v>
+        <v>643</v>
       </c>
       <c r="H238" s="4" t="s">
-        <v>598</v>
+        <v>644</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="360" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="C239" s="2">
-        <v>1001</v>
+        <v>2001</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>599</v>
+        <v>645</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>11</v>
@@ -13958,24 +14293,24 @@
         <v>12</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>600</v>
+        <v>646</v>
       </c>
       <c r="H239" s="4" t="s">
-        <v>601</v>
+        <v>647</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="C240" s="2">
-        <v>1001</v>
+        <v>2001</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>602</v>
+        <v>648</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>11</v>
@@ -13984,24 +14319,24 @@
         <v>12</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>603</v>
+        <v>649</v>
       </c>
       <c r="H240" s="4" t="s">
-        <v>604</v>
+        <v>650</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="C241" s="2">
-        <v>1001</v>
+        <v>2001</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>605</v>
+        <v>651</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>11</v>
@@ -14010,24 +14345,24 @@
         <v>12</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>606</v>
+        <v>652</v>
       </c>
       <c r="H241" s="4" t="s">
-        <v>607</v>
+        <v>653</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="C242" s="2">
-        <v>1002</v>
+        <v>2002</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>608</v>
+        <v>654</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>11</v>
@@ -14036,24 +14371,24 @@
         <v>12</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>609</v>
+        <v>655</v>
       </c>
       <c r="H242" s="4" t="s">
-        <v>610</v>
+        <v>656</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>611</v>
+        <v>657</v>
       </c>
       <c r="C243" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>612</v>
+        <v>658</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>11</v>
@@ -14062,24 +14397,24 @@
         <v>12</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>613</v>
+        <v>659</v>
       </c>
       <c r="H243" s="4" t="s">
-        <v>614</v>
+        <v>660</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>611</v>
+        <v>657</v>
       </c>
       <c r="C244" s="2">
-        <v>1001</v>
+        <v>2001</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>615</v>
+        <v>661</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>11</v>
@@ -14088,24 +14423,24 @@
         <v>12</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>616</v>
+        <v>662</v>
       </c>
       <c r="H244" s="4" t="s">
-        <v>617</v>
+        <v>663</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="150" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>454</v>
+        <v>486</v>
       </c>
       <c r="C245" s="2">
-        <v>1003</v>
+        <v>2003</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>618</v>
+        <v>664</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>11</v>
@@ -14114,24 +14449,24 @@
         <v>12</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>619</v>
+        <v>665</v>
       </c>
       <c r="H245" s="4" t="s">
-        <v>620</v>
+        <v>666</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="C246" s="2">
-        <v>1003</v>
+        <v>2003</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>621</v>
+        <v>667</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>11</v>
@@ -14140,24 +14475,24 @@
         <v>12</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>622</v>
+        <v>668</v>
       </c>
       <c r="H246" s="4" t="s">
-        <v>623</v>
+        <v>510</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>494</v>
+        <v>529</v>
       </c>
       <c r="C247" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>624</v>
+        <v>669</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>11</v>
@@ -14166,24 +14501,24 @@
         <v>12</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>625</v>
+        <v>670</v>
       </c>
       <c r="H247" s="4" t="s">
-        <v>626</v>
+        <v>671</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>494</v>
+        <v>529</v>
       </c>
       <c r="C248" s="2">
-        <v>1001</v>
+        <v>2001</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>627</v>
+        <v>672</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>11</v>
@@ -14192,24 +14527,24 @@
         <v>12</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>628</v>
+        <v>673</v>
       </c>
       <c r="H248" s="4" t="s">
-        <v>629</v>
+        <v>674</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>537</v>
+        <v>575</v>
       </c>
       <c r="C249" s="2">
-        <v>1002</v>
+        <v>2002</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>630</v>
+        <v>675</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>11</v>
@@ -14218,24 +14553,24 @@
         <v>12</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>631</v>
+        <v>676</v>
       </c>
       <c r="H249" s="4" t="s">
-        <v>632</v>
+        <v>584</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="C250" s="2">
-        <v>1002</v>
+        <v>2002</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>565</v>
+        <v>604</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>11</v>
@@ -14244,24 +14579,24 @@
         <v>12</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>633</v>
+        <v>677</v>
       </c>
       <c r="H250" s="4" t="s">
-        <v>633</v>
+        <v>677</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="C251" s="2">
-        <v>1003</v>
+        <v>2003</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>567</v>
+        <v>606</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>11</v>
@@ -14270,24 +14605,24 @@
         <v>12</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>634</v>
+        <v>678</v>
       </c>
       <c r="H251" s="4" t="s">
-        <v>634</v>
+        <v>678</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>569</v>
+        <v>608</v>
       </c>
       <c r="C252" s="2">
-        <v>1001</v>
+        <v>2001</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>635</v>
+        <v>679</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>11</v>
@@ -14296,24 +14631,24 @@
         <v>12</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>636</v>
+        <v>680</v>
       </c>
       <c r="H252" s="4" t="s">
-        <v>637</v>
+        <v>681</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>574</v>
+        <v>615</v>
       </c>
       <c r="C253" s="2">
-        <v>1001</v>
+        <v>2001</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>638</v>
+        <v>682</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>11</v>
@@ -14322,24 +14657,24 @@
         <v>12</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>639</v>
+        <v>683</v>
       </c>
       <c r="H253" s="4" t="s">
-        <v>640</v>
+        <v>684</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>641</v>
+        <v>685</v>
       </c>
       <c r="C254" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>642</v>
+        <v>686</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>11</v>
@@ -14348,24 +14683,24 @@
         <v>12</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>643</v>
+        <v>687</v>
       </c>
       <c r="H254" s="4" t="s">
-        <v>644</v>
+        <v>688</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>641</v>
+        <v>685</v>
       </c>
       <c r="C255" s="2">
-        <v>1001</v>
+        <v>2001</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>645</v>
+        <v>689</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>11</v>
@@ -14374,15 +14709,14 @@
         <v>12</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>646</v>
+        <v>690</v>
       </c>
       <c r="H255" s="4" t="s">
-        <v>646</v>
+        <v>690</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docassemble/CDCEvictionMoratorium/data/sources/cdc_eviction_moratorium_es.xlsx
+++ b/docassemble/CDCEvictionMoratorium/data/sources/cdc_eviction_moratorium_es.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="692">
   <si>
     <t>interview</t>
   </si>
@@ -312,232 +312,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>[Complete this survey]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(https://docs.google.com/forms/d/e/1FAIpQLSen48P7xIH6Feuzi9ovLs9HsOmhbo787vK-jScspAyZyjMqdg/viewform?usp=sf_link).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>% endif</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>% if not user_logged_in():</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[:sign-in-alt: Sign-in]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${url_of('login', next=interview_url())}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) or </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[registrar]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${url_of('register', next=interview_url())}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) para salvar su progreso (opcional).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>% endif</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>% if 'dev' in get_config('url root') or 'test' in get_config('url root'):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Sugestiones, Comentarios o sugerencias? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Complete esta encuesta]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (https://docs.google.com/forms/d/e/1FAIpQLSeHwCqKxXLJVcmPyUOZceuj2iUTmvOLWIEbAkWxfJVfDHvytA/viewform?usp=sf_link).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>% else:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Complete esta esta encuesta survey]</t>
     </r>
     <r>
       <rPr>
@@ -5759,81 +5533,6 @@
     <t>460f4664b1fc8f317d93f75dbc689f1b</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Your state may have a moratorium that gives you </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[more 
-rights]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(https://evictionlab.org/covid-eviction-policies/).
-* Every adult who lives with you needs to fill out their own
-copy of this form.
-* This form can only stop you from being evicted for non-payment
-of rent. You can still be evicted for other reasons.
-* You still may owe rent and fees.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Es posible que su estado tenga una moratoria que le otorgue </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[más derechos]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-* Cada adulto que vive con usted debe completar su propia copia del formulario.
-* Este formulario solo puede evitar que no lo desalojen por no 
-pagar la renta. Aún puede ser desalojado por otras razones.
-* Es posible que aún deba alquiler y tarifas.</t>
-    </r>
-  </si>
-  <si>
     <t>d88857f1f2c119233dea0cb5ba765a33</t>
   </si>
   <si>
@@ -6073,108 +5772,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Según sus respuestas, es probable que no califique para los CDC
-de Desalojo Moratorio.
-* Tenga en cuenta que su estado puede tener una moratoria que le otorgue </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[más
-derechos]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (https://evictionlab.org/covid-eviction-policies/).
-* Obtenga información de las </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Preguntas frecuentes de ayuda legal sobre desalojo y alquiler
-Protecciones]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (https://legalfaq.org/).
-* </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Escriba una carta al propietario]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (https://www.norent.org/) explicando
-tu situación.
-Si necesita ayuda con su vivienda, es posible que pueda obtener ayuda de
-la agencia de </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[servicios legales locales]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (https://www.lsc.gov/what-legal-aid/find-legal-aid)
-</t>
-    </r>
-  </si>
-  <si>
     <t>51cfbcff36da74a9fc47f3a5140f99f2</t>
   </si>
   <si>
@@ -6270,44 +5867,6 @@
 qualify for, you likely used your "best efforts". You do not need to ask
 for help from friends or family.
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Asistencia gubernamental disponible significa cualquier beneficio de pago de renta o vivienda gubernamental disponibles para el individuo o cualquier miembro del ogar.
-Por ejemplo, asistencia para el alquiler de la Sección 8, vivienda pública o
-ayuda para pagar el alquiler que algunas ciudades o estados pueden tener disponible.
-El sitio web </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[USA.gov]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (https://www.usa.gov/finding-home) tiene algunos enlaces
-a recursos que pueden ayudarlo a encontrar programas de asistencia para el alquiler en su
-zona.
-Si solicitó y realizó un seguimiento de cualquier ayuda o beneficio de alquiler para los que pudiera calificar, usted probablemente utilizó sus "mejores esfuerzos". No es necesario pedir ayuda de amigos o familiares.</t>
     </r>
   </si>
   <si>
@@ -7405,42 +6964,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Según sus respuestas, es probable que no califique para los CDC
-de Desalojo Moratorio.
-Si necesita ayuda con su vivienda, es posible que pueda obtener ayuda de
-la agencia de </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[servicios legales locales]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (https://www.lsc.gov/what-legal-aid/find-legal-aid)
-</t>
-    </r>
-  </si>
-  <si>
     <t>b331b67e45ed9d03d6dd91c0b9d9601d</t>
   </si>
   <si>
@@ -7690,6 +7213,429 @@
   </si>
   <si>
     <t>CDC_eviction_moratorium</t>
+  </si>
+  <si>
+    <t>¿Cuál es la dirección de su arrendador?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Según sus respuestas, es probable que no califique para los CDC
+de Desalojo Moratorio.
+* Tenga en cuenta que su estado puede tener una moratoria que le otorgue </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[más
+derechos]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(https://evictionlab.org/covid-eviction-policies/).
+* Obtenga información de las </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Preguntas frecuentes de ayuda legal sobre desalojo y alquiler
+Protecciones]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(https://legalfaq.org/).
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Escriba una carta al propietario]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(https://www.norent.org/) explicando
+tu situación.
+Si necesita ayuda con su vivienda, es posible que pueda obtener ayuda de
+la agencia de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[servicios legales locales]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(https://www.lsc.gov/what-legal-aid/find-legal-aid)
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Asistencia gubernamental disponible significa cualquier beneficio de pago de renta o vivienda gubernamental disponibles para el individuo o cualquier miembro del ogar.
+Por ejemplo, asistencia para el alquiler de la Sección 8, vivienda pública o
+ayuda para pagar el alquiler que algunas ciudades o estados pueden tener disponible.
+El sitio web </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[USA.gov]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(https://www.usa.gov/finding-home) tiene algunos enlaces
+a recursos que pueden ayudarlo a encontrar programas de asistencia para el alquiler en su
+zona.
+Si solicitó y realizó un seguimiento de cualquier ayuda o beneficio de alquiler para los que pudiera calificar, usted probablemente utilizó sus "mejores esfuerzos". No es necesario pedir ayuda de amigos o familiares.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Según sus respuestas, es probable que no califique para los CDC
+de Desalojo Moratorio.
+Si necesita ayuda con su vivienda, es posible que pueda obtener ayuda de
+la agencia de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[servicios legales locales]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(https://www.lsc.gov/what-legal-aid/find-legal-aid)
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>% if not user_logged_in():</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[:sign-in-alt: Sign-in]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${url_of('login', next=interview_url())}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[registrar]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${url_of('register', next=interview_url())}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) para salvar su progreso (opcional).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>% endif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>% if 'dev' in get_config('url root') or 'test' in get_config('url root'):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Sugestiones, Comentarios o sugerencias? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Complete esta encuesta]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(https://docs.google.com/forms/d/e/1FAIpQLSeHwCqKxXLJVcmPyUOZceuj2iUTmvOLWIEbAkWxfJVfDHvytA/viewform?usp=sf_link).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>% else:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Complete esta esta encuesta survey]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(https://docs.google.com/forms/d/e/1FAIpQLSen48P7xIH6Feuzi9ovLs9HsOmhbo787vK-jScspAyZyjMqdg/viewform?usp=sf_link).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>% endif</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Your state may have a moratorium that gives you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[more 
+rights]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(https://evictionlab.org/covid-eviction-policies/).
+* Every adult who lives with you needs to fill out their own
+copy of this form.
+* This form can only stop you from being evicted for non-payment
+of rent. You can still be evicted for other reasons.
+* You still may owe rent and fees.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Es posible que su estado tenga una moratoria que le otorgue [más derechos](https://evictionlab.org/covid-eviction-policies/).
+* Cada adulto que vive con usted debe completar su propia copia del formulario.
+* Este formulario solo puede evitar que no lo desalojen por no 
+pagar la renta. Aún puede ser desalojado por otras razones.
+* Es posible que aún deba alquiler y tarifas.</t>
   </si>
 </sst>
 </file>
@@ -8075,7 +8021,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="H171" sqref="H171"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -8186,30 +8134,30 @@
         <v>19</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>20</v>
+        <v>689</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>14</v>
@@ -8217,25 +8165,25 @@
     </row>
     <row r="6" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>14</v>
@@ -8243,25 +8191,25 @@
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>14</v>
@@ -8269,25 +8217,25 @@
     </row>
     <row r="8" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>14</v>
@@ -8295,25 +8243,25 @@
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>14</v>
@@ -8321,25 +8269,25 @@
     </row>
     <row r="10" spans="1:8" ht="150" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>14</v>
@@ -8347,25 +8295,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C11" s="2">
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>14</v>
@@ -8373,25 +8321,25 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>14</v>
@@ -8399,25 +8347,25 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>14</v>
@@ -8428,22 +8376,22 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>14</v>
@@ -8454,22 +8402,22 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>14</v>
@@ -8480,22 +8428,22 @@
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2">
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>14</v>
@@ -8506,22 +8454,22 @@
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2">
         <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>14</v>
@@ -8532,22 +8480,22 @@
         <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2">
         <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>14</v>
@@ -8558,22 +8506,22 @@
         <v>8</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2">
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>14</v>
@@ -8584,22 +8532,22 @@
         <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2">
         <v>6</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>14</v>
@@ -8610,22 +8558,22 @@
         <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2">
         <v>7</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>14</v>
@@ -8636,22 +8584,22 @@
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2">
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>14</v>
@@ -8662,22 +8610,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="2">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>14</v>
@@ -8688,22 +8636,22 @@
         <v>8</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="2">
         <v>10</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>14</v>
@@ -8714,22 +8662,22 @@
         <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="2">
         <v>11</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>14</v>
@@ -8740,22 +8688,22 @@
         <v>8</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="2">
         <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>14</v>
@@ -8766,22 +8714,22 @@
         <v>8</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="2">
         <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>14</v>
@@ -8792,22 +8740,22 @@
         <v>8</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="2">
         <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>14</v>
@@ -8818,22 +8766,22 @@
         <v>8</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="2">
         <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>14</v>
@@ -8844,22 +8792,22 @@
         <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="2">
         <v>16</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>14</v>
@@ -8870,22 +8818,22 @@
         <v>8</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>14</v>
@@ -8896,22 +8844,22 @@
         <v>8</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" s="2">
         <v>0</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>14</v>
@@ -8922,22 +8870,22 @@
         <v>8</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>14</v>
@@ -8948,25 +8896,25 @@
         <v>8</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2">
         <v>2</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="3" t="s">
+      <c r="H34" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -8974,25 +8922,25 @@
         <v>8</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" s="2">
         <v>3</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="3" t="s">
+      <c r="H35" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -9000,25 +8948,25 @@
         <v>8</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2">
         <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="3" t="s">
+      <c r="H36" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
@@ -9026,25 +8974,25 @@
         <v>8</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" s="2">
         <v>5</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="3" t="s">
+      <c r="H37" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -9052,22 +9000,22 @@
         <v>8</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C38" s="2">
         <v>0</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>14</v>
@@ -9078,22 +9026,22 @@
         <v>8</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>14</v>
@@ -9104,22 +9052,22 @@
         <v>8</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C40" s="2">
         <v>2</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>14</v>
@@ -9130,22 +9078,22 @@
         <v>8</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" s="2">
         <v>3</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>14</v>
@@ -9156,22 +9104,22 @@
         <v>8</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42" s="2">
         <v>4</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>14</v>
@@ -9182,22 +9130,22 @@
         <v>8</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C43" s="2">
         <v>5</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>14</v>
@@ -9208,22 +9156,22 @@
         <v>8</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C44" s="2">
         <v>6</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>14</v>
@@ -9234,25 +9182,25 @@
         <v>8</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="H45" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.35">
@@ -9260,22 +9208,22 @@
         <v>8</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>14</v>
@@ -9286,22 +9234,22 @@
         <v>8</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>14</v>
@@ -9312,22 +9260,22 @@
         <v>8</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C48" s="2">
         <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>14</v>
@@ -9338,22 +9286,22 @@
         <v>8</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C49" s="2">
         <v>3</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>14</v>
@@ -9364,25 +9312,25 @@
         <v>8</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="3" t="s">
+      <c r="H50" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
@@ -9390,25 +9338,25 @@
         <v>8</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="H51" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
@@ -9416,25 +9364,25 @@
         <v>8</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C52" s="2">
         <v>2</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="H52" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
@@ -9442,25 +9390,25 @@
         <v>8</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C53" s="2">
         <v>3</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="H53" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -9468,22 +9416,22 @@
         <v>8</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>14</v>
@@ -9494,22 +9442,22 @@
         <v>8</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>14</v>
@@ -9520,25 +9468,25 @@
         <v>8</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="3" t="s">
+      <c r="H56" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -9546,22 +9494,22 @@
         <v>8</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>14</v>
@@ -9572,25 +9520,25 @@
         <v>8</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C58" s="2">
         <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="3" t="s">
+      <c r="H58" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
@@ -9598,25 +9546,25 @@
         <v>8</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C59" s="2">
         <v>3</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="3" t="s">
+      <c r="H59" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
@@ -9624,25 +9572,25 @@
         <v>8</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C60" s="2">
         <v>4</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="3" t="s">
+      <c r="H60" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
@@ -9650,25 +9598,25 @@
         <v>8</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C61" s="2">
         <v>5</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="3" t="s">
+      <c r="H61" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
@@ -9676,22 +9624,22 @@
         <v>8</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C62" s="2">
         <v>6</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>14</v>
@@ -9702,25 +9650,25 @@
         <v>8</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C63" s="2">
         <v>7</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="3" t="s">
+      <c r="H63" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -9728,22 +9676,22 @@
         <v>8</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>14</v>
@@ -9754,22 +9702,22 @@
         <v>8</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>14</v>
@@ -9780,22 +9728,22 @@
         <v>8</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C66" s="2">
         <v>2</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>14</v>
@@ -9806,22 +9754,22 @@
         <v>8</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C67" s="2">
         <v>3</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>14</v>
@@ -9832,22 +9780,22 @@
         <v>8</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C68" s="2">
         <v>4</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>14</v>
@@ -9858,22 +9806,22 @@
         <v>8</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C69" s="2">
         <v>5</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>14</v>
@@ -9884,22 +9832,22 @@
         <v>8</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C70" s="2">
         <v>6</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>14</v>
@@ -9910,22 +9858,22 @@
         <v>8</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C71" s="2">
         <v>7</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>14</v>
@@ -9936,22 +9884,22 @@
         <v>8</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C72" s="2">
         <v>0</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>14</v>
@@ -9962,22 +9910,22 @@
         <v>8</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>14</v>
@@ -9988,22 +9936,22 @@
         <v>8</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C74" s="2">
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>14</v>
@@ -10014,22 +9962,22 @@
         <v>8</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="H75" s="4" t="s">
         <v>14</v>
@@ -10040,22 +9988,22 @@
         <v>8</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>14</v>
@@ -10066,22 +10014,22 @@
         <v>8</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>14</v>
@@ -10092,22 +10040,22 @@
         <v>8</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C78" s="2">
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>14</v>
@@ -10118,22 +10066,22 @@
         <v>8</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C79" s="2">
         <v>2</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>14</v>
@@ -10144,22 +10092,22 @@
         <v>8</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C80" s="2">
         <v>3</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>14</v>
@@ -10170,22 +10118,22 @@
         <v>8</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C81" s="2">
         <v>4</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>14</v>
@@ -10196,22 +10144,22 @@
         <v>8</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C82" s="2">
         <v>5</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>14</v>
@@ -10222,22 +10170,22 @@
         <v>8</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C83" s="2">
         <v>6</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>14</v>
@@ -10248,22 +10196,22 @@
         <v>8</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>14</v>
@@ -10274,22 +10222,22 @@
         <v>8</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C85" s="2">
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>14</v>
@@ -10300,22 +10248,22 @@
         <v>8</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C86" s="2">
         <v>0</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>14</v>
@@ -10326,25 +10274,25 @@
         <v>8</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C87" s="2">
         <v>0</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>14</v>
+      <c r="H87" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
@@ -10352,22 +10300,22 @@
         <v>8</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C88" s="2">
         <v>0</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>14</v>
@@ -10378,22 +10326,22 @@
         <v>8</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C89" s="2">
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>14</v>
@@ -10404,22 +10352,22 @@
         <v>8</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C90" s="2">
         <v>2</v>
       </c>
       <c r="D90" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>14</v>
@@ -10430,22 +10378,22 @@
         <v>8</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C91" s="2">
         <v>0</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>14</v>
@@ -10456,22 +10404,22 @@
         <v>8</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C92" s="2">
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>14</v>
@@ -10482,22 +10430,22 @@
         <v>8</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C93" s="2">
         <v>0</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>14</v>
@@ -10508,22 +10456,22 @@
         <v>8</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C94" s="2">
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>14</v>
@@ -10534,22 +10482,22 @@
         <v>8</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C95" s="2">
         <v>2</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>14</v>
@@ -10560,22 +10508,22 @@
         <v>8</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C96" s="2">
         <v>3</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>14</v>
@@ -10586,22 +10534,22 @@
         <v>8</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C97" s="2">
         <v>4</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>14</v>
@@ -10612,22 +10560,22 @@
         <v>8</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C98" s="2">
         <v>0</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>14</v>
@@ -10638,22 +10586,22 @@
         <v>8</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C99" s="2">
         <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="H99" s="4" t="s">
         <v>14</v>
@@ -10664,22 +10612,22 @@
         <v>8</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C100" s="2">
         <v>2</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>14</v>
@@ -10690,22 +10638,22 @@
         <v>8</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C101" s="2">
         <v>3</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>14</v>
@@ -10716,22 +10664,22 @@
         <v>8</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>14</v>
@@ -10742,22 +10690,22 @@
         <v>8</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="H103" s="4" t="s">
         <v>14</v>
@@ -10768,22 +10716,22 @@
         <v>8</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C104" s="2">
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>14</v>
@@ -10794,22 +10742,22 @@
         <v>8</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>14</v>
@@ -10820,22 +10768,22 @@
         <v>8</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C106" s="2">
         <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="H106" s="4" t="s">
         <v>14</v>
@@ -10846,22 +10794,22 @@
         <v>8</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C107" s="2">
         <v>2</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="H107" s="4" t="s">
         <v>14</v>
@@ -10872,22 +10820,22 @@
         <v>8</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C108" s="2">
         <v>3</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="5" t="s">
         <v>267</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>268</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>14</v>
@@ -10898,22 +10846,22 @@
         <v>8</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>14</v>
@@ -10924,22 +10872,22 @@
         <v>8</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C110" s="2">
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="H110" s="4" t="s">
         <v>14</v>
@@ -10950,25 +10898,25 @@
         <v>8</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C111" s="2">
         <v>2</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" s="3" t="s">
+      <c r="H111" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="H111" s="4" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
@@ -10976,25 +10924,25 @@
         <v>8</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C112" s="2">
         <v>3</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" s="3" t="s">
+      <c r="H112" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="H112" s="4" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.35">
@@ -11002,25 +10950,25 @@
         <v>8</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" s="3" t="s">
+      <c r="H113" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="H113" s="4" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="210" customHeight="1" x14ac:dyDescent="0.35">
@@ -11028,25 +10976,25 @@
         <v>8</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C114" s="2">
         <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" s="3" t="s">
+      <c r="H114" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="H114" s="4" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11054,25 +11002,25 @@
         <v>8</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" s="3" t="s">
+      <c r="H115" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="H115" s="4" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.35">
@@ -11080,25 +11028,25 @@
         <v>8</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C116" s="2">
         <v>1</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" s="3" t="s">
+      <c r="H116" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="H116" s="4" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
@@ -11106,25 +11054,25 @@
         <v>8</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C117" s="2">
         <v>2</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" s="3" t="s">
+      <c r="H117" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
@@ -11132,25 +11080,25 @@
         <v>8</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C118" s="2">
         <v>3</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" s="3" t="s">
+      <c r="H118" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="H118" s="4" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
@@ -11158,25 +11106,25 @@
         <v>8</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C119" s="2">
         <v>4</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="E119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" s="5" t="s">
-        <v>301</v>
-      </c>
       <c r="H119" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -11184,25 +11132,25 @@
         <v>8</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C120" s="2">
         <v>5</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G120" s="3" t="s">
+      <c r="H120" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -11210,25 +11158,25 @@
         <v>8</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G121" s="3" t="s">
+      <c r="H121" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="H121" s="4" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
@@ -11236,25 +11184,25 @@
         <v>8</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C122" s="2">
         <v>1</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" s="3" t="s">
+      <c r="H122" s="4" t="s">
         <v>310</v>
-      </c>
-      <c r="H122" s="4" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -11262,25 +11210,25 @@
         <v>8</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" s="3" t="s">
+      <c r="H123" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="H123" s="4" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
@@ -11288,22 +11236,22 @@
         <v>8</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="H124" s="4" t="s">
         <v>14</v>
@@ -11314,22 +11262,22 @@
         <v>8</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C125" s="2">
         <v>1</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="H125" s="4" t="s">
         <v>14</v>
@@ -11340,22 +11288,22 @@
         <v>8</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C126" s="2">
         <v>2</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="H126" s="4" t="s">
         <v>14</v>
@@ -11366,22 +11314,22 @@
         <v>8</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C127" s="2">
         <v>3</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>324</v>
       </c>
       <c r="H127" s="4" t="s">
         <v>14</v>
@@ -11392,25 +11340,25 @@
         <v>8</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C128" s="2">
         <v>4</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G128" s="3" t="s">
+      <c r="H128" s="4" t="s">
         <v>326</v>
-      </c>
-      <c r="H128" s="4" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -11418,25 +11366,25 @@
         <v>8</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C129" s="2">
         <v>5</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G129" s="3" t="s">
+      <c r="H129" s="4" t="s">
         <v>329</v>
-      </c>
-      <c r="H129" s="4" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
@@ -11444,25 +11392,25 @@
         <v>8</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C130" s="2">
         <v>6</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G130" s="3" t="s">
+      <c r="H130" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="H130" s="4" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
@@ -11470,25 +11418,25 @@
         <v>8</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C131" s="2">
         <v>7</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G131" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="E131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G131" s="3" t="s">
+      <c r="H131" s="4" t="s">
         <v>335</v>
-      </c>
-      <c r="H131" s="4" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -11496,25 +11444,25 @@
         <v>8</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G132" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G132" s="3" t="s">
+      <c r="H132" s="4" t="s">
         <v>339</v>
-      </c>
-      <c r="H132" s="4" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -11522,25 +11470,25 @@
         <v>8</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C133" s="2">
         <v>1</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G133" s="3" t="s">
+      <c r="H133" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="H133" s="4" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
@@ -11548,25 +11496,25 @@
         <v>8</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="E134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G134" s="3" t="s">
+      <c r="H134" s="4" t="s">
         <v>346</v>
-      </c>
-      <c r="H134" s="4" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
@@ -11574,25 +11522,25 @@
         <v>8</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C135" s="2">
         <v>1</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G135" s="3" t="s">
+      <c r="H135" s="4" t="s">
         <v>349</v>
-      </c>
-      <c r="H135" s="4" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
@@ -11600,25 +11548,25 @@
         <v>8</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C136" s="2">
         <v>2</v>
       </c>
       <c r="D136" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G136" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="E136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G136" s="3" t="s">
+      <c r="H136" s="4" t="s">
         <v>352</v>
-      </c>
-      <c r="H136" s="4" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -11626,22 +11574,22 @@
         <v>8</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
       </c>
       <c r="D137" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G137" s="3" t="s">
         <v>355</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>356</v>
       </c>
       <c r="H137" s="4" t="s">
         <v>14</v>
@@ -11652,22 +11600,22 @@
         <v>8</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C138" s="2">
         <v>1</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G138" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G138" s="3" t="s">
-        <v>358</v>
       </c>
       <c r="H138" s="4" t="s">
         <v>14</v>
@@ -11678,22 +11626,22 @@
         <v>8</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C139" s="2">
         <v>2</v>
       </c>
       <c r="D139" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G139" s="3" t="s">
         <v>359</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>360</v>
       </c>
       <c r="H139" s="4" t="s">
         <v>14</v>
@@ -11704,22 +11652,22 @@
         <v>8</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C140" s="2">
         <v>3</v>
       </c>
       <c r="D140" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G140" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>362</v>
       </c>
       <c r="H140" s="4" t="s">
         <v>14</v>
@@ -11730,22 +11678,22 @@
         <v>8</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C141" s="2">
         <v>4</v>
       </c>
       <c r="D141" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G141" s="3" t="s">
         <v>363</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>364</v>
       </c>
       <c r="H141" s="4" t="s">
         <v>14</v>
@@ -11756,22 +11704,22 @@
         <v>8</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C142" s="2">
         <v>5</v>
       </c>
       <c r="D142" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G142" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G142" s="3" t="s">
-        <v>366</v>
       </c>
       <c r="H142" s="4" t="s">
         <v>14</v>
@@ -11782,22 +11730,22 @@
         <v>8</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C143" s="2">
         <v>6</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G143" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>368</v>
       </c>
       <c r="H143" s="4" t="s">
         <v>14</v>
@@ -11808,22 +11756,22 @@
         <v>8</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C144" s="2">
         <v>7</v>
       </c>
       <c r="D144" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G144" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G144" s="3" t="s">
-        <v>370</v>
       </c>
       <c r="H144" s="4" t="s">
         <v>14</v>
@@ -11834,22 +11782,22 @@
         <v>8</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C145" s="2">
         <v>8</v>
       </c>
       <c r="D145" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G145" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>372</v>
       </c>
       <c r="H145" s="4" t="s">
         <v>14</v>
@@ -11860,22 +11808,22 @@
         <v>8</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
       </c>
       <c r="D146" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G146" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G146" s="3" t="s">
-        <v>375</v>
       </c>
       <c r="H146" s="4" t="s">
         <v>14</v>
@@ -11886,22 +11834,22 @@
         <v>8</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C147" s="2">
         <v>1</v>
       </c>
       <c r="D147" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G147" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G147" s="3" t="s">
-        <v>377</v>
       </c>
       <c r="H147" s="4" t="s">
         <v>14</v>
@@ -11912,22 +11860,22 @@
         <v>8</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C148" s="2">
         <v>2</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G148" s="3" t="s">
         <v>378</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G148" s="3" t="s">
-        <v>379</v>
       </c>
       <c r="H148" s="4" t="s">
         <v>14</v>
@@ -11938,22 +11886,22 @@
         <v>8</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C149" s="2">
         <v>3</v>
       </c>
       <c r="D149" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G149" s="3" t="s">
         <v>380</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>381</v>
       </c>
       <c r="H149" s="4" t="s">
         <v>14</v>
@@ -11964,22 +11912,22 @@
         <v>8</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C150" s="2">
         <v>4</v>
       </c>
       <c r="D150" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G150" s="5" t="s">
         <v>382</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G150" s="5" t="s">
-        <v>383</v>
       </c>
       <c r="H150" s="4" t="s">
         <v>14</v>
@@ -11990,22 +11938,22 @@
         <v>8</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
       </c>
       <c r="D151" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G151" s="3" t="s">
         <v>385</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G151" s="3" t="s">
-        <v>386</v>
       </c>
       <c r="H151" s="4" t="s">
         <v>14</v>
@@ -12016,22 +11964,22 @@
         <v>8</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C152" s="2">
         <v>1</v>
       </c>
       <c r="D152" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G152" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G152" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="H152" s="4" t="s">
         <v>14</v>
@@ -12042,22 +11990,22 @@
         <v>8</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C153" s="2">
         <v>2</v>
       </c>
       <c r="D153" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G153" s="3" t="s">
         <v>389</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G153" s="3" t="s">
-        <v>390</v>
       </c>
       <c r="H153" s="4" t="s">
         <v>14</v>
@@ -12068,22 +12016,22 @@
         <v>8</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
       </c>
       <c r="D154" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G154" s="3" t="s">
         <v>392</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G154" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="H154" s="4" t="s">
         <v>14</v>
@@ -12094,22 +12042,22 @@
         <v>8</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C155" s="2">
         <v>1</v>
       </c>
       <c r="D155" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G155" s="3" t="s">
         <v>394</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G155" s="3" t="s">
-        <v>395</v>
       </c>
       <c r="H155" s="4" t="s">
         <v>14</v>
@@ -12120,22 +12068,22 @@
         <v>8</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
       </c>
       <c r="D156" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G156" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G156" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="H156" s="4" t="s">
         <v>14</v>
@@ -12146,22 +12094,22 @@
         <v>8</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C157" s="2">
         <v>1</v>
       </c>
       <c r="D157" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G157" s="3" t="s">
         <v>399</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G157" s="3" t="s">
-        <v>400</v>
       </c>
       <c r="H157" s="4" t="s">
         <v>14</v>
@@ -12172,22 +12120,22 @@
         <v>8</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C158" s="2">
         <v>2</v>
       </c>
       <c r="D158" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G158" s="5" t="s">
         <v>401</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G158" s="5" t="s">
-        <v>402</v>
       </c>
       <c r="H158" s="4" t="s">
         <v>14</v>
@@ -12198,22 +12146,22 @@
         <v>8</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
       </c>
       <c r="D159" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G159" s="3" t="s">
         <v>404</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G159" s="3" t="s">
-        <v>405</v>
       </c>
       <c r="H159" s="4" t="s">
         <v>14</v>
@@ -12224,22 +12172,22 @@
         <v>8</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C160" s="2">
         <v>1</v>
       </c>
       <c r="D160" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G160" s="3" t="s">
         <v>406</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G160" s="3" t="s">
-        <v>407</v>
       </c>
       <c r="H160" s="4" t="s">
         <v>14</v>
@@ -12250,22 +12198,22 @@
         <v>8</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C161" s="2">
         <v>2</v>
       </c>
       <c r="D161" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G161" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G161" s="3" t="s">
-        <v>409</v>
       </c>
       <c r="H161" s="4" t="s">
         <v>14</v>
@@ -12276,22 +12224,22 @@
         <v>8</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C162" s="2">
         <v>3</v>
       </c>
       <c r="D162" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G162" s="3" t="s">
         <v>410</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G162" s="3" t="s">
-        <v>411</v>
       </c>
       <c r="H162" s="4" t="s">
         <v>14</v>
@@ -12302,25 +12250,25 @@
         <v>8</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
       </c>
       <c r="D163" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G163" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="E163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G163" s="3" t="s">
+      <c r="H163" s="4" t="s">
         <v>414</v>
-      </c>
-      <c r="H163" s="4" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.35">
@@ -12328,48 +12276,48 @@
         <v>8</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C164" s="2">
         <v>1</v>
       </c>
       <c r="D164" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G164" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="E164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G164" s="3" t="s">
+      <c r="H164" s="4" t="s">
         <v>417</v>
-      </c>
-      <c r="H164" s="4" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
       </c>
       <c r="D165" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G165" s="5" t="s">
         <v>421</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G165" s="5" t="s">
-        <v>422</v>
       </c>
       <c r="H165" s="4" t="s">
         <v>14</v>
@@ -12377,25 +12325,25 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="C166" s="2">
         <v>1</v>
       </c>
       <c r="D166" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G166" s="5" t="s">
         <v>423</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G166" s="5" t="s">
-        <v>424</v>
       </c>
       <c r="H166" s="4" t="s">
         <v>14</v>
@@ -12403,94 +12351,94 @@
     </row>
     <row r="167" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
       </c>
       <c r="D167" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G167" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="E167" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G167" s="3" t="s">
+      <c r="H167" s="4" t="s">
         <v>427</v>
-      </c>
-      <c r="H167" s="4" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C168" s="2">
         <v>1</v>
       </c>
       <c r="D168" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G168" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="E168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G168" s="3" t="s">
+      <c r="H168" s="4" t="s">
         <v>430</v>
-      </c>
-      <c r="H168" s="4" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
       </c>
       <c r="D169" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G169" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G169" s="3" t="s">
+      <c r="H169" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="H169" s="4" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C170" s="2">
         <v>1</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>11</v>
@@ -12499,24 +12447,24 @@
         <v>12</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>437</v>
+        <v>690</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>438</v>
+        <v>691</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C171" s="2">
         <v>2</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>11</v>
@@ -12525,24 +12473,24 @@
         <v>12</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="150" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C172" s="2">
         <v>3</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>11</v>
@@ -12551,24 +12499,24 @@
         <v>12</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>11</v>
@@ -12577,24 +12525,24 @@
         <v>12</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C174" s="2">
         <v>1</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>11</v>
@@ -12603,24 +12551,24 @@
         <v>12</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C175" s="2">
         <v>2</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>11</v>
@@ -12629,24 +12577,24 @@
         <v>12</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C176" s="2">
         <v>3</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>11</v>
@@ -12655,24 +12603,24 @@
         <v>12</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>11</v>
@@ -12681,24 +12629,24 @@
         <v>12</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C178" s="2">
         <v>1</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>11</v>
@@ -12707,24 +12655,24 @@
         <v>12</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C179" s="2">
         <v>2</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>11</v>
@@ -12733,24 +12681,24 @@
         <v>12</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C180" s="2">
         <v>3</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>11</v>
@@ -12759,7 +12707,7 @@
         <v>12</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="H180" s="4" t="s">
         <v>14</v>
@@ -12767,16 +12715,16 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C181" s="2">
         <v>4</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>11</v>
@@ -12785,24 +12733,24 @@
         <v>12</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C182" s="2">
         <v>0</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>11</v>
@@ -12811,24 +12759,24 @@
         <v>12</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="210" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C183" s="2">
         <v>1</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>11</v>
@@ -12837,24 +12785,24 @@
         <v>12</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>479</v>
+        <v>686</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C184" s="2">
         <v>2</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>11</v>
@@ -12863,24 +12811,24 @@
         <v>12</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C185" s="2">
         <v>3</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>11</v>
@@ -12889,24 +12837,24 @@
         <v>12</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C186" s="2">
         <v>0</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>11</v>
@@ -12915,24 +12863,24 @@
         <v>12</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C187" s="2">
         <v>1</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>11</v>
@@ -12941,24 +12889,24 @@
         <v>12</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C188" s="2">
         <v>2</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>11</v>
@@ -12967,24 +12915,24 @@
         <v>12</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="195" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C189" s="2">
         <v>3</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>11</v>
@@ -12993,24 +12941,24 @@
         <v>12</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>498</v>
+        <v>687</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>11</v>
@@ -13019,24 +12967,24 @@
         <v>12</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C191" s="2">
         <v>1</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>11</v>
@@ -13045,24 +12993,24 @@
         <v>12</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C192" s="2">
         <v>2</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>11</v>
@@ -13071,24 +13019,24 @@
         <v>12</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C193" s="2">
         <v>3</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>11</v>
@@ -13097,24 +13045,24 @@
         <v>12</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C194" s="2">
         <v>4</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>11</v>
@@ -13123,24 +13071,24 @@
         <v>12</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C195" s="2">
         <v>5</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>11</v>
@@ -13149,24 +13097,24 @@
         <v>12</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C196" s="2">
         <v>6</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>11</v>
@@ -13175,24 +13123,24 @@
         <v>12</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C197" s="2">
         <v>7</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>11</v>
@@ -13201,24 +13149,24 @@
         <v>12</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C198" s="2">
         <v>8</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>11</v>
@@ -13227,24 +13175,24 @@
         <v>12</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C199" s="2">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>11</v>
@@ -13253,24 +13201,24 @@
         <v>12</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C200" s="2">
         <v>0</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>11</v>
@@ -13279,24 +13227,24 @@
         <v>12</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C201" s="2">
         <v>1</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>11</v>
@@ -13305,24 +13253,24 @@
         <v>12</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C202" s="2">
         <v>2</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>11</v>
@@ -13331,24 +13279,24 @@
         <v>12</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C203" s="2">
         <v>3</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>11</v>
@@ -13357,24 +13305,24 @@
         <v>12</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C204" s="2">
         <v>4</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>11</v>
@@ -13383,24 +13331,24 @@
         <v>12</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C205" s="2">
         <v>0</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>11</v>
@@ -13409,24 +13357,24 @@
         <v>12</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C206" s="2">
         <v>1</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>11</v>
@@ -13435,24 +13383,24 @@
         <v>12</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C207" s="2">
         <v>2</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>11</v>
@@ -13461,24 +13409,24 @@
         <v>12</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C208" s="2">
         <v>3</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>11</v>
@@ -13487,24 +13435,24 @@
         <v>12</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C209" s="2">
         <v>4</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>11</v>
@@ -13513,24 +13461,24 @@
         <v>12</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C210" s="2">
         <v>5</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>11</v>
@@ -13539,24 +13487,24 @@
         <v>12</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C211" s="2">
         <v>6</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>11</v>
@@ -13565,24 +13513,24 @@
         <v>12</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C212" s="2">
         <v>7</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>11</v>
@@ -13591,24 +13539,24 @@
         <v>12</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C213" s="2">
         <v>8</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>11</v>
@@ -13617,24 +13565,24 @@
         <v>12</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C214" s="2">
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>11</v>
@@ -13643,24 +13591,24 @@
         <v>12</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C215" s="2">
         <v>0</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>11</v>
@@ -13669,24 +13617,24 @@
         <v>12</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C216" s="2">
         <v>1</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>11</v>
@@ -13695,24 +13643,24 @@
         <v>12</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C217" s="2">
         <v>2</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>11</v>
@@ -13721,24 +13669,24 @@
         <v>12</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C218" s="2">
         <v>0</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>11</v>
@@ -13747,24 +13695,24 @@
         <v>12</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="H218" s="4" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C219" s="2">
         <v>1</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>11</v>
@@ -13773,24 +13721,24 @@
         <v>12</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C220" s="2">
         <v>0</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>11</v>
@@ -13799,24 +13747,24 @@
         <v>12</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="H220" s="4" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C221" s="2">
         <v>1</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>11</v>
@@ -13825,24 +13773,24 @@
         <v>12</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C222" s="2">
         <v>0</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>11</v>
@@ -13851,24 +13799,24 @@
         <v>12</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="H222" s="4" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C223" s="2">
         <v>1</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>11</v>
@@ -13877,24 +13825,24 @@
         <v>12</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="H223" s="4" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C224" s="2">
         <v>2</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>11</v>
@@ -13903,7 +13851,7 @@
         <v>12</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="H224" s="4" t="s">
         <v>14</v>
@@ -13911,16 +13859,16 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C225" s="2">
         <v>3</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>11</v>
@@ -13929,7 +13877,7 @@
         <v>12</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="H225" s="4" t="s">
         <v>14</v>
@@ -13937,16 +13885,16 @@
     </row>
     <row r="226" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C226" s="2">
         <v>0</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>11</v>
@@ -13955,24 +13903,24 @@
         <v>12</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="H226" s="4" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C227" s="2">
         <v>1</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>11</v>
@@ -13981,24 +13929,24 @@
         <v>12</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="H227" s="4" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C228" s="2">
         <v>0</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>11</v>
@@ -14007,24 +13955,24 @@
         <v>12</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="H228" s="4" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C229" s="2">
         <v>1</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>11</v>
@@ -14033,24 +13981,24 @@
         <v>12</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="H229" s="4" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C230" s="2">
         <v>2</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>11</v>
@@ -14059,24 +14007,24 @@
         <v>12</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="H230" s="4" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C231" s="2">
         <v>3</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>11</v>
@@ -14085,24 +14033,24 @@
         <v>12</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="H231" s="4" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C232" s="2">
         <v>0</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>11</v>
@@ -14111,24 +14059,24 @@
         <v>12</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="H232" s="4" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C233" s="2">
         <v>1</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>11</v>
@@ -14137,7 +14085,7 @@
         <v>12</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="H233" s="4" t="s">
         <v>14</v>
@@ -14145,16 +14093,16 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C234" s="2">
         <v>0</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>11</v>
@@ -14163,7 +14111,7 @@
         <v>12</v>
       </c>
       <c r="G234" s="5" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="H234" s="4" t="s">
         <v>14</v>
@@ -14171,16 +14119,16 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C235" s="2">
         <v>1</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>11</v>
@@ -14189,7 +14137,7 @@
         <v>12</v>
       </c>
       <c r="G235" s="5" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="H235" s="4" t="s">
         <v>14</v>
@@ -14197,16 +14145,16 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C236" s="2">
         <v>2</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>11</v>
@@ -14215,7 +14163,7 @@
         <v>12</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="H236" s="4" t="s">
         <v>14</v>
@@ -14223,16 +14171,16 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C237" s="2">
         <v>3</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>11</v>
@@ -14241,7 +14189,7 @@
         <v>12</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="H237" s="4" t="s">
         <v>14</v>
@@ -14252,14 +14200,14 @@
         <v>8</v>
       </c>
       <c r="B238" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C238" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D238" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C238" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>338</v>
-      </c>
       <c r="E238" s="2" t="s">
         <v>11</v>
       </c>
@@ -14267,24 +14215,24 @@
         <v>12</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="H238" s="4" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="360" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C239" s="2">
-        <v>2001</v>
+        <v>3001</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>11</v>
@@ -14293,24 +14241,24 @@
         <v>12</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="H239" s="4" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C240" s="2">
-        <v>2001</v>
+        <v>3001</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>11</v>
@@ -14319,24 +14267,24 @@
         <v>12</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="H240" s="4" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C241" s="2">
-        <v>2001</v>
+        <v>3001</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>11</v>
@@ -14345,24 +14293,24 @@
         <v>12</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="H241" s="4" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C242" s="2">
-        <v>2002</v>
+        <v>3002</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>11</v>
@@ -14371,24 +14319,24 @@
         <v>12</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="H242" s="4" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="C243" s="2">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>11</v>
@@ -14397,50 +14345,50 @@
         <v>12</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="H243" s="4" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B244" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C244" s="2">
+        <v>3001</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G244" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="C244" s="2">
-        <v>2001</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G244" s="3" t="s">
-        <v>662</v>
-      </c>
       <c r="H244" s="4" t="s">
-        <v>663</v>
+        <v>688</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="150" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C245" s="2">
-        <v>2003</v>
+        <v>3003</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>11</v>
@@ -14449,24 +14397,24 @@
         <v>12</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="H245" s="4" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C246" s="2">
-        <v>2003</v>
+        <v>3003</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>11</v>
@@ -14475,24 +14423,24 @@
         <v>12</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="H246" s="4" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C247" s="2">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>11</v>
@@ -14501,24 +14449,24 @@
         <v>12</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="H247" s="4" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C248" s="2">
-        <v>2001</v>
+        <v>3001</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>11</v>
@@ -14527,24 +14475,24 @@
         <v>12</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="H248" s="4" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C249" s="2">
-        <v>2002</v>
+        <v>3002</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>11</v>
@@ -14553,24 +14501,24 @@
         <v>12</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="H249" s="4" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C250" s="2">
-        <v>2002</v>
+        <v>3002</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>11</v>
@@ -14579,24 +14527,24 @@
         <v>12</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="H250" s="4" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C251" s="2">
-        <v>2003</v>
+        <v>3003</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>11</v>
@@ -14605,24 +14553,24 @@
         <v>12</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="H251" s="4" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C252" s="2">
-        <v>2001</v>
+        <v>3001</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>11</v>
@@ -14631,24 +14579,24 @@
         <v>12</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="H252" s="4" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C253" s="2">
-        <v>2001</v>
+        <v>3001</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>11</v>
@@ -14657,24 +14605,24 @@
         <v>12</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="H253" s="4" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="C254" s="2">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>11</v>
@@ -14683,24 +14631,24 @@
         <v>12</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="H254" s="4" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="C255" s="2">
-        <v>2001</v>
+        <v>3001</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>11</v>
@@ -14709,14 +14657,14 @@
         <v>12</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="H255" s="4" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docassemble/CDCEvictionMoratorium/data/sources/cdc_eviction_moratorium_es.xlsx
+++ b/docassemble/CDCEvictionMoratorium/data/sources/cdc_eviction_moratorium_es.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qsteenhuis\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qsteenhuis\Google Drive\docassemble-suffolktest\sources\CDCEvictionMoratorium\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="10650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16810" windowHeight="10650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="684">
   <si>
     <t>interview</t>
   </si>
@@ -5752,159 +5752,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% for interview in interview_list(filename=current_interview_url)[0]:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${'!@&lt;a class="xyz" href="' + interview_url(i=current_interview_url, session=interview['session']) + '"&gt;!@' +  interview['title'] +  (' (' + interview.get("subtitle",'') + ')' if interview.get('subtitle') else '')  +"!@&lt;/a&gt;!@" }</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  última visita  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${format_date(interview['modtime'])}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, actualmente en la página **</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${interview['dict'].get('_internal',{}).get('steps')}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">**
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% endfor
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Ver todos sus formularios guardados en línea]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${url_of('interviews')}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-  </si>
-  <si>
     <t>docassemble.CDCEvictionMoratorium:cdc_eviction_moratorium.yml</t>
   </si>
   <si>
@@ -7382,6 +7229,1013 @@
     <t>Lea la información a continuación con mucho cuidado</t>
   </si>
   <si>
+    <t>cf83743b2771a981ba3343657a85bd0b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you sign the Declaration form, you are agreeing that you understand
+the following sentences and that they are true:
+Even though I may not be evicted before March 31, 2021,
+1. I still am responsible to pay my rent and follow all other rules of my lease. My landlord may charge me fees or interest.
+2. At the end of March 31, 2021, I may be required to pay all of the rent 
+due, in full. This may depend on the state that I live in. I can talk to a lawyer to be sure.
+3. I need to tell the truth on this form. If I do not, I may face civil
+or criminal penalties.
+</t>
+  </si>
+  <si>
+    <t>b0b50f13d5c688635be77a0646a132c1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sign your letter
+</t>
+  </si>
+  <si>
+    <t>Firme su carta</t>
+  </si>
+  <si>
+    <t>1ff9c70d52f0cbb907a0d57e2773f722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your letter is almost ready. You need to sign it first.
+Use the mouse or touchpad on your computer or
+sign with your finger on your phone. 
+You can send this letter to someone else to sign if you choose the "phone" option.
+</t>
+  </si>
+  <si>
+    <t>Su carta está casi lista. Usted debe firmarla primero.
+Use el dispositivo manual o el panel sensorial de su computadora o
+firme con el dedo en su teléfono.
+Puede enviar esta carta a otra persona para que la firme si elige la opción del "teléfono".</t>
+  </si>
+  <si>
+    <t>landlords name</t>
+  </si>
+  <si>
+    <t>2fa695fea5a46567843ff761007cb502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who is your landlord?
+</t>
+  </si>
+  <si>
+    <t>¿Quién es su arrendador?</t>
+  </si>
+  <si>
+    <t>9b3708d06e0588126f0b3632f5c7e54d</t>
+  </si>
+  <si>
+    <t>Full name or organization name</t>
+  </si>
+  <si>
+    <t>Nombre completo o nombre de la organización</t>
+  </si>
+  <si>
+    <t>e29f450a0664d23ac0088895bb702656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When do you plan to send this letter?
+</t>
+  </si>
+  <si>
+    <t>¿Cuándo planea enviar esta carta?</t>
+  </si>
+  <si>
+    <t>ca9f3e7e87b20aa258af93644989de43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The CDC moratorium starts September 4, 2020 and
+ends March 31, 2021.
+</t>
+  </si>
+  <si>
+    <t>62e610d3ec3e9462db3bbb3424a5d876</t>
+  </si>
+  <si>
+    <t>2020-09-04</t>
+  </si>
+  <si>
+    <t>72206970136056f648b9950a736c720a</t>
+  </si>
+  <si>
+    <t>2021-03-30</t>
+  </si>
+  <si>
+    <t>preview</t>
+  </si>
+  <si>
+    <t>4148dd34a6d6056586c5a490942ae0e9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Below is a preview of your letter
+</t>
+  </si>
+  <si>
+    <t>A continuación esta una vista previa de su carta</t>
+  </si>
+  <si>
+    <t>9f05a0a6e4b47e086d108c72b9d52675</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Click to open it in a new window. 
+Read it over carefully. Remember to come back to this
+window to sign and deliver it to your landlord.
+You can click 'Back' to make any changes, or download and edit the
+letter at the end of this interview.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ pdf_concatenate(letter['preview'], declaration['preview'], filename="CDC_eviction_moratorium_preview.pdf") }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Leer en español]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${spanish_declaration.url_for()}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Haga clic para abrirla en una nueva ventana.
+Léala detenidamente. Recuerde volver a esta
+ventana para firmar y entregarla a su arrendador.
+Usted puede hacer un clic de regresar para hacer cambios o descargar y editar la
+carta al final de esta entrevista.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ pdf_concatenate(letter['preview'], declaration['preview'], filename="CDC_eviction_moratorium_preview.pdf") }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Leer en español]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${spanish_declaration.url_for()}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>download</t>
+  </si>
+  <si>
+    <t>86415a4b87af7b5450296cba81356f39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your letter is ready to send
+</t>
+  </si>
+  <si>
+    <t>Su carta esta lista para ser enviada.</t>
+  </si>
+  <si>
+    <t>3e9612757f0ff4372c312742ff147539</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Click the image below to open a preview of your letter.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ pdf_concatenate(letter['final'], declaration['final'],filename="CDC_eviction_moratorium.pdf") }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Download a copy of this letter for your own records.
+2. Send a copy to your landlord. You can send it by email or
+   print a copy and mail it.
+3. You do not need to send it certified mail. If you do, it is a good
+   idea to also send a copy regular mail.
+4. If you need to make changes to your letter, download a copy and edit
+it using Microsoft Word, Google Docs, or another program of your choice.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Haga un clic en la imagen de abajo para abrir y poder ver su carta.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ pdf_concatenate(letter['final'], declaration['final'],filename="CDC_eviction_moratorium.pdf") }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Descargue una copia de esta carta para sus propios registros.
+2. Envíe una copia a su arrendador. Usted puede mandarla por correo electrónico o
+   imprima una copia y envíela por correo.
+3. No es necesario enviarla por correo certificado. Si lo hace, seria un buena
+   idea de enviar también una copia por correo regular.
+4. Si necesita hacer cambios en su carta, descargue una copia y edítela
+utilizando Microsoft Word, Google Docs u algún otro programa de su elección.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>7702556c0f1563589cc84f085da260e1</t>
+  </si>
+  <si>
+    <t>Generate new letter</t>
+  </si>
+  <si>
+    <t>Generar nueva carta</t>
+  </si>
+  <si>
+    <t>4a9c23d3923a796814d05c9a69689c50</t>
+  </si>
+  <si>
+    <t>Erase and exit</t>
+  </si>
+  <si>
+    <t>Borrar y salir</t>
+  </si>
+  <si>
+    <t>b347c4cf0fe3135931ef22a6aee59775</t>
+  </si>
+  <si>
+    <t>Send email to my landlord</t>
+  </si>
+  <si>
+    <t>Question_119</t>
+  </si>
+  <si>
+    <t>d3199ae89b01dde1ec4012ee225f31e4</t>
+  </si>
+  <si>
+    <t>Cover Letter</t>
+  </si>
+  <si>
+    <t>Carta de presentación</t>
+  </si>
+  <si>
+    <t>2335dbf22eaab30cd41738eed3a60e3a</t>
+  </si>
+  <si>
+    <t>CDC_eviction_moratorium_cover_letter</t>
+  </si>
+  <si>
+    <t>Question_120</t>
+  </si>
+  <si>
+    <t>32d2de359175c21694f7b382c80977c1</t>
+  </si>
+  <si>
+    <t>${ users[0].signature if i == 'final' else '' }</t>
+  </si>
+  <si>
+    <t>722646b7d59fe26dbf9ab1d50729e78a</t>
+  </si>
+  <si>
+    <t>${ str(users) }</t>
+  </si>
+  <si>
+    <t>6b254111af9f2e8fe20c0b87900e33e3</t>
+  </si>
+  <si>
+    <t>${ signature_date.format('MM/dd/yyyy') }</t>
+  </si>
+  <si>
+    <t>f44027b1b8bab636ffb901fa2d75632d</t>
+  </si>
+  <si>
+    <t>CDC Eviction Moratorium Declaration</t>
+  </si>
+  <si>
+    <t>7eb82e053b9a71f9c97c60e49c37e872</t>
+  </si>
+  <si>
+    <t>CDC_eviction_moratorium_declaration</t>
+  </si>
+  <si>
+    <t>2dbc412595911078a8a5902ad5c9c687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your Declaration form must be signed "under penalties of perjury."
+This means that it can be a crime if you lie on this form.
+</t>
+  </si>
+  <si>
+    <t>6827492c1e32c0325d581b52225632d7</t>
+  </si>
+  <si>
+    <t>I promise under penalties of perjury that my answers on this form are the truth.</t>
+  </si>
+  <si>
+    <t>Question_124</t>
+  </si>
+  <si>
+    <t>0d34004acbdb2e3a71a5c47f8b22dba9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">**Message from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${users}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> delivered by MassAccess Project**
+Dear </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ other_parties }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+I am writing you to express my right to not be evicted through March 31,
+2021 because I am unable to pay my rent due to the COVID-19 pandemic. I have
+this right under the Centers for Disease Control and Prevention's order dated
+September 1, 2020. 
+See: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.cdc.gov/coronavirus/2019-ncov/covid-eviction-declaration.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Please see my attached Declaration.
+Yours,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ users }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ users[0].email }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>c60780991ee5757f5291f9ee29cdbadb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC Eviction Moratorium Declaration
+</t>
+  </si>
+  <si>
+    <t>Question_125</t>
+  </si>
+  <si>
+    <t>7d7fb0fb6e2f574e9633be13c57952a7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email information
+</t>
+  </si>
+  <si>
+    <t>e2d0b82b38b5b73dcf9620116fdfbf9b</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A copy of your form will be emailed to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ other_parties }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, with
+the note "**Message from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${users}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> delivered by MassAccess Project**".
+The email will come from "no-reply@suffolklitlab.org". You will get
+a copy of the email in the "cc" field.
+If you prefer to send your own email, hit "Back". You can download the 
+completed letter and add it as an attachment to your own message instead.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>198584454b0ce1101ff5b50323325aa8</t>
+  </si>
+  <si>
+    <t>Your email address</t>
+  </si>
+  <si>
+    <t>7675ef6f561ce204c657a7a109fa67c4</t>
+  </si>
+  <si>
+    <t>Your landlord's email</t>
+  </si>
+  <si>
+    <t>email ending screen</t>
+  </si>
+  <si>
+    <t>07713cd7595afc2248269dc1792ef498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your email is on its way
+</t>
+  </si>
+  <si>
+    <t>f867ce83703983263f20f7df1bd139f3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can still download a copy of your letter below.
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% for interview in interview_list(filename=current_interview_url)[0]:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${'!@!@&lt;a class="xyz" href="' + interview_url(i=current_interview_url, session=interview['session']) + '"&gt;!@!@' +  interview['title'] +  (' (' + interview.get("subtitle",'') + ')' if interview.get('subtitle') else '')  +"!@!@&lt;/a&gt;!@!@" }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Last visited </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${format_date(interview['modtime'])}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, currently on page **</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${interview['dict'].get('_internal',{}).get('steps')}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">**
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% endfor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[View all of your saved online forms]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${url_of('interviews')}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% for interview in interview_list(filename=current_interview_url)[0]:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${'!@!@&lt;a class="xyz" href="' + interview_url(i=current_interview_url, session=interview['session']) + '"&gt;!@!@' +  interview['title'] +  (' (' + interview.get("subtitle",'') + ')' if interview.get('subtitle') else '')  +"!@!@&lt;/a&gt;!@!@" }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  última visita  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${format_date(interview['modtime'])}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, actualmente en la página **</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${interview['dict'].get('_internal',{}).get('steps')}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">**
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% endfor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Ver todos sus formularios guardados en línea]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${url_of('interviews')}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+  </si>
+  <si>
     <t>3345333e9fb006852dc080a2b86e2ca7</t>
   </si>
   <si>
@@ -7396,1256 +8250,6 @@
 </t>
   </si>
   <si>
-    <t>b0b50f13d5c688635be77a0646a132c1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sign your letter
-</t>
-  </si>
-  <si>
-    <t>Firme su carta</t>
-  </si>
-  <si>
-    <t>1ff9c70d52f0cbb907a0d57e2773f722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your letter is almost ready. You need to sign it first.
-Use the mouse or touchpad on your computer or
-sign with your finger on your phone. 
-You can send this letter to someone else to sign if you choose the "phone" option.
-</t>
-  </si>
-  <si>
-    <t>Su carta está casi lista. Usted debe firmarla primero.
-Use el dispositivo manual o el panel sensorial de su computadora o
-firme con el dedo en su teléfono.
-Puede enviar esta carta a otra persona para que la firme si elige la opción del "teléfono".</t>
-  </si>
-  <si>
-    <t>landlords name</t>
-  </si>
-  <si>
-    <t>2fa695fea5a46567843ff761007cb502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Who is your landlord?
-</t>
-  </si>
-  <si>
-    <t>¿Quién es su arrendador?</t>
-  </si>
-  <si>
-    <t>9b3708d06e0588126f0b3632f5c7e54d</t>
-  </si>
-  <si>
-    <t>Full name or organization name</t>
-  </si>
-  <si>
-    <t>Nombre completo o nombre de la organización</t>
-  </si>
-  <si>
-    <t>e29f450a0664d23ac0088895bb702656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When do you plan to send this letter?
-</t>
-  </si>
-  <si>
-    <t>¿Cuándo planea enviar esta carta?</t>
-  </si>
-  <si>
-    <t>b53f0fecac9bea3cad859b8d99a53824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The CDC moratorium starts September 4, 2020 and
-ends January 31, 2020.
-</t>
-  </si>
-  <si>
-    <t>62e610d3ec3e9462db3bbb3424a5d876</t>
-  </si>
-  <si>
-    <t>2020-09-04</t>
-  </si>
-  <si>
-    <t>9f32095c2b7ce15a514e3571d52dfda9</t>
-  </si>
-  <si>
-    <t>2021-01-31</t>
-  </si>
-  <si>
-    <t>preview</t>
-  </si>
-  <si>
-    <t>4148dd34a6d6056586c5a490942ae0e9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Below is a preview of your letter
-</t>
-  </si>
-  <si>
-    <t>A continuación esta una vista previa de su carta</t>
-  </si>
-  <si>
-    <t>9f05a0a6e4b47e086d108c72b9d52675</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Click to open it in a new window. 
-Read it over carefully. Remember to come back to this
-window to sign and deliver it to your landlord.
-You can click 'Back' to make any changes, or download and edit the
-letter at the end of this interview.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${ pdf_concatenate(letter['preview'], declaration['preview'], filename="CDC_eviction_moratorium_preview.pdf") }</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Leer en español]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${spanish_declaration.url_for()}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Haga clic para abrirla en una nueva ventana.
-Léala detenidamente. Recuerde volver a esta
-ventana para firmar y entregarla a su arrendador.
-Usted puede hacer un clic de regresar para hacer cambios o descargar y editar la
-carta al final de esta entrevista.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${ pdf_concatenate(letter['preview'], declaration['preview'], filename="CDC_eviction_moratorium_preview.pdf") }</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Leer en español]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${spanish_declaration.url_for()}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>download</t>
-  </si>
-  <si>
-    <t>86415a4b87af7b5450296cba81356f39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your letter is ready to send
-</t>
-  </si>
-  <si>
-    <t>Su carta esta lista para ser enviada.</t>
-  </si>
-  <si>
-    <t>3e9612757f0ff4372c312742ff147539</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Click the image below to open a preview of your letter.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${ pdf_concatenate(letter['final'], declaration['final'],filename="CDC_eviction_moratorium.pdf") }</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Download a copy of this letter for your own records.
-2. Send a copy to your landlord. You can send it by email or
-   print a copy and mail it.
-3. You do not need to send it certified mail. If you do, it is a good
-   idea to also send a copy regular mail.
-4. If you need to make changes to your letter, download a copy and edit
-it using Microsoft Word, Google Docs, or another program of your choice.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Haga un clic en la imagen de abajo para abrir y poder ver su carta.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${ pdf_concatenate(letter['final'], declaration['final'],filename="CDC_eviction_moratorium.pdf") }</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Descargue una copia de esta carta para sus propios registros.
-2. Envíe una copia a su arrendador. Usted puede mandarla por correo electrónico o
-   imprima una copia y envíela por correo.
-3. No es necesario enviarla por correo certificado. Si lo hace, seria un buena
-   idea de enviar también una copia por correo regular.
-4. Si necesita hacer cambios en su carta, descargue una copia y edítela
-utilizando Microsoft Word, Google Docs u algún otro programa de su elección.
-</t>
-    </r>
-  </si>
-  <si>
-    <t>7702556c0f1563589cc84f085da260e1</t>
-  </si>
-  <si>
-    <t>Generate new letter</t>
-  </si>
-  <si>
-    <t>Generar nueva carta</t>
-  </si>
-  <si>
-    <t>4a9c23d3923a796814d05c9a69689c50</t>
-  </si>
-  <si>
-    <t>Erase and exit</t>
-  </si>
-  <si>
-    <t>Borrar y salir</t>
-  </si>
-  <si>
-    <t>b347c4cf0fe3135931ef22a6aee59775</t>
-  </si>
-  <si>
-    <t>Send email to my landlord</t>
-  </si>
-  <si>
-    <t>Question_119</t>
-  </si>
-  <si>
-    <t>d3199ae89b01dde1ec4012ee225f31e4</t>
-  </si>
-  <si>
-    <t>Cover Letter</t>
-  </si>
-  <si>
-    <t>Carta de presentación</t>
-  </si>
-  <si>
-    <t>2335dbf22eaab30cd41738eed3a60e3a</t>
-  </si>
-  <si>
-    <t>CDC_eviction_moratorium_cover_letter</t>
-  </si>
-  <si>
-    <t>Question_120</t>
-  </si>
-  <si>
-    <t>32d2de359175c21694f7b382c80977c1</t>
-  </si>
-  <si>
-    <t>${ users[0].signature if i == 'final' else '' }</t>
-  </si>
-  <si>
-    <t>722646b7d59fe26dbf9ab1d50729e78a</t>
-  </si>
-  <si>
-    <t>${ str(users) }</t>
-  </si>
-  <si>
-    <t>6b254111af9f2e8fe20c0b87900e33e3</t>
-  </si>
-  <si>
-    <t>${ signature_date.format('MM/dd/yyyy') }</t>
-  </si>
-  <si>
-    <t>f44027b1b8bab636ffb901fa2d75632d</t>
-  </si>
-  <si>
-    <t>CDC Eviction Moratorium Declaration</t>
-  </si>
-  <si>
-    <t>7eb82e053b9a71f9c97c60e49c37e872</t>
-  </si>
-  <si>
-    <t>CDC_eviction_moratorium_declaration</t>
-  </si>
-  <si>
-    <t>2dbc412595911078a8a5902ad5c9c687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your Declaration form must be signed "under penalties of perjury."
-This means that it can be a crime if you lie on this form.
-</t>
-  </si>
-  <si>
-    <t>6827492c1e32c0325d581b52225632d7</t>
-  </si>
-  <si>
-    <t>I promise under penalties of perjury that my answers on this form are the truth.</t>
-  </si>
-  <si>
-    <t>Question_124</t>
-  </si>
-  <si>
-    <t>b21c34981c26e480b8cf8781b00c5594</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">**Message from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${users}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> delivered by MassAccess Project**
-Dear </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${ other_parties }</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:
-I am writing you to express my right to not be evicted through January 31,
-2020 because I am unable to pay my rent due to the COVID-19 pandemic. I have
-this right under the Centers for Disease Control and Prevention's order dated
-September 1, 2020. 
-See: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://www.cdc.gov/coronavirus/2019-ncov/covid-eviction-declaration.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Please see my attached Declaration.
-Yours,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${ users }</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${ users[0].email }</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>c60780991ee5757f5291f9ee29cdbadb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC Eviction Moratorium Declaration
-</t>
-  </si>
-  <si>
-    <t>Question_125</t>
-  </si>
-  <si>
-    <t>7d7fb0fb6e2f574e9633be13c57952a7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email information
-</t>
-  </si>
-  <si>
-    <t>e2d0b82b38b5b73dcf9620116fdfbf9b</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A copy of your form will be emailed to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${ other_parties }</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, with
-the note "**Message from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${users}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> delivered by MassAccess Project**".
-The email will come from "no-reply@suffolklitlab.org". You will get
-a copy of the email in the "cc" field.
-If you prefer to send your own email, hit "Back". You can download the 
-completed letter and add it as an attachment to your own message instead.
-</t>
-    </r>
-  </si>
-  <si>
-    <t>198584454b0ce1101ff5b50323325aa8</t>
-  </si>
-  <si>
-    <t>Your email address</t>
-  </si>
-  <si>
-    <t>7675ef6f561ce204c657a7a109fa67c4</t>
-  </si>
-  <si>
-    <t>Your landlord's email</t>
-  </si>
-  <si>
-    <t>email ending screen</t>
-  </si>
-  <si>
-    <t>07713cd7595afc2248269dc1792ef498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your email is on its way
-</t>
-  </si>
-  <si>
-    <t>f867ce83703983263f20f7df1bd139f3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can still download a copy of your letter below.
-</t>
-  </si>
-  <si>
-    <t>c1551a133809e5b58b073d4aaeba4245</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% if not user_logged_in():
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:sign-in-alt:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Sign-in]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${url_of('login', next=interview_url())}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) or </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[register]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${url_of('register', next=interview_url())}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) to save your progress (optional).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% endif
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% if 'dev' in get_config('url root') or 'test' in get_config('url root'):
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Feedback, suggestions, or comments? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Complete this survey]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://docs.google.com/forms/d/e/1FAIpQLSeHwCqKxXLJVcmPyUOZceuj2iUTmvOLWIEbAkWxfJVfDHvytA/viewform?usp=sf_link</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% else:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Feedback, suggestions, or comments? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Complete this survey]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://docs.google.com/forms/d/e/1FAIpQLSen48P7xIH6Feuzi9ovLs9HsOmhbo787vK-jScspAyZyjMqdg/viewform?usp=sf_link</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>% endif</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% if not user_logged_in():
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:sign-in-alt:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Sign-in]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${url_of('login', next=interview_url())}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) or </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[registrar]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${url_of('register', next=interview_url())}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) para salvar su progreso (opcional).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% endif
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% if 'dev' in get_config('url root') or 'test' in get_config('url root'):
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Sugestiones, Comentarios o sugerencias? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Complete esta encuesta]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://docs.google.com/forms/d/e/1FAIpQLSeHwCqKxXLJVcmPyUOZceuj2iUTmvOLWIEbAkWxfJVfDHvytA/viewform?usp=sf_link</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% else:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Complete esta esta encuesta survey]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://docs.google.com/forms/d/e/1FAIpQLSen48P7xIH6Feuzi9ovLs9HsOmhbo787vK-jScspAyZyjMqdg/viewform?usp=sf_link</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>% endif</t>
-    </r>
-  </si>
-  <si>
     <t>Cuando presente este formulario, esta aceptando que comprende
 lo seguiente:
 Aunque no puedo ser desalojado antes del 31 de enero de 2021,
@@ -8655,8 +8259,619 @@
 3. Yo necesito decir la verdad en este formulario. Si no lo hago, puedo enfrentarme a penalidades civiles o criminales.</t>
   </si>
   <si>
+    <t>b53f0fecac9bea3cad859b8d99a53824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The CDC moratorium starts September 4, 2020 and
+ends January 31, 2020.
+</t>
+  </si>
+  <si>
     <t>El moratorio de los CDC comienza el 4 de septiembre de 2020 y
 finaliza el 31 de enero de 2021.</t>
+  </si>
+  <si>
+    <t>c1551a133809e5b58b073d4aaeba4245</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% if not user_logged_in():
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:sign-in-alt:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Sign-in]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${url_of('login', next=interview_url())}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[register]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${url_of('register', next=interview_url())}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) to save your progress (optional).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% endif
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% if 'dev' in get_config('url root') or 'test' in get_config('url root'):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Feedback, suggestions, or comments? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Complete this survey]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://docs.google.com/forms/d/e/1FAIpQLSeHwCqKxXLJVcmPyUOZceuj2iUTmvOLWIEbAkWxfJVfDHvytA/viewform?usp=sf_link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% else:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Feedback, suggestions, or comments? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Complete this survey]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://docs.google.com/forms/d/e/1FAIpQLSen48P7xIH6Feuzi9ovLs9HsOmhbo787vK-jScspAyZyjMqdg/viewform?usp=sf_link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>% endif</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% if not user_logged_in():
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:sign-in-alt:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Sign-in]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${url_of('login', next=interview_url())}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[registrar]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${url_of('register', next=interview_url())}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) para salvar su progreso (opcional).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% endif
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% if 'dev' in get_config('url root') or 'test' in get_config('url root'):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Sugestiones, Comentarios o sugerencias? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Complete esta encuesta]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://docs.google.com/forms/d/e/1FAIpQLSeHwCqKxXLJVcmPyUOZceuj2iUTmvOLWIEbAkWxfJVfDHvytA/viewform?usp=sf_link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% else:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Complete esta esta encuesta survey]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://docs.google.com/forms/d/e/1FAIpQLSen48P7xIH6Feuzi9ovLs9HsOmhbo787vK-jScspAyZyjMqdg/viewform?usp=sf_link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>% endif</t>
+    </r>
+  </si>
+  <si>
+    <t>El moratorio de los CDC comienza el 4 de septiembre de 2020 y
+finaliza el 31 de marzo de 2021.</t>
+  </si>
+  <si>
+    <t>Enviar correo electrónico a mi arrendador</t>
+  </si>
+  <si>
+    <t>Cuando presente este formulario, esta aceptando que comprende
+lo seguiente:
+Aunque no puedo ser desalojado antes del 31 de marzo de 2021,
+1. Aún soy responsable de pagar la renta y seguir todas las demás reglas de mi contrato de arrendamiento. Mi arrendador puede cobrarme tarifas o intereses.
+2. Al final del 31 de marzo  de 2021, se me puede exigir que pague todo el alquiler
+debido en su totalidad.
+3. Yo necesito decir la verdad en este formulario. Si no lo hago, puedo enfrentarme a penalidades civiles o criminales.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${x}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, firme abajo
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -9040,14 +9255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H250"/>
+  <dimension ref="A1:H253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <pane xSplit="17600" ySplit="6890" topLeftCell="H252"/>
-      <selection activeCell="G254" sqref="G254"/>
-      <selection pane="topRight" activeCell="H251" sqref="H251"/>
-      <selection pane="bottomLeft" activeCell="G252" sqref="G252"/>
-      <selection pane="bottomRight" activeCell="H252" sqref="H252"/>
+    <sheetView tabSelected="1" topLeftCell="G218" workbookViewId="0">
+      <selection activeCell="H219" sqref="H219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11499,7 +11710,7 @@
         <v>238</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>14</v>
+        <v>683</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -13397,30 +13608,30 @@
         <v>427</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>428</v>
+        <v>14</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
       </c>
       <c r="D168" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G168" s="5" t="s">
         <v>431</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G168" s="5" t="s">
-        <v>432</v>
       </c>
       <c r="H168" s="4" t="s">
         <v>14</v>
@@ -13428,25 +13639,25 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="C169" s="2">
         <v>1</v>
       </c>
       <c r="D169" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G169" s="5" t="s">
         <v>433</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G169" s="5" t="s">
-        <v>434</v>
       </c>
       <c r="H169" s="4" t="s">
         <v>14</v>
@@ -13454,1255 +13665,1255 @@
     </row>
     <row r="170" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
       </c>
       <c r="D170" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G170" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="E170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G170" s="3" t="s">
+      <c r="H170" s="4" t="s">
         <v>437</v>
-      </c>
-      <c r="H170" s="4" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="375" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C171" s="2">
         <v>1</v>
       </c>
       <c r="D171" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G171" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="E171" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G171" s="3" t="s">
+      <c r="H171" s="4" t="s">
         <v>440</v>
-      </c>
-      <c r="H171" s="4" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
       </c>
       <c r="D172" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G172" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="E172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G172" s="3" t="s">
+      <c r="H172" s="4" t="s">
         <v>444</v>
-      </c>
-      <c r="H172" s="4" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="150" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C173" s="2">
         <v>1</v>
       </c>
       <c r="D173" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G173" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="E173" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G173" s="3" t="s">
+      <c r="H173" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="H173" s="4" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C174" s="2">
         <v>2</v>
       </c>
       <c r="D174" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G174" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E174" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G174" s="3" t="s">
+      <c r="H174" s="4" t="s">
         <v>450</v>
-      </c>
-      <c r="H174" s="4" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C175" s="2">
         <v>3</v>
       </c>
       <c r="D175" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G175" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="E175" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G175" s="3" t="s">
+      <c r="H175" s="4" t="s">
         <v>453</v>
-      </c>
-      <c r="H175" s="4" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
       </c>
       <c r="D176" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G176" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="E176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G176" s="3" t="s">
+      <c r="H176" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="H176" s="4" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C177" s="2">
         <v>1</v>
       </c>
       <c r="D177" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G177" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="E177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G177" s="3" t="s">
+      <c r="H177" s="4" t="s">
         <v>460</v>
-      </c>
-      <c r="H177" s="4" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C178" s="2">
         <v>2</v>
       </c>
       <c r="D178" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G178" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="E178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G178" s="3" t="s">
+      <c r="H178" s="4" t="s">
         <v>463</v>
-      </c>
-      <c r="H178" s="4" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C179" s="2">
         <v>3</v>
       </c>
       <c r="D179" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G179" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="E179" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G179" s="3" t="s">
+      <c r="H179" s="4" t="s">
         <v>466</v>
-      </c>
-      <c r="H179" s="4" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C180" s="2">
         <v>0</v>
       </c>
       <c r="D180" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G180" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="E180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G180" s="3" t="s">
+      <c r="H180" s="4" t="s">
         <v>470</v>
-      </c>
-      <c r="H180" s="4" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C181" s="2">
         <v>1</v>
       </c>
       <c r="D181" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G181" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="E181" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G181" s="3" t="s">
+      <c r="H181" s="4" t="s">
         <v>473</v>
-      </c>
-      <c r="H181" s="4" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C182" s="2">
         <v>2</v>
       </c>
       <c r="D182" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G182" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="E182" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G182" s="3" t="s">
+      <c r="H182" s="4" t="s">
         <v>476</v>
-      </c>
-      <c r="H182" s="4" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C183" s="2">
         <v>3</v>
       </c>
       <c r="D183" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G183" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="E183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G183" s="3" t="s">
+      <c r="H183" s="4" t="s">
         <v>479</v>
-      </c>
-      <c r="H183" s="4" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C184" s="2">
         <v>0</v>
       </c>
       <c r="D184" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G184" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="E184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G184" s="3" t="s">
+      <c r="H184" s="4" t="s">
         <v>483</v>
-      </c>
-      <c r="H184" s="4" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="210" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C185" s="2">
         <v>1</v>
       </c>
       <c r="D185" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G185" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="E185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G185" s="3" t="s">
+      <c r="H185" s="4" t="s">
         <v>486</v>
-      </c>
-      <c r="H185" s="4" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C186" s="2">
         <v>2</v>
       </c>
       <c r="D186" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G186" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="E186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G186" s="3" t="s">
+      <c r="H186" s="4" t="s">
         <v>489</v>
-      </c>
-      <c r="H186" s="4" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C187" s="2">
         <v>3</v>
       </c>
       <c r="D187" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G187" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="E187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G187" s="3" t="s">
+      <c r="H187" s="4" t="s">
         <v>492</v>
-      </c>
-      <c r="H187" s="4" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C188" s="2">
         <v>0</v>
       </c>
       <c r="D188" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G188" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="E188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G188" s="3" t="s">
+      <c r="H188" s="4" t="s">
         <v>496</v>
-      </c>
-      <c r="H188" s="4" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C189" s="2">
         <v>1</v>
       </c>
       <c r="D189" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G189" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="E189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G189" s="3" t="s">
+      <c r="H189" s="4" t="s">
         <v>499</v>
-      </c>
-      <c r="H189" s="4" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C190" s="2">
         <v>2</v>
       </c>
       <c r="D190" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G190" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="E190" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G190" s="3" t="s">
+      <c r="H190" s="4" t="s">
         <v>502</v>
-      </c>
-      <c r="H190" s="4" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C191" s="2">
         <v>3</v>
       </c>
       <c r="D191" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G191" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="E191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G191" s="3" t="s">
+      <c r="H191" s="4" t="s">
         <v>505</v>
-      </c>
-      <c r="H191" s="4" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C192" s="2">
         <v>0</v>
       </c>
       <c r="D192" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G192" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="E192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G192" s="3" t="s">
+      <c r="H192" s="4" t="s">
         <v>509</v>
-      </c>
-      <c r="H192" s="4" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C193" s="2">
         <v>1</v>
       </c>
       <c r="D193" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G193" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="E193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G193" s="3" t="s">
-        <v>512</v>
-      </c>
       <c r="H193" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C194" s="2">
         <v>2</v>
       </c>
       <c r="D194" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G194" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="E194" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G194" s="3" t="s">
+      <c r="H194" s="4" t="s">
         <v>514</v>
-      </c>
-      <c r="H194" s="4" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C195" s="2">
         <v>3</v>
       </c>
       <c r="D195" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G195" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E195" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G195" s="3" t="s">
+      <c r="H195" s="4" t="s">
         <v>517</v>
-      </c>
-      <c r="H195" s="4" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C196" s="2">
         <v>4</v>
       </c>
       <c r="D196" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G196" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="E196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G196" s="3" t="s">
+      <c r="H196" s="4" t="s">
         <v>520</v>
-      </c>
-      <c r="H196" s="4" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C197" s="2">
         <v>5</v>
       </c>
       <c r="D197" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G197" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="E197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G197" s="3" t="s">
+      <c r="H197" s="4" t="s">
         <v>523</v>
-      </c>
-      <c r="H197" s="4" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C198" s="2">
         <v>6</v>
       </c>
       <c r="D198" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G198" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="E198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G198" s="3" t="s">
+      <c r="H198" s="4" t="s">
         <v>526</v>
-      </c>
-      <c r="H198" s="4" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C199" s="2">
         <v>7</v>
       </c>
       <c r="D199" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G199" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="E199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G199" s="3" t="s">
+      <c r="H199" s="4" t="s">
         <v>529</v>
-      </c>
-      <c r="H199" s="4" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C200" s="2">
         <v>8</v>
       </c>
       <c r="D200" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G200" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="E200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G200" s="3" t="s">
+      <c r="H200" s="4" t="s">
         <v>532</v>
-      </c>
-      <c r="H200" s="4" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C201" s="2">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G201" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="E201" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G201" s="3" t="s">
+      <c r="H201" s="4" t="s">
         <v>535</v>
-      </c>
-      <c r="H201" s="4" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C202" s="2">
         <v>0</v>
       </c>
       <c r="D202" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G202" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="E202" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G202" s="3" t="s">
+      <c r="H202" s="4" t="s">
         <v>539</v>
-      </c>
-      <c r="H202" s="4" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C203" s="2">
         <v>1</v>
       </c>
       <c r="D203" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G203" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="E203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G203" s="3" t="s">
+      <c r="H203" s="4" t="s">
         <v>542</v>
-      </c>
-      <c r="H203" s="4" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C204" s="2">
         <v>2</v>
       </c>
       <c r="D204" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G204" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="E204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G204" s="3" t="s">
+      <c r="H204" s="4" t="s">
         <v>545</v>
-      </c>
-      <c r="H204" s="4" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C205" s="2">
         <v>0</v>
       </c>
       <c r="D205" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G205" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="E205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G205" s="3" t="s">
+      <c r="H205" s="4" t="s">
         <v>549</v>
-      </c>
-      <c r="H205" s="4" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C206" s="2">
         <v>1</v>
       </c>
       <c r="D206" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G206" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="E206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G206" s="3" t="s">
-        <v>552</v>
-      </c>
       <c r="H206" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C207" s="2">
         <v>2</v>
       </c>
       <c r="D207" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G207" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="E207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G207" s="3" t="s">
+      <c r="H207" s="4" t="s">
         <v>554</v>
-      </c>
-      <c r="H207" s="4" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C208" s="2">
         <v>3</v>
       </c>
       <c r="D208" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G208" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="E208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G208" s="3" t="s">
+      <c r="H208" s="4" t="s">
         <v>557</v>
-      </c>
-      <c r="H208" s="4" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C209" s="2">
         <v>4</v>
       </c>
       <c r="D209" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G209" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="E209" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G209" s="3" t="s">
+      <c r="H209" s="4" t="s">
         <v>560</v>
-      </c>
-      <c r="H209" s="4" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C210" s="2">
         <v>5</v>
       </c>
       <c r="D210" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G210" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="E210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G210" s="3" t="s">
+      <c r="H210" s="4" t="s">
         <v>563</v>
-      </c>
-      <c r="H210" s="4" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C211" s="2">
         <v>6</v>
       </c>
       <c r="D211" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G211" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="E211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G211" s="3" t="s">
+      <c r="H211" s="4" t="s">
         <v>566</v>
-      </c>
-      <c r="H211" s="4" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C212" s="2">
         <v>7</v>
       </c>
       <c r="D212" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G212" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="E212" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G212" s="3" t="s">
+      <c r="H212" s="4" t="s">
         <v>569</v>
-      </c>
-      <c r="H212" s="4" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C213" s="2">
         <v>8</v>
       </c>
       <c r="D213" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G213" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="E213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G213" s="3" t="s">
+      <c r="H213" s="4" t="s">
         <v>572</v>
-      </c>
-      <c r="H213" s="4" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C214" s="2">
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G214" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="E214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G214" s="3" t="s">
+      <c r="H214" s="4" t="s">
         <v>575</v>
-      </c>
-      <c r="H214" s="4" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C215" s="2">
         <v>0</v>
       </c>
       <c r="D215" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G215" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="E215" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G215" s="3" t="s">
+      <c r="H215" s="4" t="s">
         <v>579</v>
-      </c>
-      <c r="H215" s="4" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C216" s="2">
         <v>1</v>
       </c>
       <c r="D216" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G216" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="E216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G216" s="3" t="s">
+      <c r="H216" s="4" t="s">
         <v>582</v>
-      </c>
-      <c r="H216" s="4" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C217" s="2">
         <v>2</v>
       </c>
       <c r="D217" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G217" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="E217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G217" s="3" t="s">
-        <v>585</v>
-      </c>
       <c r="H217" s="4" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>272</v>
@@ -14711,24 +14922,24 @@
         <v>0</v>
       </c>
       <c r="D218" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G218" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G218" s="3" t="s">
+      <c r="H218" s="4" t="s">
         <v>587</v>
-      </c>
-      <c r="H218" s="4" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>272</v>
@@ -14737,76 +14948,76 @@
         <v>1</v>
       </c>
       <c r="D219" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G219" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="E219" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G219" s="3" t="s">
+      <c r="H219" s="4" t="s">
         <v>590</v>
-      </c>
-      <c r="H219" s="4" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C220" s="2">
         <v>0</v>
       </c>
       <c r="D220" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G220" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="E220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G220" s="3" t="s">
+      <c r="H220" s="4" t="s">
         <v>594</v>
-      </c>
-      <c r="H220" s="4" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C221" s="2">
         <v>1</v>
       </c>
       <c r="D221" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G221" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="E221" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G221" s="3" t="s">
+      <c r="H221" s="4" t="s">
         <v>597</v>
-      </c>
-      <c r="H221" s="4" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>263</v>
@@ -14815,24 +15026,24 @@
         <v>0</v>
       </c>
       <c r="D222" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G222" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="E222" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G222" s="3" t="s">
+      <c r="H222" s="4" t="s">
         <v>600</v>
-      </c>
-      <c r="H222" s="4" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>263</v>
@@ -14841,24 +15052,24 @@
         <v>1</v>
       </c>
       <c r="D223" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G223" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="E223" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G223" s="3" t="s">
-        <v>603</v>
-      </c>
       <c r="H223" s="4" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>263</v>
@@ -14867,16 +15078,16 @@
         <v>2</v>
       </c>
       <c r="D224" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G224" s="3" t="s">
         <v>604</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G224" s="3" t="s">
-        <v>605</v>
       </c>
       <c r="H224" s="4" t="s">
         <v>14</v>
@@ -14884,7 +15095,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>263</v>
@@ -14893,16 +15104,16 @@
         <v>3</v>
       </c>
       <c r="D225" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G225" s="3" t="s">
         <v>606</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G225" s="3" t="s">
-        <v>607</v>
       </c>
       <c r="H225" s="4" t="s">
         <v>14</v>
@@ -14910,233 +15121,233 @@
     </row>
     <row r="226" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C226" s="2">
         <v>0</v>
       </c>
       <c r="D226" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G226" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="E226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G226" s="3" t="s">
+      <c r="H226" s="4" t="s">
         <v>610</v>
-      </c>
-      <c r="H226" s="4" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C227" s="2">
         <v>1</v>
       </c>
       <c r="D227" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G227" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="E227" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G227" s="3" t="s">
+      <c r="H227" s="4" t="s">
         <v>613</v>
-      </c>
-      <c r="H227" s="4" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C228" s="2">
         <v>0</v>
       </c>
       <c r="D228" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G228" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="E228" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G228" s="3" t="s">
+      <c r="H228" s="4" t="s">
         <v>617</v>
-      </c>
-      <c r="H228" s="4" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C229" s="2">
         <v>1</v>
       </c>
       <c r="D229" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G229" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="E229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G229" s="3" t="s">
+      <c r="H229" s="4" t="s">
         <v>620</v>
-      </c>
-      <c r="H229" s="4" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C230" s="2">
         <v>2</v>
       </c>
       <c r="D230" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G230" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="E230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G230" s="3" t="s">
+      <c r="H230" s="4" t="s">
         <v>623</v>
-      </c>
-      <c r="H230" s="4" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C231" s="2">
         <v>3</v>
       </c>
       <c r="D231" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G231" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="E231" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G231" s="3" t="s">
+      <c r="H231" s="4" t="s">
         <v>626</v>
-      </c>
-      <c r="H231" s="4" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C232" s="2">
         <v>4</v>
       </c>
       <c r="D232" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G232" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="E232" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G232" s="3" t="s">
-        <v>629</v>
-      </c>
       <c r="H232" s="4" t="s">
-        <v>14</v>
+        <v>681</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C233" s="2">
         <v>0</v>
       </c>
       <c r="D233" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G233" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="E233" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G233" s="3" t="s">
+      <c r="H233" s="4" t="s">
         <v>632</v>
-      </c>
-      <c r="H233" s="4" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C234" s="2">
         <v>1</v>
       </c>
       <c r="D234" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G234" s="3" t="s">
         <v>634</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G234" s="3" t="s">
-        <v>635</v>
       </c>
       <c r="H234" s="4" t="s">
         <v>14</v>
@@ -15144,25 +15355,25 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C235" s="2">
         <v>0</v>
       </c>
       <c r="D235" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G235" s="5" t="s">
         <v>637</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G235" s="5" t="s">
-        <v>638</v>
       </c>
       <c r="H235" s="4" t="s">
         <v>14</v>
@@ -15170,25 +15381,25 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C236" s="2">
         <v>1</v>
       </c>
       <c r="D236" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G236" s="5" t="s">
         <v>639</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G236" s="5" t="s">
-        <v>640</v>
       </c>
       <c r="H236" s="4" t="s">
         <v>14</v>
@@ -15196,25 +15407,25 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C237" s="2">
         <v>2</v>
       </c>
       <c r="D237" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G237" s="5" t="s">
         <v>641</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G237" s="5" t="s">
-        <v>642</v>
       </c>
       <c r="H237" s="4" t="s">
         <v>14</v>
@@ -15222,25 +15433,25 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C238" s="2">
         <v>3</v>
       </c>
       <c r="D238" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G238" s="3" t="s">
         <v>643</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G238" s="3" t="s">
-        <v>644</v>
       </c>
       <c r="H238" s="4" t="s">
         <v>14</v>
@@ -15248,25 +15459,25 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C239" s="2">
         <v>4</v>
       </c>
       <c r="D239" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G239" s="3" t="s">
         <v>645</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G239" s="3" t="s">
-        <v>646</v>
       </c>
       <c r="H239" s="4" t="s">
         <v>14</v>
@@ -15274,7 +15485,7 @@
     </row>
     <row r="240" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>354</v>
@@ -15283,16 +15494,16 @@
         <v>0</v>
       </c>
       <c r="D240" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G240" s="3" t="s">
         <v>647</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G240" s="3" t="s">
-        <v>648</v>
       </c>
       <c r="H240" s="4" t="s">
         <v>353</v>
@@ -15300,7 +15511,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>354</v>
@@ -15309,16 +15520,16 @@
         <v>1</v>
       </c>
       <c r="D241" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G241" s="3" t="s">
         <v>649</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G241" s="3" t="s">
-        <v>650</v>
       </c>
       <c r="H241" s="4" t="s">
         <v>360</v>
@@ -15326,25 +15537,25 @@
     </row>
     <row r="242" spans="1:8" ht="270" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C242" s="2">
         <v>0</v>
       </c>
       <c r="D242" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G242" s="3" t="s">
         <v>652</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G242" s="3" t="s">
-        <v>653</v>
       </c>
       <c r="H242" s="4" t="s">
         <v>14</v>
@@ -15352,25 +15563,25 @@
     </row>
     <row r="243" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C243" s="2">
         <v>1</v>
       </c>
       <c r="D243" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G243" s="3" t="s">
         <v>654</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G243" s="3" t="s">
-        <v>655</v>
       </c>
       <c r="H243" s="4" t="s">
         <v>14</v>
@@ -15378,25 +15589,25 @@
     </row>
     <row r="244" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C244" s="2">
         <v>0</v>
       </c>
       <c r="D244" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G244" s="3" t="s">
         <v>657</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G244" s="3" t="s">
-        <v>658</v>
       </c>
       <c r="H244" s="4" t="s">
         <v>14</v>
@@ -15404,25 +15615,25 @@
     </row>
     <row r="245" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C245" s="2">
         <v>1</v>
       </c>
       <c r="D245" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G245" s="3" t="s">
         <v>659</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F245" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G245" s="3" t="s">
-        <v>660</v>
       </c>
       <c r="H245" s="4" t="s">
         <v>14</v>
@@ -15430,51 +15641,48 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C246" s="2">
         <v>2</v>
       </c>
       <c r="D246" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G246" s="3" t="s">
         <v>661</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F246" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G246" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="H246" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C247" s="2">
         <v>3</v>
       </c>
       <c r="D247" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G247" s="3" t="s">
         <v>663</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F247" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G247" s="3" t="s">
-        <v>664</v>
       </c>
       <c r="H247" s="4" t="s">
         <v>14</v>
@@ -15482,25 +15690,25 @@
     </row>
     <row r="248" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C248" s="2">
         <v>0</v>
       </c>
       <c r="D248" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G248" s="3" t="s">
         <v>666</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F248" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G248" s="3" t="s">
-        <v>667</v>
       </c>
       <c r="H248" s="4" t="s">
         <v>14</v>
@@ -15508,59 +15716,137 @@
     </row>
     <row r="249" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C249" s="2">
         <v>1</v>
       </c>
       <c r="D249" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G249" s="3" t="s">
         <v>668</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F249" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G249" s="3" t="s">
-        <v>669</v>
       </c>
       <c r="H249" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B250" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C250" s="2">
+        <v>1001</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G250" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="H250" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A251" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C251" s="2">
+        <v>1002</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G251" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="H251" s="4" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A252" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C252" s="2">
+        <v>1001</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="H252" s="4" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C250" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F250" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G250" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="H250" s="4" t="s">
-        <v>672</v>
+      <c r="C253" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G253" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="H253" s="4" t="s">
+        <v>679</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>